--- a/Samples/Iris flower data set.xlsx
+++ b/Samples/Iris flower data set.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>sepal length</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>BatchSize</t>
-  </si>
-  <si>
-    <t>MaxRelativeNoise</t>
   </si>
   <si>
     <t>Weights</t>
@@ -591,7 +588,7 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,12 +640,12 @@
         <v>27</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -677,16 +674,16 @@
         <v>1</v>
       </c>
       <c r="M2" s="2">
-        <f t="array" aca="1" ref="M2:O2" ca="1">_xll.nnFeedForward($K$20,A2:D2)</f>
-        <v>1.0006740830040199E-6</v>
+        <f t="array" aca="1" ref="M2:O2" ca="1">_xll.nnFeedForward($K$19,A2:D2)</f>
+        <v>3.8287078940006356E-6</v>
       </c>
       <c r="N2" s="2">
         <f ca="1"/>
-        <v>2.7935138234739857E-3</v>
+        <v>5.4152476468140856E-3</v>
       </c>
       <c r="O2" s="2">
         <f ca="1"/>
-        <v>0.99720548550244303</v>
+        <v>0.99458092364529194</v>
       </c>
       <c r="P2" s="2">
         <f ca="1">IF(M2=MAX($M2:$O2),1,0)</f>
@@ -702,19 +699,19 @@
       </c>
       <c r="S2" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F2:H2,M2:O2)</f>
-        <v>2.7984264428871871E-3</v>
+        <v>5.4338128117461587E-3</v>
       </c>
       <c r="V2" s="2">
         <f t="array" aca="1" ref="V2:X2" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A2:D2)</f>
-        <v>1.0006740830040199E-6</v>
+        <v>3.8287078940006356E-6</v>
       </c>
       <c r="W2" s="2">
         <f ca="1"/>
-        <v>2.7935138234739857E-3</v>
+        <v>5.4152476468140856E-3</v>
       </c>
       <c r="X2" s="2">
         <f ca="1"/>
-        <v>0.99720548550244303</v>
+        <v>0.99458092364529194</v>
       </c>
       <c r="Y2" s="2">
         <f ca="1">M2-V2</f>
@@ -753,16 +750,16 @@
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <f t="array" aca="1" ref="M3:O3" ca="1">_xll.nnFeedForward($K$20,A3:D3)</f>
-        <v>9.333590483493612E-6</v>
+        <f t="array" aca="1" ref="M3:O3" ca="1">_xll.nnFeedForward($K$19,A3:D3)</f>
+        <v>4.8802585907670501E-4</v>
       </c>
       <c r="N3" s="2">
         <f ca="1"/>
-        <v>2.7919089375210315E-2</v>
+        <v>0.9911281191487824</v>
       </c>
       <c r="O3" s="2">
         <f ca="1"/>
-        <v>0.97207157703430613</v>
+        <v>8.3838549921410408E-3</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P66" ca="1" si="2">IF(M3=MAX($M3:$O3),1,0)</f>
@@ -770,27 +767,27 @@
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q66" ca="1" si="3">IF(N3=MAX($M3:$O3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R66" ca="1" si="4">IF(O3=MAX($M3:$O3),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F3:H3,M3:O3)</f>
-        <v>3.5784446171209257</v>
+        <v>8.9114703154166298E-3</v>
       </c>
       <c r="V3" s="2">
         <f t="array" aca="1" ref="V3:X3" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A3:D3)</f>
-        <v>9.333590483493612E-6</v>
+        <v>4.8802585907670501E-4</v>
       </c>
       <c r="W3" s="2">
         <f ca="1"/>
-        <v>2.7919089375210315E-2</v>
+        <v>0.9911281191487824</v>
       </c>
       <c r="X3" s="2">
         <f ca="1"/>
-        <v>0.97207157703430613</v>
+        <v>8.3838549921410408E-3</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" ref="Y3:Y66" ca="1" si="5">M3-V3</f>
@@ -832,16 +829,16 @@
         <v>8</v>
       </c>
       <c r="M4" s="2">
-        <f t="array" aca="1" ref="M4:O4" ca="1">_xll.nnFeedForward($K$20,A4:D4)</f>
-        <v>4.3291622127257463E-4</v>
+        <f t="array" aca="1" ref="M4:O4" ca="1">_xll.nnFeedForward($K$19,A4:D4)</f>
+        <v>5.4078915127781998E-4</v>
       </c>
       <c r="N4" s="2">
         <f ca="1"/>
-        <v>0.98046168260199351</v>
+        <v>0.99766601266990251</v>
       </c>
       <c r="O4" s="2">
         <f ca="1"/>
-        <v>1.9105401176733927E-2</v>
+        <v>1.7931981788197916E-3</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -857,19 +854,19 @@
       </c>
       <c r="S4" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F4:H4,M4:O4)</f>
-        <v>1.9731713556584998E-2</v>
+        <v>2.3367153240882476E-3</v>
       </c>
       <c r="V4" s="2">
         <f t="array" aca="1" ref="V4:X4" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A4:D4)</f>
-        <v>4.3291622127257463E-4</v>
+        <v>5.4078915127781998E-4</v>
       </c>
       <c r="W4" s="2">
         <f ca="1"/>
-        <v>0.98046168260199351</v>
+        <v>0.99766601266990251</v>
       </c>
       <c r="X4" s="2">
         <f ca="1"/>
-        <v>1.9105401176733927E-2</v>
+        <v>1.7931981788197916E-3</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -914,16 +911,16 @@
         <v>15</v>
       </c>
       <c r="M5" s="2">
-        <f t="array" aca="1" ref="M5:O5" ca="1">_xll.nnFeedForward($K$20,A5:D5)</f>
-        <v>9.9856054908265898E-7</v>
+        <f t="array" aca="1" ref="M5:O5" ca="1">_xll.nnFeedForward($K$19,A5:D5)</f>
+        <v>3.8142808030674098E-6</v>
       </c>
       <c r="N5" s="2">
         <f ca="1"/>
-        <v>2.7879377417420535E-3</v>
+        <v>5.3941885873416799E-3</v>
       </c>
       <c r="O5" s="2">
         <f ca="1"/>
-        <v>0.99721106369770884</v>
+        <v>0.99460199713185526</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -939,19 +936,19 @@
       </c>
       <c r="S5" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F5:H5,M5:O5)</f>
-        <v>2.7928326312352922E-3</v>
+        <v>5.4126247285950294E-3</v>
       </c>
       <c r="V5" s="2">
         <f t="array" aca="1" ref="V5:X5" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A5:D5)</f>
-        <v>9.9856054908265898E-7</v>
+        <v>3.8142808030674098E-6</v>
       </c>
       <c r="W5" s="2">
         <f ca="1"/>
-        <v>2.7879377417420535E-3</v>
+        <v>5.3941885873416799E-3</v>
       </c>
       <c r="X5" s="2">
         <f ca="1"/>
-        <v>0.99721106369770884</v>
+        <v>0.99460199713185526</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -996,16 +993,16 @@
         <v>50000</v>
       </c>
       <c r="M6" s="2">
-        <f t="array" aca="1" ref="M6:O6" ca="1">_xll.nnFeedForward($K$20,A6:D6)</f>
-        <v>1.0046770563013105E-6</v>
+        <f t="array" aca="1" ref="M6:O6" ca="1">_xll.nnFeedForward($K$19,A6:D6)</f>
+        <v>3.8592620273020054E-6</v>
       </c>
       <c r="N6" s="2">
         <f ca="1"/>
-        <v>2.8040537835877055E-3</v>
+        <v>5.4596659910151821E-3</v>
       </c>
       <c r="O6" s="2">
         <f ca="1"/>
-        <v>0.99719494153935595</v>
+        <v>0.9945364747469575</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1021,19 +1018,19 @@
       </c>
       <c r="S6" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F6:H6,M6:O6)</f>
-        <v>2.8090000097037784E-3</v>
+        <v>5.4785048931464443E-3</v>
       </c>
       <c r="V6" s="2">
         <f t="array" aca="1" ref="V6:X6" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A6:D6)</f>
-        <v>1.0046770563013105E-6</v>
+        <v>3.8592620273020054E-6</v>
       </c>
       <c r="W6" s="2">
         <f ca="1"/>
-        <v>2.8040537835877055E-3</v>
+        <v>5.4596659910151821E-3</v>
       </c>
       <c r="X6" s="2">
         <f ca="1"/>
-        <v>0.99719494153935595</v>
+        <v>0.9945364747469575</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1078,16 +1075,16 @@
         <v>0.01</v>
       </c>
       <c r="M7" s="2">
-        <f t="array" aca="1" ref="M7:O7" ca="1">_xll.nnFeedForward($K$20,A7:D7)</f>
-        <v>5.384794661555404E-4</v>
+        <f t="array" aca="1" ref="M7:O7" ca="1">_xll.nnFeedForward($K$19,A7:D7)</f>
+        <v>5.7648319421993487E-4</v>
       </c>
       <c r="N7" s="2">
         <f ca="1"/>
-        <v>0.99004407120377624</v>
+        <v>0.99791134528045744</v>
       </c>
       <c r="O7" s="2">
         <f ca="1"/>
-        <v>9.4174493300683646E-3</v>
+        <v>1.5121715253227496E-3</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1103,19 +1100,19 @@
       </c>
       <c r="S7" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F7:H7,M7:O7)</f>
-        <v>1.0005820476874771E-2</v>
+        <v>2.0908390008141909E-3</v>
       </c>
       <c r="V7" s="2">
         <f t="array" aca="1" ref="V7:X7" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A7:D7)</f>
-        <v>5.384794661555404E-4</v>
+        <v>5.7648319421993487E-4</v>
       </c>
       <c r="W7" s="2">
         <f ca="1"/>
-        <v>0.99004407120377624</v>
+        <v>0.99791134528045744</v>
       </c>
       <c r="X7" s="2">
         <f ca="1"/>
-        <v>9.4174493300683646E-3</v>
+        <v>1.5121715253227496E-3</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1160,16 +1157,16 @@
         <v>0.01</v>
       </c>
       <c r="M8" s="2">
-        <f t="array" aca="1" ref="M8:O8" ca="1">_xll.nnFeedForward($K$20,A8:D8)</f>
-        <v>0.99871693431399422</v>
+        <f t="array" aca="1" ref="M8:O8" ca="1">_xll.nnFeedForward($K$19,A8:D8)</f>
+        <v>0.99873760378541199</v>
       </c>
       <c r="N8" s="2">
         <f ca="1"/>
-        <v>1.279979746235864E-3</v>
+        <v>1.2532368551070848E-3</v>
       </c>
       <c r="O8" s="2">
         <f ca="1"/>
-        <v>3.0859397698513843E-6</v>
+        <v>9.1593594808411582E-6</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1185,19 +1182,19 @@
       </c>
       <c r="S8" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F8:H8,M8:O8)</f>
-        <v>1.2838895195468459E-3</v>
+        <v>1.263193707928353E-3</v>
       </c>
       <c r="V8" s="2">
         <f t="array" aca="1" ref="V8:X8" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A8:D8)</f>
-        <v>0.99871693431399422</v>
+        <v>0.99873760378541199</v>
       </c>
       <c r="W8" s="2">
         <f ca="1"/>
-        <v>1.279979746235864E-3</v>
+        <v>1.2532368551070848E-3</v>
       </c>
       <c r="X8" s="2">
         <f ca="1"/>
-        <v>3.0859397698513843E-6</v>
+        <v>9.1593594808411582E-6</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1242,16 +1239,16 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="M9" s="2">
-        <f t="array" aca="1" ref="M9:O9" ca="1">_xll.nnFeedForward($K$20,A9:D9)</f>
-        <v>1.0124609139535215E-6</v>
+        <f t="array" aca="1" ref="M9:O9" ca="1">_xll.nnFeedForward($K$19,A9:D9)</f>
+        <v>3.9977856385332783E-6</v>
       </c>
       <c r="N9" s="2">
         <f ca="1"/>
-        <v>2.82477216916101E-3</v>
+        <v>5.6671221250749384E-3</v>
       </c>
       <c r="O9" s="2">
         <f ca="1"/>
-        <v>0.99717421536992512</v>
+        <v>0.99432888008928655</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1267,19 +1264,19 @@
       </c>
       <c r="S9" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F9:H9,M9:O9)</f>
-        <v>2.829784696791193E-3</v>
+        <v>5.6872617684372287E-3</v>
       </c>
       <c r="V9" s="2">
         <f t="array" aca="1" ref="V9:X9" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A9:D9)</f>
-        <v>1.0124609139535215E-6</v>
+        <v>3.9977856385332783E-6</v>
       </c>
       <c r="W9" s="2">
         <f ca="1"/>
-        <v>2.82477216916101E-3</v>
+        <v>5.6671221250749384E-3</v>
       </c>
       <c r="X9" s="2">
         <f ca="1"/>
-        <v>0.99717421536992512</v>
+        <v>0.99432888008928655</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1324,16 +1321,16 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <f t="array" aca="1" ref="M10:O10" ca="1">_xll.nnFeedForward($K$20,A10:D10)</f>
-        <v>2.1391118247659032E-4</v>
+        <f t="array" aca="1" ref="M10:O10" ca="1">_xll.nnFeedForward($K$19,A10:D10)</f>
+        <v>5.1700692304708579E-4</v>
       </c>
       <c r="N10" s="2">
         <f ca="1"/>
-        <v>0.68050487326659292</v>
+        <v>0.99684433092681402</v>
       </c>
       <c r="O10" s="2">
         <f ca="1"/>
-        <v>0.31928121555093042</v>
+        <v>2.6386621501388857E-3</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1349,19 +1346,19 @@
       </c>
       <c r="S10" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F10:H10,M10:O10)</f>
-        <v>0.38492029561340313</v>
+        <v>3.1606586966678161E-3</v>
       </c>
       <c r="V10" s="2">
         <f t="array" aca="1" ref="V10:X10" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A10:D10)</f>
-        <v>2.1391118247659032E-4</v>
+        <v>5.1700692304708579E-4</v>
       </c>
       <c r="W10" s="2">
         <f ca="1"/>
-        <v>0.68050487326659292</v>
+        <v>0.99684433092681402</v>
       </c>
       <c r="X10" s="2">
         <f ca="1"/>
-        <v>0.31928121555093042</v>
+        <v>2.6386621501388857E-3</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1400,22 +1397,23 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="20">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K11" s="16">
+        <f ca="1">RAND()*32000</f>
+        <v>14645.875631680799</v>
       </c>
       <c r="M11" s="2">
-        <f t="array" aca="1" ref="M11:O11" ca="1">_xll.nnFeedForward($K$20,A11:D11)</f>
-        <v>9.9925828349866575E-7</v>
+        <f t="array" aca="1" ref="M11:O11" ca="1">_xll.nnFeedForward($K$19,A11:D11)</f>
+        <v>3.8235944471212358E-6</v>
       </c>
       <c r="N11" s="2">
         <f ca="1"/>
-        <v>2.7898889800130667E-3</v>
+        <v>5.4079219718984935E-3</v>
       </c>
       <c r="O11" s="2">
         <f ca="1"/>
-        <v>0.99720911176170335</v>
+        <v>0.9945882544336544</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1431,19 +1429,19 @@
       </c>
       <c r="S11" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F11:H11,M11:O11)</f>
-        <v>2.794790028206616E-3</v>
+        <v>5.4264421079937789E-3</v>
       </c>
       <c r="V11" s="2">
         <f t="array" aca="1" ref="V11:X11" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A11:D11)</f>
-        <v>9.9925828349866575E-7</v>
+        <v>3.8235944471212358E-6</v>
       </c>
       <c r="W11" s="2">
         <f ca="1"/>
-        <v>2.7898889800130667E-3</v>
+        <v>5.4079219718984935E-3</v>
       </c>
       <c r="X11" s="2">
         <f ca="1"/>
-        <v>0.99720911176170335</v>
+        <v>0.9945882544336544</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1481,24 +1479,21 @@
       <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="16">
-        <f ca="1">RAND()*32000</f>
-        <v>19657.806492774842</v>
+      <c r="K12" s="8" t="str">
+        <f ca="1">_xll.nnMakeSimpleGradientTrainer(K5,K6,K7,K8,K9,K10,K11)</f>
+        <v>TrainerConfig</v>
       </c>
       <c r="M12" s="2">
-        <f t="array" aca="1" ref="M12:O12" ca="1">_xll.nnFeedForward($K$20,A12:D12)</f>
-        <v>1.0099954379221857E-6</v>
+        <f t="array" aca="1" ref="M12:O12" ca="1">_xll.nnFeedForward($K$19,A12:D12)</f>
+        <v>3.9001843162538818E-6</v>
       </c>
       <c r="N12" s="2">
         <f ca="1"/>
-        <v>2.8174113957646352E-3</v>
+        <v>5.5166641305879399E-3</v>
       </c>
       <c r="O12" s="2">
         <f ca="1"/>
-        <v>0.99718157860879741</v>
+        <v>0.99447943568509578</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1514,19 +1509,19 @@
       </c>
       <c r="S12" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F12:H12,M12:O12)</f>
-        <v>2.822400619291524E-3</v>
+        <v>5.5358589460508924E-3</v>
       </c>
       <c r="V12" s="2">
         <f t="array" aca="1" ref="V12:X12" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A12:D12)</f>
-        <v>1.0099954379221857E-6</v>
+        <v>3.9001843162538818E-6</v>
       </c>
       <c r="W12" s="2">
         <f ca="1"/>
-        <v>2.8174113957646352E-3</v>
+        <v>5.5166641305879399E-3</v>
       </c>
       <c r="X12" s="2">
         <f ca="1"/>
-        <v>0.99718157860879741</v>
+        <v>0.99447943568509578</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1564,21 +1559,17 @@
       <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="8" t="str">
-        <f ca="1">_xll.nnMakeSimpleGradientTrainer(K5,K6,K7,K8,K9,K10,K11,K12)</f>
-        <v>TrainerConfig</v>
-      </c>
       <c r="M13" s="2">
-        <f t="array" aca="1" ref="M13:O13" ca="1">_xll.nnFeedForward($K$20,A13:D13)</f>
-        <v>1.0321706672505291E-6</v>
+        <f t="array" aca="1" ref="M13:O13" ca="1">_xll.nnFeedForward($K$19,A13:D13)</f>
+        <v>5.1876014193890417E-6</v>
       </c>
       <c r="N13" s="2">
         <f ca="1"/>
-        <v>2.8812393892622351E-3</v>
+        <v>7.5232108513339398E-3</v>
       </c>
       <c r="O13" s="2">
         <f ca="1"/>
-        <v>0.99711772844007052</v>
+        <v>0.99247160154724667</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1594,19 +1585,19 @@
       </c>
       <c r="S13" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F13:H13,M13:O13)</f>
-        <v>5.8495347339116552</v>
+        <v>4.8897622572368089</v>
       </c>
       <c r="V13" s="2">
         <f t="array" aca="1" ref="V13:X13" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A13:D13)</f>
-        <v>1.0321706672505291E-6</v>
+        <v>5.1876014193890417E-6</v>
       </c>
       <c r="W13" s="2">
         <f ca="1"/>
-        <v>2.8812393892622351E-3</v>
+        <v>7.5232108513339398E-3</v>
       </c>
       <c r="X13" s="2">
         <f ca="1"/>
-        <v>0.99711772844007052</v>
+        <v>0.99247160154724667</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1644,17 +1635,20 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
+      <c r="J14" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="M14" s="2">
-        <f t="array" aca="1" ref="M14:O14" ca="1">_xll.nnFeedForward($K$20,A14:D14)</f>
-        <v>0.99871538611832145</v>
+        <f t="array" aca="1" ref="M14:O14" ca="1">_xll.nnFeedForward($K$19,A14:D14)</f>
+        <v>0.99871769119451981</v>
       </c>
       <c r="N14" s="2">
         <f ca="1"/>
-        <v>1.2815225180179918E-3</v>
+        <v>1.2730230170143566E-3</v>
       </c>
       <c r="O14" s="2">
         <f ca="1"/>
-        <v>3.091363660552911E-6</v>
+        <v>9.2857884658219786E-6</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1670,19 +1664,19 @@
       </c>
       <c r="S14" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F14:H14,M14:O14)</f>
-        <v>1.2854397054099032E-3</v>
+        <v>1.2831316669333771E-3</v>
       </c>
       <c r="V14" s="2">
         <f t="array" aca="1" ref="V14:X14" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A14:D14)</f>
-        <v>0.99871538611832145</v>
+        <v>0.99871769119451981</v>
       </c>
       <c r="W14" s="2">
         <f ca="1"/>
-        <v>1.2815225180179918E-3</v>
+        <v>1.2730230170143566E-3</v>
       </c>
       <c r="X14" s="2">
         <f ca="1"/>
-        <v>3.091363660552911E-6</v>
+        <v>9.2857884658219786E-6</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1720,20 +1714,23 @@
       <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>16</v>
+      <c r="J15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="M15" s="2">
-        <f t="array" aca="1" ref="M15:O15" ca="1">_xll.nnFeedForward($K$20,A15:D15)</f>
-        <v>1.0008845326644499E-6</v>
+        <f t="array" aca="1" ref="M15:O15" ca="1">_xll.nnFeedForward($K$19,A15:D15)</f>
+        <v>3.8252701856307755E-6</v>
       </c>
       <c r="N15" s="2">
         <f ca="1"/>
-        <v>2.7939231413965475E-3</v>
+        <v>5.4095607956199249E-3</v>
       </c>
       <c r="O15" s="2">
         <f ca="1"/>
-        <v>0.99720507597407082</v>
+        <v>0.99458661393419445</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1749,19 +1746,19 @@
       </c>
       <c r="S15" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F15:H15,M15:O15)</f>
-        <v>2.7988371189837987E-3</v>
+        <v>5.42809153508642E-3</v>
       </c>
       <c r="V15" s="2">
         <f t="array" aca="1" ref="V15:X15" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A15:D15)</f>
-        <v>1.0008845326644499E-6</v>
+        <v>3.8252701856307755E-6</v>
       </c>
       <c r="W15" s="2">
         <f ca="1"/>
-        <v>2.7939231413965475E-3</v>
+        <v>5.4095607956199249E-3</v>
       </c>
       <c r="X15" s="2">
         <f ca="1"/>
-        <v>0.99720507597407082</v>
+        <v>0.99458661393419445</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1800,22 +1797,23 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="K16" s="6" t="str">
+        <f ca="1">K12</f>
+        <v>TrainerConfig</v>
       </c>
       <c r="M16" s="2">
-        <f t="array" aca="1" ref="M16:O16" ca="1">_xll.nnFeedForward($K$20,A16:D16)</f>
-        <v>1.0035629880490335E-6</v>
+        <f t="array" aca="1" ref="M16:O16" ca="1">_xll.nnFeedForward($K$19,A16:D16)</f>
+        <v>3.8392375089057871E-6</v>
       </c>
       <c r="N16" s="2">
         <f ca="1"/>
-        <v>2.8008676302620334E-3</v>
+        <v>5.4295938556206255E-3</v>
       </c>
       <c r="O16" s="2">
         <f ca="1"/>
-        <v>0.99719812880674985</v>
+        <v>0.9945665669068704</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1831,19 +1829,19 @@
       </c>
       <c r="S16" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F16:H16,M16:O16)</f>
-        <v>2.8058037817973607E-3</v>
+        <v>5.4482478785172032E-3</v>
       </c>
       <c r="V16" s="2">
         <f t="array" aca="1" ref="V16:X16" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A16:D16)</f>
-        <v>1.0035629880490335E-6</v>
+        <v>3.8392375089057871E-6</v>
       </c>
       <c r="W16" s="2">
         <f ca="1"/>
-        <v>2.8008676302620334E-3</v>
+        <v>5.4295938556206255E-3</v>
       </c>
       <c r="X16" s="2">
         <f ca="1"/>
-        <v>0.99719812880674985</v>
+        <v>0.9945665669068704</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1882,23 +1880,22 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="6" t="str">
-        <f ca="1">K13</f>
-        <v>TrainerConfig</v>
+        <v>17</v>
+      </c>
+      <c r="K17" s="7">
+        <v>5</v>
       </c>
       <c r="M17" s="2">
-        <f t="array" aca="1" ref="M17:O17" ca="1">_xll.nnFeedForward($K$20,A17:D17)</f>
-        <v>1.0720491445667911E-6</v>
+        <f t="array" aca="1" ref="M17:O17" ca="1">_xll.nnFeedForward($K$19,A17:D17)</f>
+        <v>7.2627509505731274E-6</v>
       </c>
       <c r="N17" s="2">
         <f ca="1"/>
-        <v>2.9934484066226489E-3</v>
+        <v>1.0862272099343403E-2</v>
       </c>
       <c r="O17" s="2">
         <f ca="1"/>
-        <v>0.9970054795442328</v>
+        <v>0.98913046514970604</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1914,19 +1911,19 @@
       </c>
       <c r="S17" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F17:H17,M17:O17)</f>
-        <v>2.9990130030720652E-3</v>
+        <v>1.0929039831389029E-2</v>
       </c>
       <c r="V17" s="2">
         <f t="array" aca="1" ref="V17:X17" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A17:D17)</f>
-        <v>1.0720491445667911E-6</v>
+        <v>7.2627509505731274E-6</v>
       </c>
       <c r="W17" s="2">
         <f ca="1"/>
-        <v>2.9934484066226489E-3</v>
+        <v>1.0862272099343403E-2</v>
       </c>
       <c r="X17" s="2">
         <f ca="1"/>
-        <v>0.9970054795442328</v>
+        <v>0.98913046514970604</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1964,23 +1961,20 @@
       <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="K18" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M18" s="2">
-        <f t="array" aca="1" ref="M18:O18" ca="1">_xll.nnFeedForward($K$20,A18:D18)</f>
-        <v>1.0187746491993487E-6</v>
+        <f t="array" aca="1" ref="M18:O18" ca="1">_xll.nnFeedForward($K$19,A18:D18)</f>
+        <v>4.0763950664482441E-6</v>
       </c>
       <c r="N18" s="2">
         <f ca="1"/>
-        <v>2.8416476081176462E-3</v>
+        <v>5.7842761886842233E-3</v>
       </c>
       <c r="O18" s="2">
         <f ca="1"/>
-        <v>0.99715733361723324</v>
+        <v>0.99421164741624934</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1996,19 +1990,19 @@
       </c>
       <c r="S18" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F18:H18,M18:O18)</f>
-        <v>2.846714432171305E-3</v>
+        <v>5.8051700248206986E-3</v>
       </c>
       <c r="V18" s="2">
         <f t="array" aca="1" ref="V18:X18" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A18:D18)</f>
-        <v>1.0187746491993487E-6</v>
+        <v>4.0763950664482441E-6</v>
       </c>
       <c r="W18" s="2">
         <f ca="1"/>
-        <v>2.8416476081176462E-3</v>
+        <v>5.7842761886842233E-3</v>
       </c>
       <c r="X18" s="2">
         <f ca="1"/>
-        <v>0.99715733361723324</v>
+        <v>0.99421164741624934</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2046,20 +2040,21 @@
       <c r="H19" s="3">
         <v>0</v>
       </c>
-      <c r="K19" s="7">
-        <v>4</v>
+      <c r="K19" s="8" t="str">
+        <f ca="1">_xll.nnTrainMultilayerPerceptron(K15,K16,A32:D151,F32:H151,K17:K18)</f>
+        <v>Percy</v>
       </c>
       <c r="M19" s="2">
-        <f t="array" aca="1" ref="M19:O19" ca="1">_xll.nnFeedForward($K$20,A19:D19)</f>
-        <v>0.99871375749315605</v>
+        <f t="array" aca="1" ref="M19:O19" ca="1">_xll.nnFeedForward($K$19,A19:D19)</f>
+        <v>0.99872189227538766</v>
       </c>
       <c r="N19" s="2">
         <f ca="1"/>
-        <v>1.2831475954721745E-3</v>
+        <v>1.2688485951800148E-3</v>
       </c>
       <c r="O19" s="2">
         <f ca="1"/>
-        <v>3.0949113717159119E-6</v>
+        <v>9.2591294324014411E-6</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2075,19 +2070,19 @@
       </c>
       <c r="S19" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F19:H19,M19:O19)</f>
-        <v>1.2870704267504871E-3</v>
+        <v>1.2789252009129553E-3</v>
       </c>
       <c r="V19" s="2">
         <f t="array" aca="1" ref="V19:X19" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A19:D19)</f>
-        <v>0.99871375749315605</v>
+        <v>0.99872189227538766</v>
       </c>
       <c r="W19" s="2">
         <f ca="1"/>
-        <v>1.2831475954721745E-3</v>
+        <v>1.2688485951800148E-3</v>
       </c>
       <c r="X19" s="2">
         <f ca="1"/>
-        <v>3.0949113717159119E-6</v>
+        <v>9.2591294324014411E-6</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2125,21 +2120,17 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="8" t="str">
-        <f ca="1">_xll.nnTrainMultilayerPerceptron(K16,K17,A32:D151,F32:H151,K18:K19)</f>
-        <v>Percy</v>
-      </c>
       <c r="M20" s="2">
-        <f t="array" aca="1" ref="M20:O20" ca="1">_xll.nnFeedForward($K$20,A20:D20)</f>
-        <v>4.7376455799288887E-4</v>
+        <f t="array" aca="1" ref="M20:O20" ca="1">_xll.nnFeedForward($K$19,A20:D20)</f>
+        <v>5.5375535373574215E-4</v>
       </c>
       <c r="N20" s="2">
         <f ca="1"/>
-        <v>0.9832926910781099</v>
+        <v>0.99773774965842854</v>
       </c>
       <c r="O20" s="2">
         <f ca="1"/>
-        <v>1.6233544363897245E-2</v>
+        <v>1.7084949878357954E-3</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2155,19 +2146,19 @@
       </c>
       <c r="S20" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F20:H20,M20:O20)</f>
-        <v>1.6848450277541852E-2</v>
+        <v>2.2648130956658377E-3</v>
       </c>
       <c r="V20" s="2">
         <f t="array" aca="1" ref="V20:X20" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A20:D20)</f>
-        <v>4.7376455799288887E-4</v>
+        <v>5.5375535373574215E-4</v>
       </c>
       <c r="W20" s="2">
         <f ca="1"/>
-        <v>0.9832926910781099</v>
+        <v>0.99773774965842854</v>
       </c>
       <c r="X20" s="2">
         <f ca="1"/>
-        <v>1.6233544363897245E-2</v>
+        <v>1.7084949878357954E-3</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2205,17 +2196,20 @@
       <c r="H21" s="3">
         <v>1</v>
       </c>
+      <c r="J21" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M21" s="2">
-        <f t="array" aca="1" ref="M21:O21" ca="1">_xll.nnFeedForward($K$20,A21:D21)</f>
-        <v>1.002011057455596E-6</v>
+        <f t="array" aca="1" ref="M21:O21" ca="1">_xll.nnFeedForward($K$19,A21:D21)</f>
+        <v>3.8357465815194165E-6</v>
       </c>
       <c r="N21" s="2">
         <f ca="1"/>
-        <v>2.7963745531931227E-3</v>
+        <v>5.4243835639787401E-3</v>
       </c>
       <c r="O21" s="2">
         <f ca="1"/>
-        <v>0.99720262343574939</v>
+        <v>0.99457178068943974</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2231,19 +2225,19 @@
       </c>
       <c r="S21" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F21:H21,M21:O21)</f>
-        <v>2.8012965341998111E-3</v>
+        <v>5.4430056261865305E-3</v>
       </c>
       <c r="V21" s="2">
         <f t="array" aca="1" ref="V21:X21" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A21:D21)</f>
-        <v>1.002011057455596E-6</v>
+        <v>3.8357465815194165E-6</v>
       </c>
       <c r="W21" s="2">
         <f ca="1"/>
-        <v>2.7963745531931227E-3</v>
+        <v>5.4243835639787401E-3</v>
       </c>
       <c r="X21" s="2">
         <f ca="1"/>
-        <v>0.99720262343574939</v>
+        <v>0.99457178068943974</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2281,20 +2275,24 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>26</v>
+      <c r="J22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="15">
+        <f ca="1">AVERAGE(S32:S151)</f>
+        <v>2.6476774514728619E-2</v>
       </c>
       <c r="M22" s="2">
-        <f t="array" aca="1" ref="M22:O22" ca="1">_xll.nnFeedForward($K$20,A22:D22)</f>
-        <v>0.99866274375290753</v>
+        <f t="array" aca="1" ref="M22:O22" ca="1">_xll.nnFeedForward($K$19,A22:D22)</f>
+        <v>0.99870671834410074</v>
       </c>
       <c r="N22" s="2">
         <f ca="1"/>
-        <v>1.3340458212234179E-3</v>
+        <v>1.2839258679557537E-3</v>
       </c>
       <c r="O22" s="2">
         <f ca="1"/>
-        <v>3.2104258690889634E-6</v>
+        <v>9.3557879435027804E-6</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2310,19 +2308,19 @@
       </c>
       <c r="S22" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F22:H22,M22:O22)</f>
-        <v>1.3381511721460447E-3</v>
+        <v>1.2941186663580125E-3</v>
       </c>
       <c r="V22" s="2">
         <f t="array" aca="1" ref="V22:X22" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A22:D22)</f>
-        <v>0.99866274375290753</v>
+        <v>0.99870671834410074</v>
       </c>
       <c r="W22" s="2">
         <f ca="1"/>
-        <v>1.3340458212234179E-3</v>
+        <v>1.2839258679557537E-3</v>
       </c>
       <c r="X22" s="2">
         <f ca="1"/>
-        <v>3.2104258690889634E-6</v>
+        <v>9.3557879435027804E-6</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2361,23 +2359,23 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K23" s="15">
-        <f ca="1">AVERAGE(S32:S151)</f>
-        <v>0.39056427535010702</v>
+        <f ca="1">AVERAGE(S2:S31)</f>
+        <v>0.49597350095373316</v>
       </c>
       <c r="M23" s="2">
-        <f t="array" aca="1" ref="M23:O23" ca="1">_xll.nnFeedForward($K$20,A23:D23)</f>
-        <v>1.0360588053742862E-6</v>
+        <f t="array" aca="1" ref="M23:O23" ca="1">_xll.nnFeedForward($K$19,A23:D23)</f>
+        <v>5.9684094507596501E-6</v>
       </c>
       <c r="N23" s="2">
         <f ca="1"/>
-        <v>2.8930828580034065E-3</v>
+        <v>8.7661676197288343E-3</v>
       </c>
       <c r="O23" s="2">
         <f ca="1"/>
-        <v>0.9971058810831912</v>
+        <v>0.9912278639708203</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2393,19 +2391,19 @@
       </c>
       <c r="S23" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F23:H23,M23:O23)</f>
-        <v>5.8454326125398612</v>
+        <v>4.7368555555930625</v>
       </c>
       <c r="V23" s="2">
         <f t="array" aca="1" ref="V23:X23" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A23:D23)</f>
-        <v>1.0360588053742862E-6</v>
+        <v>5.9684094507596501E-6</v>
       </c>
       <c r="W23" s="2">
         <f ca="1"/>
-        <v>2.8930828580034065E-3</v>
+        <v>8.7661676197288343E-3</v>
       </c>
       <c r="X23" s="2">
         <f ca="1"/>
-        <v>0.9971058810831912</v>
+        <v>0.9912278639708203</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2444,23 +2442,23 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="15">
-        <f ca="1">AVERAGE(S2:S31)</f>
-        <v>0.72085732704421723</v>
+        <v>24</v>
+      </c>
+      <c r="K24" s="13">
+        <f ca="1">(SUMPRODUCT(F32:H151,P32:R151))/COUNTA(P32:P151)</f>
+        <v>0.98333333333333328</v>
       </c>
       <c r="M24" s="2">
-        <f t="array" aca="1" ref="M24:O24" ca="1">_xll.nnFeedForward($K$20,A24:D24)</f>
-        <v>1.0055285847878618E-6</v>
+        <f t="array" aca="1" ref="M24:O24" ca="1">_xll.nnFeedForward($K$19,A24:D24)</f>
+        <v>3.8822213307739331E-6</v>
       </c>
       <c r="N24" s="2">
         <f ca="1"/>
-        <v>2.8060010896812934E-3</v>
+        <v>5.4927188819218842E-3</v>
       </c>
       <c r="O24" s="2">
         <f ca="1"/>
-        <v>0.99719299338173406</v>
+        <v>0.99450339889674733</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2476,19 +2474,19 @@
       </c>
       <c r="S24" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F24:H24,M24:O24)</f>
-        <v>2.8109536493019513E-3</v>
+        <v>5.5117629998857835E-3</v>
       </c>
       <c r="V24" s="2">
         <f t="array" aca="1" ref="V24:X24" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A24:D24)</f>
-        <v>1.0055285847878618E-6</v>
+        <v>3.8822213307739331E-6</v>
       </c>
       <c r="W24" s="2">
         <f ca="1"/>
-        <v>2.8060010896812934E-3</v>
+        <v>5.4927188819218842E-3</v>
       </c>
       <c r="X24" s="2">
         <f ca="1"/>
-        <v>0.99719299338173406</v>
+        <v>0.99450339889674733</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2527,23 +2525,23 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="13">
-        <f ca="1">(SUMPRODUCT(F32:H151,P32:R151))/COUNTA(P32:P151)</f>
-        <v>0.89166666666666672</v>
+        <v>25</v>
+      </c>
+      <c r="K25" s="14">
+        <f ca="1">SUMPRODUCT(F2:H31,P2:R31)/COUNTA(P2:P31)</f>
+        <v>0.9</v>
       </c>
       <c r="M25" s="2">
-        <f t="array" aca="1" ref="M25:O25" ca="1">_xll.nnFeedForward($K$20,A25:D25)</f>
-        <v>8.7454088567412837E-4</v>
+        <f t="array" aca="1" ref="M25:O25" ca="1">_xll.nnFeedForward($K$19,A25:D25)</f>
+        <v>7.6429324859696017E-4</v>
       </c>
       <c r="N25" s="2">
         <f ca="1"/>
-        <v>0.99553299414541552</v>
+        <v>0.99782951217990212</v>
       </c>
       <c r="O25" s="2">
         <f ca="1"/>
-        <v>3.5924649689104728E-3</v>
+        <v>1.40619457150087E-3</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2559,19 +2557,19 @@
       </c>
       <c r="S25" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F25:H25,M25:O25)</f>
-        <v>4.477012736891264E-3</v>
+        <v>2.1728467427464923E-3</v>
       </c>
       <c r="V25" s="2">
         <f t="array" aca="1" ref="V25:X25" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A25:D25)</f>
-        <v>8.7454088567412837E-4</v>
+        <v>7.6429324859696017E-4</v>
       </c>
       <c r="W25" s="2">
         <f ca="1"/>
-        <v>0.99553299414541552</v>
+        <v>0.99782951217990212</v>
       </c>
       <c r="X25" s="2">
         <f ca="1"/>
-        <v>3.5924649689104728E-3</v>
+        <v>1.40619457150087E-3</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2609,24 +2607,17 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="14">
-        <f ca="1">SUMPRODUCT(F2:H31,P2:R31)/COUNTA(P2:P31)</f>
-        <v>0.8666666666666667</v>
-      </c>
       <c r="M26" s="2">
-        <f t="array" aca="1" ref="M26:O26" ca="1">_xll.nnFeedForward($K$20,A26:D26)</f>
-        <v>0.99865846626980892</v>
+        <f t="array" aca="1" ref="M26:O26" ca="1">_xll.nnFeedForward($K$19,A26:D26)</f>
+        <v>0.99871642137318983</v>
       </c>
       <c r="N26" s="2">
         <f ca="1"/>
-        <v>1.3383147505381656E-3</v>
+        <v>1.2742843349756402E-3</v>
       </c>
       <c r="O26" s="2">
         <f ca="1"/>
-        <v>3.2189796529026177E-6</v>
+        <v>9.2942918346023259E-6</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2642,19 +2633,19 @@
       </c>
       <c r="S26" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F26:H26,M26:O26)</f>
-        <v>1.3424343921680977E-3</v>
+        <v>1.2844031194653878E-3</v>
       </c>
       <c r="V26" s="2">
         <f t="array" aca="1" ref="V26:X26" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A26:D26)</f>
-        <v>0.99865846626980892</v>
+        <v>0.99871642137318983</v>
       </c>
       <c r="W26" s="2">
         <f ca="1"/>
-        <v>1.3383147505381656E-3</v>
+        <v>1.2742843349756402E-3</v>
       </c>
       <c r="X26" s="2">
         <f ca="1"/>
-        <v>3.2189796529026177E-6</v>
+        <v>9.2942918346023259E-6</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2693,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="M27" s="2">
-        <f t="array" aca="1" ref="M27:O27" ca="1">_xll.nnFeedForward($K$20,A27:D27)</f>
-        <v>1.0177988365397927E-6</v>
+        <f t="array" aca="1" ref="M27:O27" ca="1">_xll.nnFeedForward($K$19,A27:D27)</f>
+        <v>4.1241896915353115E-6</v>
       </c>
       <c r="N27" s="2">
         <f ca="1"/>
-        <v>2.8391209609604298E-3</v>
+        <v>5.857350665773072E-3</v>
       </c>
       <c r="O27" s="2">
         <f ca="1"/>
-        <v>0.99715986124020306</v>
+        <v>0.99413852514453538</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2718,19 +2709,19 @@
       </c>
       <c r="S27" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F27:H27,M27:O27)</f>
-        <v>5.8642607955090496</v>
+        <v>5.1400578824402938</v>
       </c>
       <c r="V27" s="2">
         <f t="array" aca="1" ref="V27:X27" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A27:D27)</f>
-        <v>1.0177988365397927E-6</v>
+        <v>4.1241896915353115E-6</v>
       </c>
       <c r="W27" s="2">
         <f ca="1"/>
-        <v>2.8391209609604298E-3</v>
+        <v>5.857350665773072E-3</v>
       </c>
       <c r="X27" s="2">
         <f ca="1"/>
-        <v>0.99715986124020306</v>
+        <v>0.99413852514453538</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2769,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="2">
-        <f t="array" aca="1" ref="M28:O28" ca="1">_xll.nnFeedForward($K$20,A28:D28)</f>
-        <v>6.9426100075970941E-4</v>
+        <f t="array" aca="1" ref="M28:O28" ca="1">_xll.nnFeedForward($K$19,A28:D28)</f>
+        <v>5.9941503618484132E-4</v>
       </c>
       <c r="N28" s="2">
         <f ca="1"/>
-        <v>0.99405000069171945</v>
+        <v>0.99794717442985992</v>
       </c>
       <c r="O28" s="2">
         <f ca="1"/>
-        <v>5.2557383075209334E-3</v>
+        <v>1.4534105339551607E-3</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2794,19 +2785,19 @@
       </c>
       <c r="S28" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F28:H28,M28:O28)</f>
-        <v>5.9677710839316752E-3</v>
+        <v>2.0549355045969071E-3</v>
       </c>
       <c r="V28" s="2">
         <f t="array" aca="1" ref="V28:X28" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A28:D28)</f>
-        <v>6.9426100075970941E-4</v>
+        <v>5.9941503618484132E-4</v>
       </c>
       <c r="W28" s="2">
         <f ca="1"/>
-        <v>0.99405000069171945</v>
+        <v>0.99794717442985992</v>
       </c>
       <c r="X28" s="2">
         <f ca="1"/>
-        <v>5.2557383075209334E-3</v>
+        <v>1.4534105339551607E-3</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2845,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="2">
-        <f t="array" aca="1" ref="M29:O29" ca="1">_xll.nnFeedForward($K$20,A29:D29)</f>
-        <v>0.99870731652626421</v>
+        <f t="array" aca="1" ref="M29:O29" ca="1">_xll.nnFeedForward($K$19,A29:D29)</f>
+        <v>0.99872221391580152</v>
       </c>
       <c r="N29" s="2">
         <f ca="1"/>
-        <v>1.2895744005621968E-3</v>
+        <v>1.2685289432832188E-3</v>
       </c>
       <c r="O29" s="2">
         <f ca="1"/>
-        <v>3.1090731736092229E-6</v>
+        <v>9.2571409152805984E-6</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2870,19 +2861,19 @@
       </c>
       <c r="S29" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F29:H29,M29:O29)</f>
-        <v>1.2935197097540972E-3</v>
+        <v>1.2786031489337671E-3</v>
       </c>
       <c r="V29" s="2">
         <f t="array" aca="1" ref="V29:X29" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A29:D29)</f>
-        <v>0.99870731652626421</v>
+        <v>0.99872221391580152</v>
       </c>
       <c r="W29" s="2">
         <f ca="1"/>
-        <v>1.2895744005621968E-3</v>
+        <v>1.2685289432832188E-3</v>
       </c>
       <c r="X29" s="2">
         <f ca="1"/>
-        <v>3.1090731736092229E-6</v>
+        <v>9.2571409152805984E-6</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2921,16 +2912,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="2">
-        <f t="array" aca="1" ref="M30:O30" ca="1">_xll.nnFeedForward($K$20,A30:D30)</f>
-        <v>0.99864789153543787</v>
+        <f t="array" aca="1" ref="M30:O30" ca="1">_xll.nnFeedForward($K$19,A30:D30)</f>
+        <v>0.99871226881144382</v>
       </c>
       <c r="N30" s="2">
         <f ca="1"/>
-        <v>1.3488653274770907E-3</v>
+        <v>1.278410516497189E-3</v>
       </c>
       <c r="O30" s="2">
         <f ca="1"/>
-        <v>3.2431370851252127E-6</v>
+        <v>9.3206720588934898E-6</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2946,19 +2937,19 @@
       </c>
       <c r="S30" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F30:H30,M30:O30)</f>
-        <v>1.3530233880222624E-3</v>
+        <v>1.2885610268454409E-3</v>
       </c>
       <c r="V30" s="2">
         <f t="array" aca="1" ref="V30:X30" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A30:D30)</f>
-        <v>0.99864789153543787</v>
+        <v>0.99871226881144382</v>
       </c>
       <c r="W30" s="2">
         <f ca="1"/>
-        <v>1.3488653274770907E-3</v>
+        <v>1.278410516497189E-3</v>
       </c>
       <c r="X30" s="2">
         <f ca="1"/>
-        <v>3.2431370851252127E-6</v>
+        <v>9.3206720588934898E-6</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -3003,16 +2994,16 @@
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="12">
-        <f t="array" aca="1" ref="M31:O31" ca="1">_xll.nnFeedForward($K$20,A31:D31)</f>
-        <v>1.0741558994151917E-6</v>
+        <f t="array" aca="1" ref="M31:O31" ca="1">_xll.nnFeedForward($K$19,A31:D31)</f>
+        <v>6.0923130036998414E-6</v>
       </c>
       <c r="N31" s="12">
         <f ca="1"/>
-        <v>2.9970297656979573E-3</v>
+        <v>8.979587951107813E-3</v>
       </c>
       <c r="O31" s="12">
         <f ca="1"/>
-        <v>0.99700189607840262</v>
+        <v>0.9910143197358886</v>
       </c>
       <c r="P31" s="12">
         <f t="shared" ca="1" si="2"/>
@@ -3028,19 +3019,19 @@
       </c>
       <c r="S31" s="12">
         <f ca="1">_xll.nnGetCrossEntropyError(F31:H31,M31:O31)</f>
-        <v>3.0026072383532321E-3</v>
+        <v>9.0262949726020829E-3</v>
       </c>
       <c r="V31" s="2">
         <f t="array" aca="1" ref="V31:X31" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A31:D31)</f>
-        <v>1.0741558994151917E-6</v>
+        <v>6.0923130036998414E-6</v>
       </c>
       <c r="W31" s="2">
         <f ca="1"/>
-        <v>2.9970297656979573E-3</v>
+        <v>8.979587951107813E-3</v>
       </c>
       <c r="X31" s="2">
         <f ca="1"/>
-        <v>0.99700189607840262</v>
+        <v>0.9910143197358886</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -3082,16 +3073,16 @@
         <v>21</v>
       </c>
       <c r="M32" s="2">
-        <f t="array" aca="1" ref="M32:O32" ca="1">_xll.nnFeedForward($K$20,A32:D32)</f>
-        <v>9.9895857816845958E-7</v>
+        <f t="array" aca="1" ref="M32:O32" ca="1">_xll.nnFeedForward($K$19,A32:D32)</f>
+        <v>3.8230610549102608E-6</v>
       </c>
       <c r="N32" s="2">
         <f ca="1"/>
-        <v>2.7891091441282849E-3</v>
+        <v>5.4073173009433415E-3</v>
       </c>
       <c r="O32" s="2">
         <f ca="1"/>
-        <v>0.99720989189729348</v>
+        <v>0.9945888596380017</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3107,19 +3098,19 @@
       </c>
       <c r="S32" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F32:H32,M32:O32)</f>
-        <v>2.7940077095577292E-3</v>
+        <v>5.4258336107986102E-3</v>
       </c>
       <c r="V32" s="2">
         <f t="array" aca="1" ref="V32:X32" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A32:D32)</f>
-        <v>9.9895857816845958E-7</v>
+        <v>3.8230610549102608E-6</v>
       </c>
       <c r="W32" s="2">
         <f ca="1"/>
-        <v>2.7891091441282849E-3</v>
+        <v>5.4073173009433415E-3</v>
       </c>
       <c r="X32" s="2">
         <f ca="1"/>
-        <v>0.99720989189729348</v>
+        <v>0.9945888596380017</v>
       </c>
       <c r="Y32" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -3158,16 +3149,16 @@
         <v>1</v>
       </c>
       <c r="M33" s="2">
-        <f t="array" aca="1" ref="M33:O33" ca="1">_xll.nnFeedForward($K$20,A33:D33)</f>
-        <v>1.0066023644180617E-6</v>
+        <f t="array" aca="1" ref="M33:O33" ca="1">_xll.nnFeedForward($K$19,A33:D33)</f>
+        <v>3.8875335650796543E-6</v>
       </c>
       <c r="N33" s="2">
         <f ca="1"/>
-        <v>2.8084260848847136E-3</v>
+        <v>5.4997392750792797E-3</v>
       </c>
       <c r="O33" s="2">
         <f ca="1"/>
-        <v>0.9971905673127508</v>
+        <v>0.99449637319135564</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3183,19 +3174,19 @@
       </c>
       <c r="S33" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F33:H33,M33:O33)</f>
-        <v>2.813386550405909E-3</v>
+        <v>5.518827561169606E-3</v>
       </c>
       <c r="V33" s="2">
         <f t="array" aca="1" ref="V33:X33" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A33:D33)</f>
-        <v>1.0066023644180617E-6</v>
+        <v>3.8875335650796543E-6</v>
       </c>
       <c r="W33" s="2">
         <f ca="1"/>
-        <v>2.8084260848847136E-3</v>
+        <v>5.4997392750792797E-3</v>
       </c>
       <c r="X33" s="2">
         <f ca="1"/>
-        <v>0.9971905673127508</v>
+        <v>0.99449637319135564</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -3234,16 +3225,16 @@
         <v>0</v>
       </c>
       <c r="M34" s="2">
-        <f t="array" aca="1" ref="M34:O34" ca="1">_xll.nnFeedForward($K$20,A34:D34)</f>
-        <v>0.99860825454189739</v>
+        <f t="array" aca="1" ref="M34:O34" ca="1">_xll.nnFeedForward($K$19,A34:D34)</f>
+        <v>0.99869078721912719</v>
       </c>
       <c r="N34" s="2">
         <f ca="1"/>
-        <v>1.3884115629115717E-3</v>
+        <v>1.2997556632054661E-3</v>
       </c>
       <c r="O34" s="2">
         <f ca="1"/>
-        <v>3.3338951910017008E-6</v>
+        <v>9.4571176672854995E-6</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3259,19 +3250,19 @@
       </c>
       <c r="S34" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F34:H34,M34:O34)</f>
-        <v>1.39271483533465E-3</v>
+        <v>1.3100705486743987E-3</v>
       </c>
       <c r="V34" s="2">
         <f t="array" aca="1" ref="V34:X34" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A34:D34)</f>
-        <v>0.99860825454189739</v>
+        <v>0.99869078721912719</v>
       </c>
       <c r="W34" s="2">
         <f ca="1"/>
-        <v>1.3884115629115717E-3</v>
+        <v>1.2997556632054661E-3</v>
       </c>
       <c r="X34" s="2">
         <f ca="1"/>
-        <v>3.3338951910017008E-6</v>
+        <v>9.4571176672854995E-6</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -3310,16 +3301,16 @@
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <f t="array" aca="1" ref="M35:O35" ca="1">_xll.nnFeedForward($K$20,A35:D35)</f>
-        <v>0.99871559379324437</v>
+        <f t="array" aca="1" ref="M35:O35" ca="1">_xll.nnFeedForward($K$19,A35:D35)</f>
+        <v>0.99871696403424892</v>
       </c>
       <c r="N35" s="2">
         <f ca="1"/>
-        <v>1.2813152909402969E-3</v>
+        <v>1.2737455796580713E-3</v>
       </c>
       <c r="O35" s="2">
         <f ca="1"/>
-        <v>3.0909158153487182E-6</v>
+        <v>9.2903860930618718E-6</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3335,19 +3326,19 @@
       </c>
       <c r="S35" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F35:H35,M35:O35)</f>
-        <v>1.2852317633833565E-3</v>
+        <v>1.2838597611105581E-3</v>
       </c>
       <c r="V35" s="2">
         <f t="array" aca="1" ref="V35:X35" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A35:D35)</f>
-        <v>0.99871559379324437</v>
+        <v>0.99871696403424892</v>
       </c>
       <c r="W35" s="2">
         <f ca="1"/>
-        <v>1.2813152909402969E-3</v>
+        <v>1.2737455796580713E-3</v>
       </c>
       <c r="X35" s="2">
         <f ca="1"/>
-        <v>3.0909158153487182E-6</v>
+        <v>9.2903860930618718E-6</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -3386,16 +3377,16 @@
         <v>0</v>
       </c>
       <c r="M36" s="2">
-        <f t="array" aca="1" ref="M36:O36" ca="1">_xll.nnFeedForward($K$20,A36:D36)</f>
-        <v>0.99866480405056679</v>
+        <f t="array" aca="1" ref="M36:O36" ca="1">_xll.nnFeedForward($K$19,A36:D36)</f>
+        <v>0.99870873950798544</v>
       </c>
       <c r="N36" s="2">
         <f ca="1"/>
-        <v>1.3319902935441602E-3</v>
+        <v>1.2819175478523304E-3</v>
       </c>
       <c r="O36" s="2">
         <f ca="1"/>
-        <v>3.2056558891362605E-6</v>
+        <v>9.3429441622538505E-6</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3411,19 +3402,19 @@
       </c>
       <c r="S36" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F36:H36,M36:O36)</f>
-        <v>1.3360881177797012E-3</v>
+        <v>1.2920948872020461E-3</v>
       </c>
       <c r="V36" s="2">
         <f t="array" aca="1" ref="V36:X36" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A36:D36)</f>
-        <v>0.99866480405056679</v>
+        <v>0.99870873950798544</v>
       </c>
       <c r="W36" s="2">
         <f ca="1"/>
-        <v>1.3319902935441602E-3</v>
+        <v>1.2819175478523304E-3</v>
       </c>
       <c r="X36" s="2">
         <f ca="1"/>
-        <v>3.2056558891362605E-6</v>
+        <v>9.3429441622538505E-6</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -3462,16 +3453,16 @@
         <v>0</v>
       </c>
       <c r="M37" s="2">
-        <f t="array" aca="1" ref="M37:O37" ca="1">_xll.nnFeedForward($K$20,A37:D37)</f>
-        <v>8.6433975309866177E-4</v>
+        <f t="array" aca="1" ref="M37:O37" ca="1">_xll.nnFeedForward($K$19,A37:D37)</f>
+        <v>6.9340094390550958E-4</v>
       </c>
       <c r="N37" s="2">
         <f ca="1"/>
-        <v>0.99546200658554995</v>
+        <v>0.99789568449624233</v>
       </c>
       <c r="O37" s="2">
         <f ca="1"/>
-        <v>3.6736536613513737E-3</v>
+        <v>1.4109145598520433E-3</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3487,19 +3478,19 @@
       </c>
       <c r="S37" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F37:H37,M37:O37)</f>
-        <v>4.5483213638537467E-3</v>
+        <v>2.1065326866082363E-3</v>
       </c>
       <c r="V37" s="2">
         <f t="array" aca="1" ref="V37:X37" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A37:D37)</f>
-        <v>8.6433975309866177E-4</v>
+        <v>6.9340094390550958E-4</v>
       </c>
       <c r="W37" s="2">
         <f ca="1"/>
-        <v>0.99546200658554995</v>
+        <v>0.99789568449624233</v>
       </c>
       <c r="X37" s="2">
         <f ca="1"/>
-        <v>3.6736536613513737E-3</v>
+        <v>1.4109145598520433E-3</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -3538,16 +3529,16 @@
         <v>0</v>
       </c>
       <c r="M38" s="2">
-        <f t="array" aca="1" ref="M38:O38" ca="1">_xll.nnFeedForward($K$20,A38:D38)</f>
-        <v>1.0621922567295944E-3</v>
+        <f t="array" aca="1" ref="M38:O38" ca="1">_xll.nnFeedForward($K$19,A38:D38)</f>
+        <v>9.403878793032552E-4</v>
       </c>
       <c r="N38" s="2">
         <f ca="1"/>
-        <v>0.99609494888474159</v>
+        <v>0.99763579511448197</v>
       </c>
       <c r="O38" s="2">
         <f ca="1"/>
-        <v>2.8428588585289079E-3</v>
+        <v>1.4238170062146555E-3</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3563,19 +3554,19 @@
       </c>
       <c r="S38" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F38:H38,M38:O38)</f>
-        <v>3.9126957356102549E-3</v>
+        <v>2.3670040305936624E-3</v>
       </c>
       <c r="V38" s="2">
         <f t="array" aca="1" ref="V38:X38" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A38:D38)</f>
-        <v>1.0621922567295944E-3</v>
+        <v>9.403878793032552E-4</v>
       </c>
       <c r="W38" s="2">
         <f ca="1"/>
-        <v>0.99609494888474159</v>
+        <v>0.99763579511448197</v>
       </c>
       <c r="X38" s="2">
         <f ca="1"/>
-        <v>2.8428588585289079E-3</v>
+        <v>1.4238170062146555E-3</v>
       </c>
       <c r="Y38" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -3614,16 +3605,16 @@
         <v>1</v>
       </c>
       <c r="M39" s="2">
-        <f t="array" aca="1" ref="M39:O39" ca="1">_xll.nnFeedForward($K$20,A39:D39)</f>
-        <v>1.0045173714396348E-6</v>
+        <f t="array" aca="1" ref="M39:O39" ca="1">_xll.nnFeedForward($K$19,A39:D39)</f>
+        <v>3.8455163845272086E-6</v>
       </c>
       <c r="N39" s="2">
         <f ca="1"/>
-        <v>2.8034726712428694E-3</v>
+        <v>5.4388720740262573E-3</v>
       </c>
       <c r="O39" s="2">
         <f ca="1"/>
-        <v>0.99719552281138568</v>
+        <v>0.99455728240958918</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3639,19 +3630,19 @@
       </c>
       <c r="S39" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F39:H39,M39:O39)</f>
-        <v>2.8084171027553933E-3</v>
+        <v>5.4575831416628067E-3</v>
       </c>
       <c r="V39" s="2">
         <f t="array" aca="1" ref="V39:X39" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A39:D39)</f>
-        <v>1.0045173714396348E-6</v>
+        <v>3.8455163845272086E-6</v>
       </c>
       <c r="W39" s="2">
         <f ca="1"/>
-        <v>2.8034726712428694E-3</v>
+        <v>5.4388720740262573E-3</v>
       </c>
       <c r="X39" s="2">
         <f ca="1"/>
-        <v>0.99719552281138568</v>
+        <v>0.99455728240958918</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -3690,16 +3681,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="2">
-        <f t="array" aca="1" ref="M40:O40" ca="1">_xll.nnFeedForward($K$20,A40:D40)</f>
-        <v>0.99853740791631695</v>
+        <f t="array" aca="1" ref="M40:O40" ca="1">_xll.nnFeedForward($K$19,A40:D40)</f>
+        <v>0.99866179070091465</v>
       </c>
       <c r="N40" s="2">
         <f ca="1"/>
-        <v>1.4590980127020261E-3</v>
+        <v>1.3285683783845865E-3</v>
       </c>
       <c r="O40" s="2">
         <f ca="1"/>
-        <v>3.4940709811169238E-6</v>
+        <v>9.6409207008627492E-6</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3715,19 +3706,19 @@
       </c>
       <c r="S40" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F40:H40,M40:O40)</f>
-        <v>1.4636627155437973E-3</v>
+        <v>1.3391055007756091E-3</v>
       </c>
       <c r="V40" s="2">
         <f t="array" aca="1" ref="V40:X40" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A40:D40)</f>
-        <v>0.99853740791631695</v>
+        <v>0.99866179070091465</v>
       </c>
       <c r="W40" s="2">
         <f ca="1"/>
-        <v>1.4590980127020261E-3</v>
+        <v>1.3285683783845865E-3</v>
       </c>
       <c r="X40" s="2">
         <f ca="1"/>
-        <v>3.4940709811169238E-6</v>
+        <v>9.6409207008627492E-6</v>
       </c>
       <c r="Y40" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -3766,16 +3757,16 @@
         <v>0</v>
       </c>
       <c r="M41" s="2">
-        <f t="array" aca="1" ref="M41:O41" ca="1">_xll.nnFeedForward($K$20,A41:D41)</f>
-        <v>0.9985479211312559</v>
+        <f t="array" aca="1" ref="M41:O41" ca="1">_xll.nnFeedForward($K$19,A41:D41)</f>
+        <v>0.99868935272900272</v>
       </c>
       <c r="N41" s="2">
         <f ca="1"/>
-        <v>1.4486103310775759E-3</v>
+        <v>1.3011807575961506E-3</v>
       </c>
       <c r="O41" s="2">
         <f ca="1"/>
-        <v>3.4685376664489329E-6</v>
+        <v>9.4665134011091153E-6</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3791,19 +3782,19 @@
       </c>
       <c r="S41" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F41:H41,M41:O41)</f>
-        <v>1.4531341569628215E-3</v>
+        <v>1.3115069203452423E-3</v>
       </c>
       <c r="V41" s="2">
         <f t="array" aca="1" ref="V41:X41" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A41:D41)</f>
-        <v>0.9985479211312559</v>
+        <v>0.99868935272900272</v>
       </c>
       <c r="W41" s="2">
         <f ca="1"/>
-        <v>1.4486103310775759E-3</v>
+        <v>1.3011807575961506E-3</v>
       </c>
       <c r="X41" s="2">
         <f ca="1"/>
-        <v>3.4685376664489329E-6</v>
+        <v>9.4665134011091153E-6</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -3842,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <f t="array" aca="1" ref="M42:O42" ca="1">_xll.nnFeedForward($K$20,A42:D42)</f>
-        <v>4.7939407492164523E-4</v>
+        <f t="array" aca="1" ref="M42:O42" ca="1">_xll.nnFeedForward($K$19,A42:D42)</f>
+        <v>5.5695209213842058E-4</v>
       </c>
       <c r="N42" s="2">
         <f ca="1"/>
-        <v>0.98604899893108766</v>
+        <v>0.99782115170532915</v>
       </c>
       <c r="O42" s="2">
         <f ca="1"/>
-        <v>1.3471606993990661E-2</v>
+        <v>1.6218962025325028E-3</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3867,19 +3858,19 @@
       </c>
       <c r="S42" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F42:H42,M42:O42)</f>
-        <v>1.4049230957964641E-2</v>
+        <v>2.1812254382008859E-3</v>
       </c>
       <c r="V42" s="2">
         <f t="array" aca="1" ref="V42:X42" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A42:D42)</f>
-        <v>4.7939407492164523E-4</v>
+        <v>5.5695209213842058E-4</v>
       </c>
       <c r="W42" s="2">
         <f ca="1"/>
-        <v>0.98604899893108766</v>
+        <v>0.99782115170532915</v>
       </c>
       <c r="X42" s="2">
         <f ca="1"/>
-        <v>1.3471606993990661E-2</v>
+        <v>1.6218962025325028E-3</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -3918,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="M43" s="2">
-        <f t="array" aca="1" ref="M43:O43" ca="1">_xll.nnFeedForward($K$20,A43:D43)</f>
-        <v>0.9986272231742247</v>
+        <f t="array" aca="1" ref="M43:O43" ca="1">_xll.nnFeedForward($K$19,A43:D43)</f>
+        <v>0.99869657316121052</v>
       </c>
       <c r="N43" s="2">
         <f ca="1"/>
-        <v>1.3694861372370473E-3</v>
+        <v>1.294006546756717E-3</v>
       </c>
       <c r="O43" s="2">
         <f ca="1"/>
-        <v>3.2906885383202016E-6</v>
+        <v>9.4202920328129756E-6</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3943,19 +3934,19 @@
       </c>
       <c r="S43" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F43:H43,M43:O43)</f>
-        <v>1.3737199471108826E-3</v>
+        <v>1.3042770384138244E-3</v>
       </c>
       <c r="V43" s="2">
         <f t="array" aca="1" ref="V43:X43" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A43:D43)</f>
-        <v>0.9986272231742247</v>
+        <v>0.99869657316121052</v>
       </c>
       <c r="W43" s="2">
         <f ca="1"/>
-        <v>1.3694861372370473E-3</v>
+        <v>1.294006546756717E-3</v>
       </c>
       <c r="X43" s="2">
         <f ca="1"/>
-        <v>3.2906885383202016E-6</v>
+        <v>9.4202920328129756E-6</v>
       </c>
       <c r="Y43" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -3994,16 +3985,16 @@
         <v>1</v>
       </c>
       <c r="M44" s="2">
-        <f t="array" aca="1" ref="M44:O44" ca="1">_xll.nnFeedForward($K$20,A44:D44)</f>
-        <v>1.0209989730208495E-6</v>
+        <f t="array" aca="1" ref="M44:O44" ca="1">_xll.nnFeedForward($K$19,A44:D44)</f>
+        <v>4.0858523139402348E-6</v>
       </c>
       <c r="N44" s="2">
         <f ca="1"/>
-        <v>2.8449064089608343E-3</v>
+        <v>5.7851132582525206E-3</v>
       </c>
       <c r="O44" s="2">
         <f ca="1"/>
-        <v>0.99715407259206623</v>
+        <v>0.99421080088943359</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4019,19 +4010,19 @@
       </c>
       <c r="S44" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F44:H44,M44:O44)</f>
-        <v>2.8499847591191042E-3</v>
+        <v>5.8060214805226579E-3</v>
       </c>
       <c r="V44" s="2">
         <f t="array" aca="1" ref="V44:X44" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A44:D44)</f>
-        <v>1.0209989730208495E-6</v>
+        <v>4.0858523139402348E-6</v>
       </c>
       <c r="W44" s="2">
         <f ca="1"/>
-        <v>2.8449064089608343E-3</v>
+        <v>5.7851132582525206E-3</v>
       </c>
       <c r="X44" s="2">
         <f ca="1"/>
-        <v>0.99715407259206623</v>
+        <v>0.99421080088943359</v>
       </c>
       <c r="Y44" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4070,16 +4061,16 @@
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <f t="array" aca="1" ref="M45:O45" ca="1">_xll.nnFeedForward($K$20,A45:D45)</f>
-        <v>0.99869978512926239</v>
+        <f t="array" aca="1" ref="M45:O45" ca="1">_xll.nnFeedForward($K$19,A45:D45)</f>
+        <v>0.99871516499808266</v>
       </c>
       <c r="N45" s="2">
         <f ca="1"/>
-        <v>1.2970882476284508E-3</v>
+        <v>1.275533083976004E-3</v>
       </c>
       <c r="O45" s="2">
         <f ca="1"/>
-        <v>3.1266231091689002E-6</v>
+        <v>9.3019179413395234E-6</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4095,19 +4086,19 @@
       </c>
       <c r="S45" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F45:H45,M45:O45)</f>
-        <v>1.3010608835044245E-3</v>
+        <v>1.2856611100926967E-3</v>
       </c>
       <c r="V45" s="2">
         <f t="array" aca="1" ref="V45:X45" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A45:D45)</f>
-        <v>0.99869978512926239</v>
+        <v>0.99871516499808266</v>
       </c>
       <c r="W45" s="2">
         <f ca="1"/>
-        <v>1.2970882476284508E-3</v>
+        <v>1.275533083976004E-3</v>
       </c>
       <c r="X45" s="2">
         <f ca="1"/>
-        <v>3.1266231091689002E-6</v>
+        <v>9.3019179413395234E-6</v>
       </c>
       <c r="Y45" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4146,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="2">
-        <f t="array" aca="1" ref="M46:O46" ca="1">_xll.nnFeedForward($K$20,A46:D46)</f>
-        <v>0.99860825454189739</v>
+        <f t="array" aca="1" ref="M46:O46" ca="1">_xll.nnFeedForward($K$19,A46:D46)</f>
+        <v>0.99869078721912719</v>
       </c>
       <c r="N46" s="2">
         <f ca="1"/>
-        <v>1.3884115629115717E-3</v>
+        <v>1.2997556632054661E-3</v>
       </c>
       <c r="O46" s="2">
         <f ca="1"/>
-        <v>3.3338951910017008E-6</v>
+        <v>9.4571176672854995E-6</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4171,19 +4162,19 @@
       </c>
       <c r="S46" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F46:H46,M46:O46)</f>
-        <v>1.39271483533465E-3</v>
+        <v>1.3100705486743987E-3</v>
       </c>
       <c r="V46" s="2">
         <f t="array" aca="1" ref="V46:X46" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A46:D46)</f>
-        <v>0.99860825454189739</v>
+        <v>0.99869078721912719</v>
       </c>
       <c r="W46" s="2">
         <f ca="1"/>
-        <v>1.3884115629115717E-3</v>
+        <v>1.2997556632054661E-3</v>
       </c>
       <c r="X46" s="2">
         <f ca="1"/>
-        <v>3.3338951910017008E-6</v>
+        <v>9.4571176672854995E-6</v>
       </c>
       <c r="Y46" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4222,16 +4213,16 @@
         <v>0</v>
       </c>
       <c r="M47" s="2">
-        <f t="array" aca="1" ref="M47:O47" ca="1">_xll.nnFeedForward($K$20,A47:D47)</f>
-        <v>0.99867076521108011</v>
+        <f t="array" aca="1" ref="M47:O47" ca="1">_xll.nnFeedForward($K$19,A47:D47)</f>
+        <v>0.99871007984140425</v>
       </c>
       <c r="N47" s="2">
         <f ca="1"/>
-        <v>1.3260426844443583E-3</v>
+        <v>1.2805857151702812E-3</v>
       </c>
       <c r="O47" s="2">
         <f ca="1"/>
-        <v>3.1921044755391311E-6</v>
+        <v>9.3344434253935961E-6</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4247,19 +4238,19 @@
       </c>
       <c r="S47" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F47:H47,M47:O47)</f>
-        <v>1.3301190051227378E-3</v>
+        <v>1.2907528217265185E-3</v>
       </c>
       <c r="V47" s="2">
         <f t="array" aca="1" ref="V47:X47" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A47:D47)</f>
-        <v>0.99867076521108011</v>
+        <v>0.99871007984140425</v>
       </c>
       <c r="W47" s="2">
         <f ca="1"/>
-        <v>1.3260426844443583E-3</v>
+        <v>1.2805857151702812E-3</v>
       </c>
       <c r="X47" s="2">
         <f ca="1"/>
-        <v>3.1921044755391311E-6</v>
+        <v>9.3344434253935961E-6</v>
       </c>
       <c r="Y47" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4298,16 +4289,16 @@
         <v>0</v>
       </c>
       <c r="M48" s="2">
-        <f t="array" aca="1" ref="M48:O48" ca="1">_xll.nnFeedForward($K$20,A48:D48)</f>
-        <v>2.2307685517794414E-5</v>
+        <f t="array" aca="1" ref="M48:O48" ca="1">_xll.nnFeedForward($K$19,A48:D48)</f>
+        <v>4.9380717759966867E-4</v>
       </c>
       <c r="N48" s="2">
         <f ca="1"/>
-        <v>6.8396160382130172E-2</v>
+        <v>0.99337698914136763</v>
       </c>
       <c r="O48" s="2">
         <f ca="1"/>
-        <v>0.93158153193235194</v>
+        <v>6.1292036810327907E-3</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4315,27 +4306,27 @@
       </c>
       <c r="Q48" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F48:H48,M48:O48)</f>
-        <v>2.6824385906934261</v>
+        <v>6.6450403164823018E-3</v>
       </c>
       <c r="V48" s="2">
         <f t="array" aca="1" ref="V48:X48" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A48:D48)</f>
-        <v>2.2307685517794414E-5</v>
+        <v>4.9380717759966867E-4</v>
       </c>
       <c r="W48" s="2">
         <f ca="1"/>
-        <v>6.8396160382130172E-2</v>
+        <v>0.99337698914136763</v>
       </c>
       <c r="X48" s="2">
         <f ca="1"/>
-        <v>0.93158153193235194</v>
+        <v>6.1292036810327907E-3</v>
       </c>
       <c r="Y48" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4374,16 +4365,16 @@
         <v>0</v>
       </c>
       <c r="M49" s="2">
-        <f t="array" aca="1" ref="M49:O49" ca="1">_xll.nnFeedForward($K$20,A49:D49)</f>
-        <v>3.357457535995809E-5</v>
+        <f t="array" aca="1" ref="M49:O49" ca="1">_xll.nnFeedForward($K$19,A49:D49)</f>
+        <v>5.05866568898631E-4</v>
       </c>
       <c r="N49" s="2">
         <f ca="1"/>
-        <v>0.10631009495544469</v>
+        <v>0.99594196577068206</v>
       </c>
       <c r="O49" s="2">
         <f ca="1"/>
-        <v>0.89365633046919535</v>
+        <v>3.5521676604192095E-3</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4391,27 +4382,27 @@
       </c>
       <c r="Q49" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F49:H49,M49:O49)</f>
-        <v>2.241395031488111</v>
+        <v>4.0662903936557896E-3</v>
       </c>
       <c r="V49" s="2">
         <f t="array" aca="1" ref="V49:X49" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A49:D49)</f>
-        <v>3.357457535995809E-5</v>
+        <v>5.05866568898631E-4</v>
       </c>
       <c r="W49" s="2">
         <f ca="1"/>
-        <v>0.10631009495544469</v>
+        <v>0.99594196577068206</v>
       </c>
       <c r="X49" s="2">
         <f ca="1"/>
-        <v>0.89365633046919535</v>
+        <v>3.5521676604192095E-3</v>
       </c>
       <c r="Y49" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4450,16 +4441,16 @@
         <v>0</v>
       </c>
       <c r="M50" s="2">
-        <f t="array" aca="1" ref="M50:O50" ca="1">_xll.nnFeedForward($K$20,A50:D50)</f>
-        <v>4.1581563992113739E-4</v>
+        <f t="array" aca="1" ref="M50:O50" ca="1">_xll.nnFeedForward($K$19,A50:D50)</f>
+        <v>5.6445647284482836E-4</v>
       </c>
       <c r="N50" s="2">
         <f ca="1"/>
-        <v>0.98179047620551485</v>
+        <v>0.99790294407388613</v>
       </c>
       <c r="O50" s="2">
         <f ca="1"/>
-        <v>1.7793708154564079E-2</v>
+        <v>1.532599453269132E-3</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4475,19 +4466,19 @@
       </c>
       <c r="S50" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F50:H50,M50:O50)</f>
-        <v>1.8377357745919171E-2</v>
+        <v>2.0992578267702614E-3</v>
       </c>
       <c r="V50" s="2">
         <f t="array" aca="1" ref="V50:X50" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A50:D50)</f>
-        <v>4.1581563992113739E-4</v>
+        <v>5.6445647284482836E-4</v>
       </c>
       <c r="W50" s="2">
         <f ca="1"/>
-        <v>0.98179047620551485</v>
+        <v>0.99790294407388613</v>
       </c>
       <c r="X50" s="2">
         <f ca="1"/>
-        <v>1.7793708154564079E-2</v>
+        <v>1.532599453269132E-3</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4526,16 +4517,16 @@
         <v>0</v>
       </c>
       <c r="M51" s="2">
-        <f t="array" aca="1" ref="M51:O51" ca="1">_xll.nnFeedForward($K$20,A51:D51)</f>
-        <v>1.2542006627574006E-3</v>
+        <f t="array" aca="1" ref="M51:O51" ca="1">_xll.nnFeedForward($K$19,A51:D51)</f>
+        <v>1.3334127069830808E-3</v>
       </c>
       <c r="N51" s="2">
         <f ca="1"/>
-        <v>0.99627283999979122</v>
+        <v>0.99719584240587844</v>
       </c>
       <c r="O51" s="2">
         <f ca="1"/>
-        <v>2.4729593374513965E-3</v>
+        <v>1.4707448871384577E-3</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4551,19 +4542,19 @@
       </c>
       <c r="S51" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F51:H51,M51:O51)</f>
-        <v>3.7341231683214243E-3</v>
+        <v>2.808096609497818E-3</v>
       </c>
       <c r="V51" s="2">
         <f t="array" aca="1" ref="V51:X51" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A51:D51)</f>
-        <v>1.2542006627574006E-3</v>
+        <v>1.3334127069830808E-3</v>
       </c>
       <c r="W51" s="2">
         <f ca="1"/>
-        <v>0.99627283999979122</v>
+        <v>0.99719584240587844</v>
       </c>
       <c r="X51" s="2">
         <f ca="1"/>
-        <v>2.4729593374513965E-3</v>
+        <v>1.4707448871384577E-3</v>
       </c>
       <c r="Y51" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4602,16 +4593,16 @@
         <v>1</v>
       </c>
       <c r="M52" s="2">
-        <f t="array" aca="1" ref="M52:O52" ca="1">_xll.nnFeedForward($K$20,A52:D52)</f>
-        <v>1.01086892414939E-6</v>
+        <f t="array" aca="1" ref="M52:O52" ca="1">_xll.nnFeedForward($K$19,A52:D52)</f>
+        <v>3.9231974566911366E-6</v>
       </c>
       <c r="N52" s="2">
         <f ca="1"/>
-        <v>2.8201870370646335E-3</v>
+        <v>5.5535096673409645E-3</v>
       </c>
       <c r="O52" s="2">
         <f ca="1"/>
-        <v>0.99717880209401111</v>
+        <v>0.9944425671352024</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4627,19 +4618,19 @@
       </c>
       <c r="S52" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F52:H52,M52:O52)</f>
-        <v>2.8251849854604208E-3</v>
+        <v>5.5729328482404398E-3</v>
       </c>
       <c r="V52" s="2">
         <f t="array" aca="1" ref="V52:X52" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A52:D52)</f>
-        <v>1.01086892414939E-6</v>
+        <v>3.9231974566911366E-6</v>
       </c>
       <c r="W52" s="2">
         <f ca="1"/>
-        <v>2.8201870370646335E-3</v>
+        <v>5.5535096673409645E-3</v>
       </c>
       <c r="X52" s="2">
         <f ca="1"/>
-        <v>0.99717880209401111</v>
+        <v>0.9944425671352024</v>
       </c>
       <c r="Y52" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4678,16 +4669,16 @@
         <v>0</v>
       </c>
       <c r="M53" s="2">
-        <f t="array" aca="1" ref="M53:O53" ca="1">_xll.nnFeedForward($K$20,A53:D53)</f>
-        <v>0.99861268824322058</v>
+        <f t="array" aca="1" ref="M53:O53" ca="1">_xll.nnFeedForward($K$19,A53:D53)</f>
+        <v>0.99869197811570254</v>
       </c>
       <c r="N53" s="2">
         <f ca="1"/>
-        <v>1.3839871522664234E-3</v>
+        <v>1.2985725429758674E-3</v>
       </c>
       <c r="O53" s="2">
         <f ca="1"/>
-        <v>3.3246045129800897E-6</v>
+        <v>9.4493413215590262E-6</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4703,19 +4694,19 @@
       </c>
       <c r="S53" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F53:H53,M53:O53)</f>
-        <v>1.3882749646841684E-3</v>
+        <v>1.3088780916290868E-3</v>
       </c>
       <c r="V53" s="2">
         <f t="array" aca="1" ref="V53:X53" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A53:D53)</f>
-        <v>0.99861268824322058</v>
+        <v>0.99869197811570254</v>
       </c>
       <c r="W53" s="2">
         <f ca="1"/>
-        <v>1.3839871522664234E-3</v>
+        <v>1.2985725429758674E-3</v>
       </c>
       <c r="X53" s="2">
         <f ca="1"/>
-        <v>3.3246045129800897E-6</v>
+        <v>9.4493413215590262E-6</v>
       </c>
       <c r="Y53" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4754,16 +4745,16 @@
         <v>0</v>
       </c>
       <c r="M54" s="2">
-        <f t="array" aca="1" ref="M54:O54" ca="1">_xll.nnFeedForward($K$20,A54:D54)</f>
-        <v>0.99849741329151098</v>
+        <f t="array" aca="1" ref="M54:O54" ca="1">_xll.nnFeedForward($K$19,A54:D54)</f>
+        <v>0.99864615969022397</v>
       </c>
       <c r="N54" s="2">
         <f ca="1"/>
-        <v>1.4990021408305535E-3</v>
+        <v>1.3441003917154435E-3</v>
       </c>
       <c r="O54" s="2">
         <f ca="1"/>
-        <v>3.58456765846623E-6</v>
+        <v>9.7399180605893058E-6</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4779,19 +4770,19 @@
       </c>
       <c r="S54" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F54:H54,M54:O54)</f>
-        <v>1.5037167240033295E-3</v>
+        <v>1.3547575795528899E-3</v>
       </c>
       <c r="V54" s="2">
         <f t="array" aca="1" ref="V54:X54" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A54:D54)</f>
-        <v>0.99849741329151098</v>
+        <v>0.99864615969022397</v>
       </c>
       <c r="W54" s="2">
         <f ca="1"/>
-        <v>1.4990021408305535E-3</v>
+        <v>1.3441003917154435E-3</v>
       </c>
       <c r="X54" s="2">
         <f ca="1"/>
-        <v>3.58456765846623E-6</v>
+        <v>9.7399180605893058E-6</v>
       </c>
       <c r="Y54" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4830,16 +4821,16 @@
         <v>0</v>
       </c>
       <c r="M55" s="2">
-        <f t="array" aca="1" ref="M55:O55" ca="1">_xll.nnFeedForward($K$20,A55:D55)</f>
-        <v>8.4913474130850035E-4</v>
+        <f t="array" aca="1" ref="M55:O55" ca="1">_xll.nnFeedForward($K$19,A55:D55)</f>
+        <v>7.214818390122613E-4</v>
       </c>
       <c r="N55" s="2">
         <f ca="1"/>
-        <v>0.99541700179282633</v>
+        <v>0.99787320527073287</v>
       </c>
       <c r="O55" s="2">
         <f ca="1"/>
-        <v>3.7338634658652678E-3</v>
+        <v>1.40531289025487E-3</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4855,19 +4846,19 @@
       </c>
       <c r="S55" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F55:H55,M55:O55)</f>
-        <v>4.5935323410571756E-3</v>
+        <v>2.1290595689799118E-3</v>
       </c>
       <c r="V55" s="2">
         <f t="array" aca="1" ref="V55:X55" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A55:D55)</f>
-        <v>8.4913474130850035E-4</v>
+        <v>7.214818390122613E-4</v>
       </c>
       <c r="W55" s="2">
         <f ca="1"/>
-        <v>0.99541700179282633</v>
+        <v>0.99787320527073287</v>
       </c>
       <c r="X55" s="2">
         <f ca="1"/>
-        <v>3.7338634658652678E-3</v>
+        <v>1.40531289025487E-3</v>
       </c>
       <c r="Y55" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4906,16 +4897,16 @@
         <v>0</v>
       </c>
       <c r="M56" s="2">
-        <f t="array" aca="1" ref="M56:O56" ca="1">_xll.nnFeedForward($K$20,A56:D56)</f>
-        <v>0.99854832550843187</v>
+        <f t="array" aca="1" ref="M56:O56" ca="1">_xll.nnFeedForward($K$19,A56:D56)</f>
+        <v>0.99867636269100335</v>
       </c>
       <c r="N56" s="2">
         <f ca="1"/>
-        <v>1.4482063490943535E-3</v>
+        <v>1.3140884596624632E-3</v>
       </c>
       <c r="O56" s="2">
         <f ca="1"/>
-        <v>3.4681424737991164E-6</v>
+        <v>9.5488493341413854E-6</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4931,19 +4922,19 @@
       </c>
       <c r="S56" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F56:H56,M56:O56)</f>
-        <v>1.4527291918274186E-3</v>
+        <v>1.3245140906388642E-3</v>
       </c>
       <c r="V56" s="2">
         <f t="array" aca="1" ref="V56:X56" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A56:D56)</f>
-        <v>0.99854832550843187</v>
+        <v>0.99867636269100335</v>
       </c>
       <c r="W56" s="2">
         <f ca="1"/>
-        <v>1.4482063490943535E-3</v>
+        <v>1.3140884596624632E-3</v>
       </c>
       <c r="X56" s="2">
         <f ca="1"/>
-        <v>3.4681424737991164E-6</v>
+        <v>9.5488493341413854E-6</v>
       </c>
       <c r="Y56" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4982,16 +4973,16 @@
         <v>1</v>
       </c>
       <c r="M57" s="2">
-        <f t="array" aca="1" ref="M57:O57" ca="1">_xll.nnFeedForward($K$20,A57:D57)</f>
-        <v>1.012158514536122E-6</v>
+        <f t="array" aca="1" ref="M57:O57" ca="1">_xll.nnFeedForward($K$19,A57:D57)</f>
+        <v>4.0151792798423497E-6</v>
       </c>
       <c r="N57" s="2">
         <f ca="1"/>
-        <v>2.8243214313365974E-3</v>
+        <v>5.6979211920038823E-3</v>
       </c>
       <c r="O57" s="2">
         <f ca="1"/>
-        <v>0.99717466641014885</v>
+        <v>0.9942980636287162</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5007,19 +4998,19 @@
       </c>
       <c r="S57" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F57:H57,M57:O57)</f>
-        <v>2.8293323785154429E-3</v>
+        <v>5.7182544698789577E-3</v>
       </c>
       <c r="V57" s="2">
         <f t="array" aca="1" ref="V57:X57" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A57:D57)</f>
-        <v>1.012158514536122E-6</v>
+        <v>4.0151792798423497E-6</v>
       </c>
       <c r="W57" s="2">
         <f ca="1"/>
-        <v>2.8243214313365974E-3</v>
+        <v>5.6979211920038823E-3</v>
       </c>
       <c r="X57" s="2">
         <f ca="1"/>
-        <v>0.99717466641014885</v>
+        <v>0.9942980636287162</v>
       </c>
       <c r="Y57" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -5058,16 +5049,16 @@
         <v>0</v>
       </c>
       <c r="M58" s="2">
-        <f t="array" aca="1" ref="M58:O58" ca="1">_xll.nnFeedForward($K$20,A58:D58)</f>
-        <v>0.99866966311319161</v>
+        <f t="array" aca="1" ref="M58:O58" ca="1">_xll.nnFeedForward($K$19,A58:D58)</f>
+        <v>0.99870475931190161</v>
       </c>
       <c r="N58" s="2">
         <f ca="1"/>
-        <v>1.327141671144104E-3</v>
+        <v>1.2858726281497453E-3</v>
       </c>
       <c r="O58" s="2">
         <f ca="1"/>
-        <v>3.1952156642663974E-6</v>
+        <v>9.3680599486379565E-6</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5083,19 +5074,19 @@
       </c>
       <c r="S58" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F58:H58,M58:O58)</f>
-        <v>1.3312225705168759E-3</v>
+        <v>1.2960802373423023E-3</v>
       </c>
       <c r="V58" s="2">
         <f t="array" aca="1" ref="V58:X58" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A58:D58)</f>
-        <v>0.99866966311319161</v>
+        <v>0.99870475931190161</v>
       </c>
       <c r="W58" s="2">
         <f ca="1"/>
-        <v>1.327141671144104E-3</v>
+        <v>1.2858726281497453E-3</v>
       </c>
       <c r="X58" s="2">
         <f ca="1"/>
-        <v>3.1952156642663974E-6</v>
+        <v>9.3680599486379565E-6</v>
       </c>
       <c r="Y58" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -5134,16 +5125,16 @@
         <v>1</v>
       </c>
       <c r="M59" s="2">
-        <f t="array" aca="1" ref="M59:O59" ca="1">_xll.nnFeedForward($K$20,A59:D59)</f>
-        <v>9.9701642414866319E-7</v>
+        <f t="array" aca="1" ref="M59:O59" ca="1">_xll.nnFeedForward($K$19,A59:D59)</f>
+        <v>3.7982457244055782E-6</v>
       </c>
       <c r="N59" s="2">
         <f ca="1"/>
-        <v>2.7841025518908062E-3</v>
+        <v>5.3707698166003733E-3</v>
       </c>
       <c r="O59" s="2">
         <f ca="1"/>
-        <v>0.99721490043168504</v>
+        <v>0.99462543193767516</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5159,19 +5150,19 @@
       </c>
       <c r="S59" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F59:H59,M59:O59)</f>
-        <v>2.788985174327688E-3</v>
+        <v>5.3890630126458925E-3</v>
       </c>
       <c r="V59" s="2">
         <f t="array" aca="1" ref="V59:X59" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A59:D59)</f>
-        <v>9.9701642414866319E-7</v>
+        <v>3.7982457244055782E-6</v>
       </c>
       <c r="W59" s="2">
         <f ca="1"/>
-        <v>2.7841025518908062E-3</v>
+        <v>5.3707698166003733E-3</v>
       </c>
       <c r="X59" s="2">
         <f ca="1"/>
-        <v>0.99721490043168504</v>
+        <v>0.99462543193767516</v>
       </c>
       <c r="Y59" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -5210,16 +5201,16 @@
         <v>1</v>
       </c>
       <c r="M60" s="2">
-        <f t="array" aca="1" ref="M60:O60" ca="1">_xll.nnFeedForward($K$20,A60:D60)</f>
-        <v>1.0946803556670836E-6</v>
+        <f t="array" aca="1" ref="M60:O60" ca="1">_xll.nnFeedForward($K$19,A60:D60)</f>
+        <v>6.9116821618449867E-6</v>
       </c>
       <c r="N60" s="2">
         <f ca="1"/>
-        <v>3.0544180269684194E-3</v>
+        <v>1.0286139147734207E-2</v>
       </c>
       <c r="O60" s="2">
         <f ca="1"/>
-        <v>0.99694448729267593</v>
+        <v>0.98970694917010382</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5235,19 +5226,19 @@
       </c>
       <c r="S60" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F60:H60,M60:O60)</f>
-        <v>3.0601903170371148E-3</v>
+        <v>1.0346390612676256E-2</v>
       </c>
       <c r="V60" s="2">
         <f t="array" aca="1" ref="V60:X60" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A60:D60)</f>
-        <v>1.0946803556670836E-6</v>
+        <v>6.9116821618449867E-6</v>
       </c>
       <c r="W60" s="2">
         <f ca="1"/>
-        <v>3.0544180269684194E-3</v>
+        <v>1.0286139147734207E-2</v>
       </c>
       <c r="X60" s="2">
         <f ca="1"/>
-        <v>0.99694448729267593</v>
+        <v>0.98970694917010382</v>
       </c>
       <c r="Y60" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -5286,16 +5277,16 @@
         <v>1</v>
       </c>
       <c r="M61" s="2">
-        <f t="array" aca="1" ref="M61:O61" ca="1">_xll.nnFeedForward($K$20,A61:D61)</f>
-        <v>1.0018518740258587E-6</v>
+        <f t="array" aca="1" ref="M61:O61" ca="1">_xll.nnFeedForward($K$19,A61:D61)</f>
+        <v>3.8301374048158263E-6</v>
       </c>
       <c r="N61" s="2">
         <f ca="1"/>
-        <v>2.796493729617482E-3</v>
+        <v>5.416641601053632E-3</v>
       </c>
       <c r="O61" s="2">
         <f ca="1"/>
-        <v>0.99720250441850855</v>
+        <v>0.9945795282615415</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5311,19 +5302,19 @@
       </c>
       <c r="S61" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F61:H61,M61:O61)</f>
-        <v>2.8014158853177742E-3</v>
+        <v>5.4352157993725189E-3</v>
       </c>
       <c r="V61" s="2">
         <f t="array" aca="1" ref="V61:X61" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A61:D61)</f>
-        <v>1.0018518740258587E-6</v>
+        <v>3.8301374048158263E-6</v>
       </c>
       <c r="W61" s="2">
         <f ca="1"/>
-        <v>2.796493729617482E-3</v>
+        <v>5.416641601053632E-3</v>
       </c>
       <c r="X61" s="2">
         <f ca="1"/>
-        <v>0.99720250441850855</v>
+        <v>0.9945795282615415</v>
       </c>
       <c r="Y61" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -5362,16 +5353,16 @@
         <v>1</v>
       </c>
       <c r="M62" s="2">
-        <f t="array" aca="1" ref="M62:O62" ca="1">_xll.nnFeedForward($K$20,A62:D62)</f>
-        <v>9.9753620908592189E-7</v>
+        <f t="array" aca="1" ref="M62:O62" ca="1">_xll.nnFeedForward($K$19,A62:D62)</f>
+        <v>3.8023952558764898E-6</v>
       </c>
       <c r="N62" s="2">
         <f ca="1"/>
-        <v>2.7854549949114446E-3</v>
+        <v>5.3768309151724187E-3</v>
       </c>
       <c r="O62" s="2">
         <f ca="1"/>
-        <v>0.99721354746887947</v>
+        <v>0.99461936668957174</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5387,19 +5378,19 @@
       </c>
       <c r="S62" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F62:H62,M62:O62)</f>
-        <v>2.7903419167137002E-3</v>
+        <v>5.3951610535784419E-3</v>
       </c>
       <c r="V62" s="2">
         <f t="array" aca="1" ref="V62:X62" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A62:D62)</f>
-        <v>9.9753620908592189E-7</v>
+        <v>3.8023952558764898E-6</v>
       </c>
       <c r="W62" s="2">
         <f ca="1"/>
-        <v>2.7854549949114446E-3</v>
+        <v>5.3768309151724187E-3</v>
       </c>
       <c r="X62" s="2">
         <f ca="1"/>
-        <v>0.99721354746887947</v>
+        <v>0.99461936668957174</v>
       </c>
       <c r="Y62" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -5438,16 +5429,16 @@
         <v>0</v>
       </c>
       <c r="M63" s="2">
-        <f t="array" aca="1" ref="M63:O63" ca="1">_xll.nnFeedForward($K$20,A63:D63)</f>
-        <v>1.6358334140290356E-3</v>
+        <f t="array" aca="1" ref="M63:O63" ca="1">_xll.nnFeedForward($K$19,A63:D63)</f>
+        <v>2.0808850778641268E-3</v>
       </c>
       <c r="N63" s="2">
         <f ca="1"/>
-        <v>0.99628124179009281</v>
+        <v>0.99637920907318445</v>
       </c>
       <c r="O63" s="2">
         <f ca="1"/>
-        <v>2.0829247958781341E-3</v>
+        <v>1.5399058489513578E-3</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5463,19 +5454,19 @@
       </c>
       <c r="S63" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F63:H63,M63:O63)</f>
-        <v>3.7256899816105315E-3</v>
+        <v>3.6273618563866599E-3</v>
       </c>
       <c r="V63" s="2">
         <f t="array" aca="1" ref="V63:X63" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A63:D63)</f>
-        <v>1.6358334140290356E-3</v>
+        <v>2.0808850778641268E-3</v>
       </c>
       <c r="W63" s="2">
         <f ca="1"/>
-        <v>0.99628124179009281</v>
+        <v>0.99637920907318445</v>
       </c>
       <c r="X63" s="2">
         <f ca="1"/>
-        <v>2.0829247958781341E-3</v>
+        <v>1.5399058489513578E-3</v>
       </c>
       <c r="Y63" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -5514,16 +5505,16 @@
         <v>0</v>
       </c>
       <c r="M64" s="2">
-        <f t="array" aca="1" ref="M64:O64" ca="1">_xll.nnFeedForward($K$20,A64:D64)</f>
-        <v>2.9233851911334574E-4</v>
+        <f t="array" aca="1" ref="M64:O64" ca="1">_xll.nnFeedForward($K$19,A64:D64)</f>
+        <v>5.1847431213189823E-4</v>
       </c>
       <c r="N64" s="2">
         <f ca="1"/>
-        <v>0.86926173860724609</v>
+        <v>0.99698586157290492</v>
       </c>
       <c r="O64" s="2">
         <f ca="1"/>
-        <v>0.13044592287364065</v>
+        <v>2.4956641149632506E-3</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5539,19 +5530,19 @@
       </c>
       <c r="S64" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F64:H64,M64:O64)</f>
-        <v>0.14011100389170897</v>
+        <v>3.018690090854724E-3</v>
       </c>
       <c r="V64" s="2">
         <f t="array" aca="1" ref="V64:X64" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A64:D64)</f>
-        <v>2.9233851911334574E-4</v>
+        <v>5.1847431213189823E-4</v>
       </c>
       <c r="W64" s="2">
         <f ca="1"/>
-        <v>0.86926173860724609</v>
+        <v>0.99698586157290492</v>
       </c>
       <c r="X64" s="2">
         <f ca="1"/>
-        <v>0.13044592287364065</v>
+        <v>2.4956641149632506E-3</v>
       </c>
       <c r="Y64" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -5590,16 +5581,16 @@
         <v>1</v>
       </c>
       <c r="M65" s="2">
-        <f t="array" aca="1" ref="M65:O65" ca="1">_xll.nnFeedForward($K$20,A65:D65)</f>
-        <v>1.0169458928155472E-6</v>
+        <f t="array" aca="1" ref="M65:O65" ca="1">_xll.nnFeedForward($K$19,A65:D65)</f>
+        <v>4.0702028631031224E-6</v>
       </c>
       <c r="N65" s="2">
         <f ca="1"/>
-        <v>2.8369805467954963E-3</v>
+        <v>5.7795053754785683E-3</v>
       </c>
       <c r="O65" s="2">
         <f ca="1"/>
-        <v>0.99716200250731168</v>
+        <v>0.99421642442165836</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5615,19 +5606,19 @@
       </c>
       <c r="S65" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F65:H65,M65:O65)</f>
-        <v>2.8420322431217597E-3</v>
+        <v>5.8003652189776468E-3</v>
       </c>
       <c r="V65" s="2">
         <f t="array" aca="1" ref="V65:X65" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A65:D65)</f>
-        <v>1.0169458928155472E-6</v>
+        <v>4.0702028631031224E-6</v>
       </c>
       <c r="W65" s="2">
         <f ca="1"/>
-        <v>2.8369805467954963E-3</v>
+        <v>5.7795053754785683E-3</v>
       </c>
       <c r="X65" s="2">
         <f ca="1"/>
-        <v>0.99716200250731168</v>
+        <v>0.99421642442165836</v>
       </c>
       <c r="Y65" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -5666,16 +5657,16 @@
         <v>1</v>
       </c>
       <c r="M66" s="2">
-        <f t="array" aca="1" ref="M66:O66" ca="1">_xll.nnFeedForward($K$20,A66:D66)</f>
-        <v>9.9869918344914998E-7</v>
+        <f t="array" aca="1" ref="M66:O66" ca="1">_xll.nnFeedForward($K$19,A66:D66)</f>
+        <v>3.8119111247487E-6</v>
       </c>
       <c r="N66" s="2">
         <f ca="1"/>
-        <v>2.7884425496777824E-3</v>
+        <v>5.3908426897802553E-3</v>
       </c>
       <c r="O66" s="2">
         <f ca="1"/>
-        <v>0.99721055875113884</v>
+        <v>0.99460534539909495</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5691,19 +5682,19 @@
       </c>
       <c r="S66" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F66:H66,M66:O66)</f>
-        <v>2.7933389901358551E-3</v>
+        <v>5.4092582949728492E-3</v>
       </c>
       <c r="V66" s="2">
         <f t="array" aca="1" ref="V66:X66" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A66:D66)</f>
-        <v>9.9869918344914998E-7</v>
+        <v>3.8119111247487E-6</v>
       </c>
       <c r="W66" s="2">
         <f ca="1"/>
-        <v>2.7884425496777824E-3</v>
+        <v>5.3908426897802553E-3</v>
       </c>
       <c r="X66" s="2">
         <f ca="1"/>
-        <v>0.99721055875113884</v>
+        <v>0.99460534539909495</v>
       </c>
       <c r="Y66" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -5742,16 +5733,16 @@
         <v>0</v>
       </c>
       <c r="M67" s="2">
-        <f t="array" aca="1" ref="M67:O67" ca="1">_xll.nnFeedForward($K$20,A67:D67)</f>
-        <v>0.99719731030132741</v>
+        <f t="array" aca="1" ref="M67:O67" ca="1">_xll.nnFeedForward($K$19,A67:D67)</f>
+        <v>0.9982637336035084</v>
       </c>
       <c r="N67" s="2">
         <f ca="1"/>
-        <v>2.7962463732031221E-3</v>
+        <v>1.7241445549718165E-3</v>
       </c>
       <c r="O67" s="2">
         <f ca="1"/>
-        <v>6.4433254695312503E-6</v>
+        <v>1.2121841519750481E-5</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" ref="P67:P130" ca="1" si="8">IF(M67=MAX($M67:$O67),1,0)</f>
@@ -5767,19 +5758,19 @@
       </c>
       <c r="S67" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F67:H67,M67:O67)</f>
-        <v>2.8066245873471425E-3</v>
+        <v>1.7377754539949219E-3</v>
       </c>
       <c r="V67" s="2">
         <f t="array" aca="1" ref="V67:X67" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A67:D67)</f>
-        <v>0.99719731030132741</v>
+        <v>0.9982637336035084</v>
       </c>
       <c r="W67" s="2">
         <f ca="1"/>
-        <v>2.7962463732031221E-3</v>
+        <v>1.7241445549718165E-3</v>
       </c>
       <c r="X67" s="2">
         <f ca="1"/>
-        <v>6.4433254695312503E-6</v>
+        <v>1.2121841519750481E-5</v>
       </c>
       <c r="Y67" s="2">
         <f t="shared" ref="Y67:Y130" ca="1" si="11">M67-V67</f>
@@ -5818,16 +5809,16 @@
         <v>0</v>
       </c>
       <c r="M68" s="2">
-        <f t="array" aca="1" ref="M68:O68" ca="1">_xll.nnFeedForward($K$20,A68:D68)</f>
-        <v>0.99868780400635848</v>
+        <f t="array" aca="1" ref="M68:O68" ca="1">_xll.nnFeedForward($K$19,A68:D68)</f>
+        <v>0.99872095009298323</v>
       </c>
       <c r="N68" s="2">
         <f ca="1"/>
-        <v>1.3090431529227484E-3</v>
+        <v>1.2697845793990322E-3</v>
       </c>
       <c r="O68" s="2">
         <f ca="1"/>
-        <v>3.1528407188167941E-6</v>
+        <v>9.2653276178851543E-6</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -5843,19 +5834,19 @@
       </c>
       <c r="S68" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F68:H68,M68:O68)</f>
-        <v>1.3130576766848931E-3</v>
+        <v>1.2798685895140645E-3</v>
       </c>
       <c r="V68" s="2">
         <f t="array" aca="1" ref="V68:X68" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A68:D68)</f>
-        <v>0.99868780400635848</v>
+        <v>0.99872095009298323</v>
       </c>
       <c r="W68" s="2">
         <f ca="1"/>
-        <v>1.3090431529227484E-3</v>
+        <v>1.2697845793990322E-3</v>
       </c>
       <c r="X68" s="2">
         <f ca="1"/>
-        <v>3.1528407188167941E-6</v>
+        <v>9.2653276178851543E-6</v>
       </c>
       <c r="Y68" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -5894,16 +5885,16 @@
         <v>1</v>
       </c>
       <c r="M69" s="2">
-        <f t="array" aca="1" ref="M69:O69" ca="1">_xll.nnFeedForward($K$20,A69:D69)</f>
-        <v>1.0042416401009965E-6</v>
+        <f t="array" aca="1" ref="M69:O69" ca="1">_xll.nnFeedForward($K$19,A69:D69)</f>
+        <v>3.8998942587724202E-6</v>
       </c>
       <c r="N69" s="2">
         <f ca="1"/>
-        <v>2.8026553561876595E-3</v>
+        <v>5.5193672843655188E-3</v>
       </c>
       <c r="O69" s="2">
         <f ca="1"/>
-        <v>0.9971963404021722</v>
+        <v>0.99447673282137572</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -5919,19 +5910,19 @@
       </c>
       <c r="S69" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F69:H69,M69:O69)</f>
-        <v>2.8075972129417638E-3</v>
+        <v>5.5385768176288187E-3</v>
       </c>
       <c r="V69" s="2">
         <f t="array" aca="1" ref="V69:X69" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A69:D69)</f>
-        <v>1.0042416401009965E-6</v>
+        <v>3.8998942587724202E-6</v>
       </c>
       <c r="W69" s="2">
         <f ca="1"/>
-        <v>2.8026553561876595E-3</v>
+        <v>5.5193672843655188E-3</v>
       </c>
       <c r="X69" s="2">
         <f ca="1"/>
-        <v>0.9971963404021722</v>
+        <v>0.99447673282137572</v>
       </c>
       <c r="Y69" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -5970,16 +5961,16 @@
         <v>0</v>
       </c>
       <c r="M70" s="2">
-        <f t="array" aca="1" ref="M70:O70" ca="1">_xll.nnFeedForward($K$20,A70:D70)</f>
-        <v>0.99868629292535793</v>
+        <f t="array" aca="1" ref="M70:O70" ca="1">_xll.nnFeedForward($K$19,A70:D70)</f>
+        <v>0.99871432620608702</v>
       </c>
       <c r="N70" s="2">
         <f ca="1"/>
-        <v>1.3105500909921994E-3</v>
+        <v>1.2763663809763571E-3</v>
       </c>
       <c r="O70" s="2">
         <f ca="1"/>
-        <v>3.156983649889603E-6</v>
+        <v>9.3074129366072264E-6</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -5995,19 +5986,19 @@
       </c>
       <c r="S70" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F70:H70,M70:O70)</f>
-        <v>1.3145707442698495E-3</v>
+        <v>1.2865009815368027E-3</v>
       </c>
       <c r="V70" s="2">
         <f t="array" aca="1" ref="V70:X70" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A70:D70)</f>
-        <v>0.99868629292535793</v>
+        <v>0.99871432620608702</v>
       </c>
       <c r="W70" s="2">
         <f ca="1"/>
-        <v>1.3105500909921994E-3</v>
+        <v>1.2763663809763571E-3</v>
       </c>
       <c r="X70" s="2">
         <f ca="1"/>
-        <v>3.156983649889603E-6</v>
+        <v>9.3074129366072264E-6</v>
       </c>
       <c r="Y70" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -6046,16 +6037,16 @@
         <v>0</v>
       </c>
       <c r="M71" s="2">
-        <f t="array" aca="1" ref="M71:O71" ca="1">_xll.nnFeedForward($K$20,A71:D71)</f>
-        <v>0.99862417652037172</v>
+        <f t="array" aca="1" ref="M71:O71" ca="1">_xll.nnFeedForward($K$19,A71:D71)</f>
+        <v>0.9986973402668512</v>
       </c>
       <c r="N71" s="2">
         <f ca="1"/>
-        <v>1.3725263131433559E-3</v>
+        <v>1.2932442907113608E-3</v>
       </c>
       <c r="O71" s="2">
         <f ca="1"/>
-        <v>3.2971664848574946E-6</v>
+        <v>9.4154424374558098E-6</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -6071,19 +6062,19 @@
       </c>
       <c r="S71" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F71:H71,M71:O71)</f>
-        <v>1.3767707937428555E-3</v>
+        <v>1.3035089318971093E-3</v>
       </c>
       <c r="V71" s="2">
         <f t="array" aca="1" ref="V71:X71" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A71:D71)</f>
-        <v>0.99862417652037172</v>
+        <v>0.9986973402668512</v>
       </c>
       <c r="W71" s="2">
         <f ca="1"/>
-        <v>1.3725263131433559E-3</v>
+        <v>1.2932442907113608E-3</v>
       </c>
       <c r="X71" s="2">
         <f ca="1"/>
-        <v>3.2971664848574946E-6</v>
+        <v>9.4154424374558098E-6</v>
       </c>
       <c r="Y71" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -6122,16 +6113,16 @@
         <v>0</v>
       </c>
       <c r="M72" s="2">
-        <f t="array" aca="1" ref="M72:O72" ca="1">_xll.nnFeedForward($K$20,A72:D72)</f>
-        <v>5.5997693203238002E-6</v>
+        <f t="array" aca="1" ref="M72:O72" ca="1">_xll.nnFeedForward($K$19,A72:D72)</f>
+        <v>4.8305415015503447E-4</v>
       </c>
       <c r="N72" s="2">
         <f ca="1"/>
-        <v>1.6466119287595969E-2</v>
+        <v>0.98607599630099652</v>
       </c>
       <c r="O72" s="2">
         <f ca="1"/>
-        <v>0.98352828094308375</v>
+        <v>1.344094954884845E-2</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -6139,27 +6130,27 @@
       </c>
       <c r="Q72" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F72:H72,M72:O72)</f>
-        <v>4.1064503856528551</v>
+        <v>1.402185199367403E-2</v>
       </c>
       <c r="V72" s="2">
         <f t="array" aca="1" ref="V72:X72" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A72:D72)</f>
-        <v>5.5997693203238002E-6</v>
+        <v>4.8305415015503447E-4</v>
       </c>
       <c r="W72" s="2">
         <f ca="1"/>
-        <v>1.6466119287595969E-2</v>
+        <v>0.98607599630099652</v>
       </c>
       <c r="X72" s="2">
         <f ca="1"/>
-        <v>0.98352828094308375</v>
+        <v>1.344094954884845E-2</v>
       </c>
       <c r="Y72" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -6198,16 +6189,16 @@
         <v>0</v>
       </c>
       <c r="M73" s="2">
-        <f t="array" aca="1" ref="M73:O73" ca="1">_xll.nnFeedForward($K$20,A73:D73)</f>
-        <v>4.84369176167878E-6</v>
+        <f t="array" aca="1" ref="M73:O73" ca="1">_xll.nnFeedForward($K$19,A73:D73)</f>
+        <v>4.6725036618443591E-4</v>
       </c>
       <c r="N73" s="2">
         <f ca="1"/>
-        <v>1.4029221632666542E-2</v>
+        <v>0.96319881388156403</v>
       </c>
       <c r="O73" s="2">
         <f ca="1"/>
-        <v>0.98596593467557181</v>
+        <v>3.6333935752251537E-2</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -6215,27 +6206,27 @@
       </c>
       <c r="Q73" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F73:H73,M73:O73)</f>
-        <v>4.2666128651903401</v>
+        <v>3.7495435863591969E-2</v>
       </c>
       <c r="V73" s="2">
         <f t="array" aca="1" ref="V73:X73" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A73:D73)</f>
-        <v>4.84369176167878E-6</v>
+        <v>4.6725036618443591E-4</v>
       </c>
       <c r="W73" s="2">
         <f ca="1"/>
-        <v>1.4029221632666542E-2</v>
+        <v>0.96319881388156403</v>
       </c>
       <c r="X73" s="2">
         <f ca="1"/>
-        <v>0.98596593467557181</v>
+        <v>3.6333935752251537E-2</v>
       </c>
       <c r="Y73" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -6274,16 +6265,16 @@
         <v>0</v>
       </c>
       <c r="M74" s="2">
-        <f t="array" aca="1" ref="M74:O74" ca="1">_xll.nnFeedForward($K$20,A74:D74)</f>
-        <v>5.5270146307037529E-4</v>
+        <f t="array" aca="1" ref="M74:O74" ca="1">_xll.nnFeedForward($K$19,A74:D74)</f>
+        <v>5.7412636878214469E-4</v>
       </c>
       <c r="N74" s="2">
         <f ca="1"/>
-        <v>0.99062257499306328</v>
+        <v>0.99790869078943645</v>
       </c>
       <c r="O74" s="2">
         <f ca="1"/>
-        <v>8.8247235438662416E-3</v>
+        <v>1.5171828417814891E-3</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -6299,19 +6290,19 @@
       </c>
       <c r="S74" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F74:H74,M74:O74)</f>
-        <v>9.4216698760170529E-3</v>
+        <v>2.0934990512927109E-3</v>
       </c>
       <c r="V74" s="2">
         <f t="array" aca="1" ref="V74:X74" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A74:D74)</f>
-        <v>5.5270146307037529E-4</v>
+        <v>5.7412636878214469E-4</v>
       </c>
       <c r="W74" s="2">
         <f ca="1"/>
-        <v>0.99062257499306328</v>
+        <v>0.99790869078943645</v>
       </c>
       <c r="X74" s="2">
         <f ca="1"/>
-        <v>8.8247235438662416E-3</v>
+        <v>1.5171828417814891E-3</v>
       </c>
       <c r="Y74" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -6350,16 +6341,16 @@
         <v>0</v>
       </c>
       <c r="M75" s="2">
-        <f t="array" aca="1" ref="M75:O75" ca="1">_xll.nnFeedForward($K$20,A75:D75)</f>
-        <v>0.99865805813110309</v>
+        <f t="array" aca="1" ref="M75:O75" ca="1">_xll.nnFeedForward($K$19,A75:D75)</f>
+        <v>0.99870874001041765</v>
       </c>
       <c r="N75" s="2">
         <f ca="1"/>
-        <v>1.3387211945774804E-3</v>
+        <v>1.2819169666433406E-3</v>
       </c>
       <c r="O75" s="2">
         <f ca="1"/>
-        <v>3.2206743194425159E-6</v>
+        <v>9.3430229389697648E-6</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -6375,19 +6366,19 @@
       </c>
       <c r="S75" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F75:H75,M75:O75)</f>
-        <v>1.3428430792248019E-3</v>
+        <v>1.2920943841202297E-3</v>
       </c>
       <c r="V75" s="2">
         <f t="array" aca="1" ref="V75:X75" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A75:D75)</f>
-        <v>0.99865805813110309</v>
+        <v>0.99870874001041765</v>
       </c>
       <c r="W75" s="2">
         <f ca="1"/>
-        <v>1.3387211945774804E-3</v>
+        <v>1.2819169666433406E-3</v>
       </c>
       <c r="X75" s="2">
         <f ca="1"/>
-        <v>3.2206743194425159E-6</v>
+        <v>9.3430229389697648E-6</v>
       </c>
       <c r="Y75" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -6426,16 +6417,16 @@
         <v>0</v>
       </c>
       <c r="M76" s="2">
-        <f t="array" aca="1" ref="M76:O76" ca="1">_xll.nnFeedForward($K$20,A76:D76)</f>
-        <v>1.9615157400093435E-5</v>
+        <f t="array" aca="1" ref="M76:O76" ca="1">_xll.nnFeedForward($K$19,A76:D76)</f>
+        <v>4.967199863805461E-4</v>
       </c>
       <c r="N76" s="2">
         <f ca="1"/>
-        <v>5.9796578854482224E-2</v>
+        <v>0.99361201536475996</v>
       </c>
       <c r="O76" s="2">
         <f ca="1"/>
-        <v>0.94018380598811768</v>
+        <v>5.8912646488594135E-3</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -6443,27 +6434,27 @@
       </c>
       <c r="Q76" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F76:H76,M76:O76)</f>
-        <v>2.8168068294533608</v>
+        <v>6.4084751176257393E-3</v>
       </c>
       <c r="V76" s="2">
         <f t="array" aca="1" ref="V76:X76" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A76:D76)</f>
-        <v>1.9615157400093435E-5</v>
+        <v>4.967199863805461E-4</v>
       </c>
       <c r="W76" s="2">
         <f ca="1"/>
-        <v>5.9796578854482224E-2</v>
+        <v>0.99361201536475996</v>
       </c>
       <c r="X76" s="2">
         <f ca="1"/>
-        <v>0.94018380598811768</v>
+        <v>5.8912646488594135E-3</v>
       </c>
       <c r="Y76" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -6502,16 +6493,16 @@
         <v>0</v>
       </c>
       <c r="M77" s="2">
-        <f t="array" aca="1" ref="M77:O77" ca="1">_xll.nnFeedForward($K$20,A77:D77)</f>
-        <v>7.6009255789999332E-4</v>
+        <f t="array" aca="1" ref="M77:O77" ca="1">_xll.nnFeedForward($K$19,A77:D77)</f>
+        <v>6.3214509827674121E-4</v>
       </c>
       <c r="N77" s="2">
         <f ca="1"/>
-        <v>0.99486140840772808</v>
+        <v>0.99794764064140529</v>
       </c>
       <c r="O77" s="2">
         <f ca="1"/>
-        <v>4.378499034371785E-3</v>
+        <v>1.4202142603178384E-3</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -6527,19 +6518,19 @@
       </c>
       <c r="S77" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F77:H77,M77:O77)</f>
-        <v>5.1518395574572428E-3</v>
+        <v>2.0544683341409803E-3</v>
       </c>
       <c r="V77" s="2">
         <f t="array" aca="1" ref="V77:X77" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A77:D77)</f>
-        <v>7.6009255789999332E-4</v>
+        <v>6.3214509827674121E-4</v>
       </c>
       <c r="W77" s="2">
         <f ca="1"/>
-        <v>0.99486140840772808</v>
+        <v>0.99794764064140529</v>
       </c>
       <c r="X77" s="2">
         <f ca="1"/>
-        <v>4.378499034371785E-3</v>
+        <v>1.4202142603178384E-3</v>
       </c>
       <c r="Y77" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -6578,16 +6569,16 @@
         <v>0</v>
       </c>
       <c r="M78" s="2">
-        <f t="array" aca="1" ref="M78:O78" ca="1">_xll.nnFeedForward($K$20,A78:D78)</f>
-        <v>7.6670580908553664E-4</v>
+        <f t="array" aca="1" ref="M78:O78" ca="1">_xll.nnFeedForward($K$19,A78:D78)</f>
+        <v>6.5291124132073677E-4</v>
       </c>
       <c r="N78" s="2">
         <f ca="1"/>
-        <v>0.99433684267282041</v>
+        <v>0.99789998592963891</v>
       </c>
       <c r="O78" s="2">
         <f ca="1"/>
-        <v>4.8964515180940091E-3</v>
+        <v>1.4471028290403286E-3</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -6603,19 +6594,19 @@
       </c>
       <c r="S78" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F78:H78,M78:O78)</f>
-        <v>5.6792538026511604E-3</v>
+        <v>2.1022221918413353E-3</v>
       </c>
       <c r="V78" s="2">
         <f t="array" aca="1" ref="V78:X78" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A78:D78)</f>
-        <v>7.6670580908553664E-4</v>
+        <v>6.5291124132073677E-4</v>
       </c>
       <c r="W78" s="2">
         <f ca="1"/>
-        <v>0.99433684267282041</v>
+        <v>0.99789998592963891</v>
       </c>
       <c r="X78" s="2">
         <f ca="1"/>
-        <v>4.8964515180940091E-3</v>
+        <v>1.4471028290403286E-3</v>
       </c>
       <c r="Y78" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -6654,16 +6645,16 @@
         <v>0</v>
       </c>
       <c r="M79" s="2">
-        <f t="array" aca="1" ref="M79:O79" ca="1">_xll.nnFeedForward($K$20,A79:D79)</f>
-        <v>1.4900932747991596E-6</v>
+        <f t="array" aca="1" ref="M79:O79" ca="1">_xll.nnFeedForward($K$19,A79:D79)</f>
+        <v>7.954585552139785E-5</v>
       </c>
       <c r="N79" s="2">
         <f ca="1"/>
-        <v>4.1811786850994119E-3</v>
+        <v>0.14533363013044087</v>
       </c>
       <c r="O79" s="2">
         <f ca="1"/>
-        <v>0.99581733122162586</v>
+        <v>0.85458682401403774</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -6679,19 +6670,19 @@
       </c>
       <c r="S79" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F79:H79,M79:O79)</f>
-        <v>5.4771620901137483</v>
+        <v>1.9287232821213651</v>
       </c>
       <c r="V79" s="2">
         <f t="array" aca="1" ref="V79:X79" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A79:D79)</f>
-        <v>1.4900932747991596E-6</v>
+        <v>7.954585552139785E-5</v>
       </c>
       <c r="W79" s="2">
         <f ca="1"/>
-        <v>4.1811786850994119E-3</v>
+        <v>0.14533363013044087</v>
       </c>
       <c r="X79" s="2">
         <f ca="1"/>
-        <v>0.99581733122162586</v>
+        <v>0.85458682401403774</v>
       </c>
       <c r="Y79" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -6730,16 +6721,16 @@
         <v>0</v>
       </c>
       <c r="M80" s="2">
-        <f t="array" aca="1" ref="M80:O80" ca="1">_xll.nnFeedForward($K$20,A80:D80)</f>
-        <v>7.3658946665277692E-4</v>
+        <f t="array" aca="1" ref="M80:O80" ca="1">_xll.nnFeedForward($K$19,A80:D80)</f>
+        <v>6.2323272052554432E-4</v>
       </c>
       <c r="N80" s="2">
         <f ca="1"/>
-        <v>0.99455681676051366</v>
+        <v>0.99794653459616423</v>
       </c>
       <c r="O80" s="2">
         <f ca="1"/>
-        <v>4.7065937728334702E-3</v>
+        <v>1.4302326833102487E-3</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -6755,19 +6746,19 @@
       </c>
       <c r="S80" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F80:H80,M80:O80)</f>
-        <v>5.4580513391138371E-3</v>
+        <v>2.0555766546669725E-3</v>
       </c>
       <c r="V80" s="2">
         <f t="array" aca="1" ref="V80:X80" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A80:D80)</f>
-        <v>7.3658946665277692E-4</v>
+        <v>6.2323272052554432E-4</v>
       </c>
       <c r="W80" s="2">
         <f ca="1"/>
-        <v>0.99455681676051366</v>
+        <v>0.99794653459616423</v>
       </c>
       <c r="X80" s="2">
         <f ca="1"/>
-        <v>4.7065937728334702E-3</v>
+        <v>1.4302326833102487E-3</v>
       </c>
       <c r="Y80" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -6806,16 +6797,16 @@
         <v>1</v>
       </c>
       <c r="M81" s="2">
-        <f t="array" aca="1" ref="M81:O81" ca="1">_xll.nnFeedForward($K$20,A81:D81)</f>
-        <v>1.0066023644180617E-6</v>
+        <f t="array" aca="1" ref="M81:O81" ca="1">_xll.nnFeedForward($K$19,A81:D81)</f>
+        <v>3.8875335650796543E-6</v>
       </c>
       <c r="N81" s="2">
         <f ca="1"/>
-        <v>2.8084260848847136E-3</v>
+        <v>5.4997392750792797E-3</v>
       </c>
       <c r="O81" s="2">
         <f ca="1"/>
-        <v>0.9971905673127508</v>
+        <v>0.99449637319135564</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -6831,19 +6822,19 @@
       </c>
       <c r="S81" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F81:H81,M81:O81)</f>
-        <v>2.813386550405909E-3</v>
+        <v>5.518827561169606E-3</v>
       </c>
       <c r="V81" s="2">
         <f t="array" aca="1" ref="V81:X81" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A81:D81)</f>
-        <v>1.0066023644180617E-6</v>
+        <v>3.8875335650796543E-6</v>
       </c>
       <c r="W81" s="2">
         <f ca="1"/>
-        <v>2.8084260848847136E-3</v>
+        <v>5.4997392750792797E-3</v>
       </c>
       <c r="X81" s="2">
         <f ca="1"/>
-        <v>0.9971905673127508</v>
+        <v>0.99449637319135564</v>
       </c>
       <c r="Y81" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -6882,16 +6873,16 @@
         <v>0</v>
       </c>
       <c r="M82" s="2">
-        <f t="array" aca="1" ref="M82:O82" ca="1">_xll.nnFeedForward($K$20,A82:D82)</f>
-        <v>1.3632152892781082E-6</v>
+        <f t="array" aca="1" ref="M82:O82" ca="1">_xll.nnFeedForward($K$19,A82:D82)</f>
+        <v>2.3122771172615403E-4</v>
       </c>
       <c r="N82" s="2">
         <f ca="1"/>
-        <v>3.8343765669288988E-3</v>
+        <v>0.47029250789598914</v>
       </c>
       <c r="O82" s="2">
         <f ca="1"/>
-        <v>0.99616426021778193</v>
+        <v>0.52947626439228468</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -6907,19 +6898,19 @@
       </c>
       <c r="S82" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F82:H82,M82:O82)</f>
-        <v>5.5637484214120674</v>
+        <v>0.75440042063646728</v>
       </c>
       <c r="V82" s="2">
         <f t="array" aca="1" ref="V82:X82" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A82:D82)</f>
-        <v>1.3632152892781082E-6</v>
+        <v>2.3122771172615403E-4</v>
       </c>
       <c r="W82" s="2">
         <f ca="1"/>
-        <v>3.8343765669288988E-3</v>
+        <v>0.47029250789598914</v>
       </c>
       <c r="X82" s="2">
         <f ca="1"/>
-        <v>0.99616426021778193</v>
+        <v>0.52947626439228468</v>
       </c>
       <c r="Y82" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -6958,16 +6949,16 @@
         <v>0</v>
       </c>
       <c r="M83" s="2">
-        <f t="array" aca="1" ref="M83:O83" ca="1">_xll.nnFeedForward($K$20,A83:D83)</f>
-        <v>0.99860036321304457</v>
+        <f t="array" aca="1" ref="M83:O83" ca="1">_xll.nnFeedForward($K$19,A83:D83)</f>
+        <v>0.99869668850828286</v>
       </c>
       <c r="N83" s="2">
         <f ca="1"/>
-        <v>1.3962857365527027E-3</v>
+        <v>1.2938917778574813E-3</v>
       </c>
       <c r="O83" s="2">
         <f ca="1"/>
-        <v>3.3510504026892755E-6</v>
+        <v>9.4197138596741732E-6</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -6983,19 +6974,19 @@
       </c>
       <c r="S83" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F83:H83,M83:O83)</f>
-        <v>1.4006171934385597E-3</v>
+        <v>1.3041615408054649E-3</v>
       </c>
       <c r="V83" s="2">
         <f t="array" aca="1" ref="V83:X83" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A83:D83)</f>
-        <v>0.99860036321304457</v>
+        <v>0.99869668850828286</v>
       </c>
       <c r="W83" s="2">
         <f ca="1"/>
-        <v>1.3962857365527027E-3</v>
+        <v>1.2938917778574813E-3</v>
       </c>
       <c r="X83" s="2">
         <f ca="1"/>
-        <v>3.3510504026892755E-6</v>
+        <v>9.4197138596741732E-6</v>
       </c>
       <c r="Y83" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -7034,16 +7025,16 @@
         <v>0</v>
       </c>
       <c r="M84" s="2">
-        <f t="array" aca="1" ref="M84:O84" ca="1">_xll.nnFeedForward($K$20,A84:D84)</f>
-        <v>1.1501926683841245E-5</v>
+        <f t="array" aca="1" ref="M84:O84" ca="1">_xll.nnFeedForward($K$19,A84:D84)</f>
+        <v>4.8618942668093428E-4</v>
       </c>
       <c r="N84" s="2">
         <f ca="1"/>
-        <v>3.4228064095156288E-2</v>
+        <v>0.98883700628766968</v>
       </c>
       <c r="O84" s="2">
         <f ca="1"/>
-        <v>0.96576043397815992</v>
+        <v>1.0676804285649258E-2</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -7051,27 +7042,27 @@
       </c>
       <c r="Q84" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S84" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F84:H84,M84:O84)</f>
-        <v>3.3747093838338231</v>
+        <v>1.1225767526285135E-2</v>
       </c>
       <c r="V84" s="2">
         <f t="array" aca="1" ref="V84:X84" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A84:D84)</f>
-        <v>1.1501926683841245E-5</v>
+        <v>4.8618942668093428E-4</v>
       </c>
       <c r="W84" s="2">
         <f ca="1"/>
-        <v>3.4228064095156288E-2</v>
+        <v>0.98883700628766968</v>
       </c>
       <c r="X84" s="2">
         <f ca="1"/>
-        <v>0.96576043397815992</v>
+        <v>1.0676804285649258E-2</v>
       </c>
       <c r="Y84" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -7110,16 +7101,16 @@
         <v>1</v>
       </c>
       <c r="M85" s="2">
-        <f t="array" aca="1" ref="M85:O85" ca="1">_xll.nnFeedForward($K$20,A85:D85)</f>
-        <v>1.016897652935952E-6</v>
+        <f t="array" aca="1" ref="M85:O85" ca="1">_xll.nnFeedForward($K$19,A85:D85)</f>
+        <v>4.4943555970019485E-6</v>
       </c>
       <c r="N85" s="2">
         <f ca="1"/>
-        <v>2.838652346302979E-3</v>
+        <v>6.4396059849169225E-3</v>
       </c>
       <c r="O85" s="2">
         <f ca="1"/>
-        <v>0.99716033075604416</v>
+        <v>0.9935558996594861</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -7135,19 +7126,19 @@
       </c>
       <c r="S85" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F85:H85,M85:O85)</f>
-        <v>2.8437087537235279E-3</v>
+        <v>6.4649531886176352E-3</v>
       </c>
       <c r="V85" s="2">
         <f t="array" aca="1" ref="V85:X85" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A85:D85)</f>
-        <v>1.016897652935952E-6</v>
+        <v>4.4943555970019485E-6</v>
       </c>
       <c r="W85" s="2">
         <f ca="1"/>
-        <v>2.838652346302979E-3</v>
+        <v>6.4396059849169225E-3</v>
       </c>
       <c r="X85" s="2">
         <f ca="1"/>
-        <v>0.99716033075604416</v>
+        <v>0.9935558996594861</v>
       </c>
       <c r="Y85" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -7186,16 +7177,16 @@
         <v>0</v>
       </c>
       <c r="M86" s="2">
-        <f t="array" aca="1" ref="M86:O86" ca="1">_xll.nnFeedForward($K$20,A86:D86)</f>
-        <v>0.99860825454189739</v>
+        <f t="array" aca="1" ref="M86:O86" ca="1">_xll.nnFeedForward($K$19,A86:D86)</f>
+        <v>0.99869078721912719</v>
       </c>
       <c r="N86" s="2">
         <f ca="1"/>
-        <v>1.3884115629115717E-3</v>
+        <v>1.2997556632054661E-3</v>
       </c>
       <c r="O86" s="2">
         <f ca="1"/>
-        <v>3.3338951910017008E-6</v>
+        <v>9.4571176672854995E-6</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -7211,19 +7202,19 @@
       </c>
       <c r="S86" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F86:H86,M86:O86)</f>
-        <v>1.39271483533465E-3</v>
+        <v>1.3100705486743987E-3</v>
       </c>
       <c r="V86" s="2">
         <f t="array" aca="1" ref="V86:X86" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A86:D86)</f>
-        <v>0.99860825454189739</v>
+        <v>0.99869078721912719</v>
       </c>
       <c r="W86" s="2">
         <f ca="1"/>
-        <v>1.3884115629115717E-3</v>
+        <v>1.2997556632054661E-3</v>
       </c>
       <c r="X86" s="2">
         <f ca="1"/>
-        <v>3.3338951910017008E-6</v>
+        <v>9.4571176672854995E-6</v>
       </c>
       <c r="Y86" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -7262,16 +7253,16 @@
         <v>1</v>
       </c>
       <c r="M87" s="2">
-        <f t="array" aca="1" ref="M87:O87" ca="1">_xll.nnFeedForward($K$20,A87:D87)</f>
-        <v>1.0085579305564196E-6</v>
+        <f t="array" aca="1" ref="M87:O87" ca="1">_xll.nnFeedForward($K$19,A87:D87)</f>
+        <v>3.9905940031672093E-6</v>
       </c>
       <c r="N87" s="2">
         <f ca="1"/>
-        <v>2.8148020982559658E-3</v>
+        <v>5.6594217313515119E-3</v>
       </c>
       <c r="O87" s="2">
         <f ca="1"/>
-        <v>0.99718418934381359</v>
+        <v>0.99433658767464528</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -7287,19 +7278,19 @@
       </c>
       <c r="S87" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F87:H87,M87:O87)</f>
-        <v>2.8197825087542027E-3</v>
+        <v>5.6795102531786721E-3</v>
       </c>
       <c r="V87" s="2">
         <f t="array" aca="1" ref="V87:X87" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A87:D87)</f>
-        <v>1.0085579305564196E-6</v>
+        <v>3.9905940031672093E-6</v>
       </c>
       <c r="W87" s="2">
         <f ca="1"/>
-        <v>2.8148020982559658E-3</v>
+        <v>5.6594217313515119E-3</v>
       </c>
       <c r="X87" s="2">
         <f ca="1"/>
-        <v>0.99718418934381359</v>
+        <v>0.99433658767464528</v>
       </c>
       <c r="Y87" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -7338,16 +7329,16 @@
         <v>1</v>
       </c>
       <c r="M88" s="2">
-        <f t="array" aca="1" ref="M88:O88" ca="1">_xll.nnFeedForward($K$20,A88:D88)</f>
-        <v>1.036934923681648E-6</v>
+        <f t="array" aca="1" ref="M88:O88" ca="1">_xll.nnFeedForward($K$19,A88:D88)</f>
+        <v>5.2001861698481984E-6</v>
       </c>
       <c r="N88" s="2">
         <f ca="1"/>
-        <v>2.8946606448697699E-3</v>
+        <v>7.567239229421179E-3</v>
       </c>
       <c r="O88" s="2">
         <f ca="1"/>
-        <v>0.99710430242020653</v>
+        <v>0.99242756058440895</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -7363,19 +7354,19 @@
       </c>
       <c r="S88" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F88:H88,M88:O88)</f>
-        <v>2.8998982231853883E-3</v>
+        <v>7.6012559011753109E-3</v>
       </c>
       <c r="V88" s="2">
         <f t="array" aca="1" ref="V88:X88" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A88:D88)</f>
-        <v>1.036934923681648E-6</v>
+        <v>5.2001861698481984E-6</v>
       </c>
       <c r="W88" s="2">
         <f ca="1"/>
-        <v>2.8946606448697699E-3</v>
+        <v>7.567239229421179E-3</v>
       </c>
       <c r="X88" s="2">
         <f ca="1"/>
-        <v>0.99710430242020653</v>
+        <v>0.99242756058440895</v>
       </c>
       <c r="Y88" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -7414,16 +7405,16 @@
         <v>1</v>
       </c>
       <c r="M89" s="2">
-        <f t="array" aca="1" ref="M89:O89" ca="1">_xll.nnFeedForward($K$20,A89:D89)</f>
-        <v>1.0130253791062761E-6</v>
+        <f t="array" aca="1" ref="M89:O89" ca="1">_xll.nnFeedForward($K$19,A89:D89)</f>
+        <v>3.9477622097141853E-6</v>
       </c>
       <c r="N89" s="2">
         <f ca="1"/>
-        <v>2.8249563276245945E-3</v>
+        <v>5.5863282293401621E-3</v>
       </c>
       <c r="O89" s="2">
         <f ca="1"/>
-        <v>0.99717403064699617</v>
+        <v>0.99440972400845018</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -7439,19 +7430,19 @@
       </c>
       <c r="S89" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F89:H89,M89:O89)</f>
-        <v>2.8299699432037212E-3</v>
+        <v>5.6059600638878361E-3</v>
       </c>
       <c r="V89" s="2">
         <f t="array" aca="1" ref="V89:X89" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A89:D89)</f>
-        <v>1.0130253791062761E-6</v>
+        <v>3.9477622097141853E-6</v>
       </c>
       <c r="W89" s="2">
         <f ca="1"/>
-        <v>2.8249563276245945E-3</v>
+        <v>5.5863282293401621E-3</v>
       </c>
       <c r="X89" s="2">
         <f ca="1"/>
-        <v>0.99717403064699617</v>
+        <v>0.99440972400845018</v>
       </c>
       <c r="Y89" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -7490,16 +7481,16 @@
         <v>1</v>
       </c>
       <c r="M90" s="2">
-        <f t="array" aca="1" ref="M90:O90" ca="1">_xll.nnFeedForward($K$20,A90:D90)</f>
-        <v>9.9803842693759079E-7</v>
+        <f t="array" aca="1" ref="M90:O90" ca="1">_xll.nnFeedForward($K$19,A90:D90)</f>
+        <v>3.8052919170902628E-6</v>
       </c>
       <c r="N90" s="2">
         <f ca="1"/>
-        <v>2.7867480236746039E-3</v>
+        <v>5.3810125746122615E-3</v>
       </c>
       <c r="O90" s="2">
         <f ca="1"/>
-        <v>0.99721225393789847</v>
+        <v>0.99461518213347067</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -7515,19 +7506,19 @@
       </c>
       <c r="S90" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F90:H90,M90:O90)</f>
-        <v>2.7916390629701142E-3</v>
+        <v>5.3993682558950862E-3</v>
       </c>
       <c r="V90" s="2">
         <f t="array" aca="1" ref="V90:X90" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A90:D90)</f>
-        <v>9.9803842693759079E-7</v>
+        <v>3.8052919170902628E-6</v>
       </c>
       <c r="W90" s="2">
         <f ca="1"/>
-        <v>2.7867480236746039E-3</v>
+        <v>5.3810125746122615E-3</v>
       </c>
       <c r="X90" s="2">
         <f ca="1"/>
-        <v>0.99721225393789847</v>
+        <v>0.99461518213347067</v>
       </c>
       <c r="Y90" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -7566,16 +7557,16 @@
         <v>0</v>
       </c>
       <c r="M91" s="2">
-        <f t="array" aca="1" ref="M91:O91" ca="1">_xll.nnFeedForward($K$20,A91:D91)</f>
-        <v>0.99866805299876682</v>
+        <f t="array" aca="1" ref="M91:O91" ca="1">_xll.nnFeedForward($K$19,A91:D91)</f>
+        <v>0.99873244866347743</v>
       </c>
       <c r="N91" s="2">
         <f ca="1"/>
-        <v>1.328751065517826E-3</v>
+        <v>1.258358828602495E-3</v>
       </c>
       <c r="O91" s="2">
         <f ca="1"/>
-        <v>3.1959357154748872E-6</v>
+        <v>9.1925079201542773E-6</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -7591,19 +7582,19 @@
       </c>
       <c r="S91" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F91:H91,M91:O91)</f>
-        <v>1.3328348310893371E-3</v>
+        <v>1.2683553592164349E-3</v>
       </c>
       <c r="V91" s="2">
         <f t="array" aca="1" ref="V91:X91" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A91:D91)</f>
-        <v>0.99866805299876682</v>
+        <v>0.99873244866347743</v>
       </c>
       <c r="W91" s="2">
         <f ca="1"/>
-        <v>1.328751065517826E-3</v>
+        <v>1.258358828602495E-3</v>
       </c>
       <c r="X91" s="2">
         <f ca="1"/>
-        <v>3.1959357154748872E-6</v>
+        <v>9.1925079201542773E-6</v>
       </c>
       <c r="Y91" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -7642,16 +7633,16 @@
         <v>1</v>
       </c>
       <c r="M92" s="2">
-        <f t="array" aca="1" ref="M92:O92" ca="1">_xll.nnFeedForward($K$20,A92:D92)</f>
-        <v>1.0196006050896641E-6</v>
+        <f t="array" aca="1" ref="M92:O92" ca="1">_xll.nnFeedForward($K$19,A92:D92)</f>
+        <v>3.9904478138047191E-6</v>
       </c>
       <c r="N92" s="2">
         <f ca="1"/>
-        <v>2.8424876786589731E-3</v>
+        <v>5.6476162269195008E-3</v>
       </c>
       <c r="O92" s="2">
         <f ca="1"/>
-        <v>0.99715649272073603</v>
+        <v>0.9943483933252667</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -7667,19 +7658,19 @@
       </c>
       <c r="S92" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F92:H92,M92:O92)</f>
-        <v>2.8475577262267408E-3</v>
+        <v>5.6676374319582657E-3</v>
       </c>
       <c r="V92" s="2">
         <f t="array" aca="1" ref="V92:X92" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A92:D92)</f>
-        <v>1.0196006050896641E-6</v>
+        <v>3.9904478138047191E-6</v>
       </c>
       <c r="W92" s="2">
         <f ca="1"/>
-        <v>2.8424876786589731E-3</v>
+        <v>5.6476162269195008E-3</v>
       </c>
       <c r="X92" s="2">
         <f ca="1"/>
-        <v>0.99715649272073603</v>
+        <v>0.9943483933252667</v>
       </c>
       <c r="Y92" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -7718,16 +7709,16 @@
         <v>0</v>
       </c>
       <c r="M93" s="2">
-        <f t="array" aca="1" ref="M93:O93" ca="1">_xll.nnFeedForward($K$20,A93:D93)</f>
-        <v>0.99868524329946196</v>
+        <f t="array" aca="1" ref="M93:O93" ca="1">_xll.nnFeedForward($K$19,A93:D93)</f>
+        <v>0.99871576020654573</v>
       </c>
       <c r="N93" s="2">
         <f ca="1"/>
-        <v>1.3115975085962355E-3</v>
+        <v>1.2749415154494606E-3</v>
       </c>
       <c r="O93" s="2">
         <f ca="1"/>
-        <v>3.1591919418634633E-6</v>
+        <v>9.2982780048486489E-6</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -7743,19 +7734,19 @@
       </c>
       <c r="S93" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F93:H93,M93:O93)</f>
-        <v>1.3156217514329542E-3</v>
+        <v>1.2850651360787153E-3</v>
       </c>
       <c r="V93" s="2">
         <f t="array" aca="1" ref="V93:X93" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A93:D93)</f>
-        <v>0.99868524329946196</v>
+        <v>0.99871576020654573</v>
       </c>
       <c r="W93" s="2">
         <f ca="1"/>
-        <v>1.3115975085962355E-3</v>
+        <v>1.2749415154494606E-3</v>
       </c>
       <c r="X93" s="2">
         <f ca="1"/>
-        <v>3.1591919418634633E-6</v>
+        <v>9.2982780048486489E-6</v>
       </c>
       <c r="Y93" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -7794,16 +7785,16 @@
         <v>0</v>
       </c>
       <c r="M94" s="2">
-        <f t="array" aca="1" ref="M94:O94" ca="1">_xll.nnFeedForward($K$20,A94:D94)</f>
-        <v>2.6357626470087028E-4</v>
+        <f t="array" aca="1" ref="M94:O94" ca="1">_xll.nnFeedForward($K$19,A94:D94)</f>
+        <v>5.2063544910032093E-4</v>
       </c>
       <c r="N94" s="2">
         <f ca="1"/>
-        <v>0.80544057174577421</v>
+        <v>0.99695975366282863</v>
       </c>
       <c r="O94" s="2">
         <f ca="1"/>
-        <v>0.19429585198952487</v>
+        <v>2.5196108880711056E-3</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -7819,19 +7810,19 @@
       </c>
       <c r="S94" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F94:H94,M94:O94)</f>
-        <v>0.21636585718023557</v>
+        <v>3.0448772745755746E-3</v>
       </c>
       <c r="V94" s="2">
         <f t="array" aca="1" ref="V94:X94" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A94:D94)</f>
-        <v>2.6357626470087028E-4</v>
+        <v>5.2063544910032093E-4</v>
       </c>
       <c r="W94" s="2">
         <f ca="1"/>
-        <v>0.80544057174577421</v>
+        <v>0.99695975366282863</v>
       </c>
       <c r="X94" s="2">
         <f ca="1"/>
-        <v>0.19429585198952487</v>
+        <v>2.5196108880711056E-3</v>
       </c>
       <c r="Y94" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -7870,16 +7861,16 @@
         <v>0</v>
       </c>
       <c r="M95" s="2">
-        <f t="array" aca="1" ref="M95:O95" ca="1">_xll.nnFeedForward($K$20,A95:D95)</f>
-        <v>2.0406455926936825E-6</v>
+        <f t="array" aca="1" ref="M95:O95" ca="1">_xll.nnFeedForward($K$19,A95:D95)</f>
+        <v>4.6882440190764129E-4</v>
       </c>
       <c r="N95" s="2">
         <f ca="1"/>
-        <v>5.8401111566806626E-3</v>
+        <v>0.97291527103161823</v>
       </c>
       <c r="O95" s="2">
         <f ca="1"/>
-        <v>0.99415784819772657</v>
+        <v>2.6615904566473978E-2</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -7887,27 +7878,27 @@
       </c>
       <c r="Q95" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S95" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F95:H95,M95:O95)</f>
-        <v>5.1430054486449439</v>
+        <v>2.7458280719771064E-2</v>
       </c>
       <c r="V95" s="2">
         <f t="array" aca="1" ref="V95:X95" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A95:D95)</f>
-        <v>2.0406455926936825E-6</v>
+        <v>4.6882440190764129E-4</v>
       </c>
       <c r="W95" s="2">
         <f ca="1"/>
-        <v>5.8401111566806626E-3</v>
+        <v>0.97291527103161823</v>
       </c>
       <c r="X95" s="2">
         <f ca="1"/>
-        <v>0.99415784819772657</v>
+        <v>2.6615904566473978E-2</v>
       </c>
       <c r="Y95" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -7946,16 +7937,16 @@
         <v>0</v>
       </c>
       <c r="M96" s="2">
-        <f t="array" aca="1" ref="M96:O96" ca="1">_xll.nnFeedForward($K$20,A96:D96)</f>
-        <v>4.7726586773375978E-4</v>
+        <f t="array" aca="1" ref="M96:O96" ca="1">_xll.nnFeedForward($K$19,A96:D96)</f>
+        <v>5.5970282565222316E-4</v>
       </c>
       <c r="N96" s="2">
         <f ca="1"/>
-        <v>0.98550234488684152</v>
+        <v>0.99782353395002898</v>
       </c>
       <c r="O96" s="2">
         <f ca="1"/>
-        <v>1.4020389245424715E-2</v>
+        <v>1.61676322431865E-3</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -7971,19 +7962,19 @@
       </c>
       <c r="S96" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F96:H96,M96:O96)</f>
-        <v>1.4603773004225856E-2</v>
+        <v>2.1788379944670754E-3</v>
       </c>
       <c r="V96" s="2">
         <f t="array" aca="1" ref="V96:X96" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A96:D96)</f>
-        <v>4.7726586773375978E-4</v>
+        <v>5.5970282565222316E-4</v>
       </c>
       <c r="W96" s="2">
         <f ca="1"/>
-        <v>0.98550234488684152</v>
+        <v>0.99782353395002898</v>
       </c>
       <c r="X96" s="2">
         <f ca="1"/>
-        <v>1.4020389245424715E-2</v>
+        <v>1.61676322431865E-3</v>
       </c>
       <c r="Y96" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -8022,16 +8013,16 @@
         <v>0</v>
       </c>
       <c r="M97" s="2">
-        <f t="array" aca="1" ref="M97:O97" ca="1">_xll.nnFeedForward($K$20,A97:D97)</f>
-        <v>0.99861009779800458</v>
+        <f t="array" aca="1" ref="M97:O97" ca="1">_xll.nnFeedForward($K$19,A97:D97)</f>
+        <v>0.99869567567495188</v>
       </c>
       <c r="N97" s="2">
         <f ca="1"/>
-        <v>1.3865726547690178E-3</v>
+        <v>1.2948982845464635E-3</v>
       </c>
       <c r="O97" s="2">
         <f ca="1"/>
-        <v>3.3295472264295034E-6</v>
+        <v>9.4260405016764341E-6</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -8047,19 +8038,19 @@
       </c>
       <c r="S97" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F97:H97,M97:O97)</f>
-        <v>1.3908690120123944E-3</v>
+        <v>1.3051756964106874E-3</v>
       </c>
       <c r="V97" s="2">
         <f t="array" aca="1" ref="V97:X97" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A97:D97)</f>
-        <v>0.99861009779800458</v>
+        <v>0.99869567567495188</v>
       </c>
       <c r="W97" s="2">
         <f ca="1"/>
-        <v>1.3865726547690178E-3</v>
+        <v>1.2948982845464635E-3</v>
       </c>
       <c r="X97" s="2">
         <f ca="1"/>
-        <v>3.3295472264295034E-6</v>
+        <v>9.4260405016764341E-6</v>
       </c>
       <c r="Y97" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -8098,16 +8089,16 @@
         <v>0</v>
       </c>
       <c r="M98" s="2">
-        <f t="array" aca="1" ref="M98:O98" ca="1">_xll.nnFeedForward($K$20,A98:D98)</f>
-        <v>1.3632465062511377E-4</v>
+        <f t="array" aca="1" ref="M98:O98" ca="1">_xll.nnFeedForward($K$19,A98:D98)</f>
+        <v>5.1126864202727721E-4</v>
       </c>
       <c r="N98" s="2">
         <f ca="1"/>
-        <v>0.44125748130025017</v>
+        <v>0.99636865734168945</v>
       </c>
       <c r="O98" s="2">
         <f ca="1"/>
-        <v>0.55860619404912482</v>
+        <v>3.1200740162832517E-3</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -8115,27 +8106,27 @@
       </c>
       <c r="Q98" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S98" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F98:H98,M98:O98)</f>
-        <v>0.818126716090259</v>
+        <v>3.6379519884078104E-3</v>
       </c>
       <c r="V98" s="2">
         <f t="array" aca="1" ref="V98:X98" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A98:D98)</f>
-        <v>1.3632465062511377E-4</v>
+        <v>5.1126864202727721E-4</v>
       </c>
       <c r="W98" s="2">
         <f ca="1"/>
-        <v>0.44125748130025017</v>
+        <v>0.99636865734168945</v>
       </c>
       <c r="X98" s="2">
         <f ca="1"/>
-        <v>0.55860619404912482</v>
+        <v>3.1200740162832517E-3</v>
       </c>
       <c r="Y98" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -8174,16 +8165,16 @@
         <v>0</v>
       </c>
       <c r="M99" s="2">
-        <f t="array" aca="1" ref="M99:O99" ca="1">_xll.nnFeedForward($K$20,A99:D99)</f>
-        <v>0.99869411452215073</v>
+        <f t="array" aca="1" ref="M99:O99" ca="1">_xll.nnFeedForward($K$19,A99:D99)</f>
+        <v>0.99871355571555176</v>
       </c>
       <c r="N99" s="2">
         <f ca="1"/>
-        <v>1.302745962353931E-3</v>
+        <v>1.2771320945317531E-3</v>
       </c>
       <c r="O99" s="2">
         <f ca="1"/>
-        <v>3.1395154952766191E-6</v>
+        <v>9.3121899165964584E-6</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -8199,19 +8190,19 @@
       </c>
       <c r="S99" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F99:H99,M99:O99)</f>
-        <v>1.3067388893425887E-3</v>
+        <v>1.2872724642443746E-3</v>
       </c>
       <c r="V99" s="2">
         <f t="array" aca="1" ref="V99:X99" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A99:D99)</f>
-        <v>0.99869411452215073</v>
+        <v>0.99871355571555176</v>
       </c>
       <c r="W99" s="2">
         <f ca="1"/>
-        <v>1.302745962353931E-3</v>
+        <v>1.2771320945317531E-3</v>
       </c>
       <c r="X99" s="2">
         <f ca="1"/>
-        <v>3.1395154952766191E-6</v>
+        <v>9.3121899165964584E-6</v>
       </c>
       <c r="Y99" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -8250,16 +8241,16 @@
         <v>0</v>
       </c>
       <c r="M100" s="2">
-        <f t="array" aca="1" ref="M100:O100" ca="1">_xll.nnFeedForward($K$20,A100:D100)</f>
-        <v>1.9080125791026525E-5</v>
+        <f t="array" aca="1" ref="M100:O100" ca="1">_xll.nnFeedForward($K$19,A100:D100)</f>
+        <v>4.9699798817279923E-4</v>
       </c>
       <c r="N100" s="2">
         <f ca="1"/>
-        <v>5.898194401614032E-2</v>
+        <v>0.99442364007084871</v>
       </c>
       <c r="O100" s="2">
         <f ca="1"/>
-        <v>0.94099897585806869</v>
+        <v>5.0793619409785556E-3</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -8267,27 +8258,27 @@
       </c>
       <c r="Q100" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S100" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F100:H100,M100:O100)</f>
-        <v>2.8305239155390041</v>
+        <v>5.5919658674407121E-3</v>
       </c>
       <c r="V100" s="2">
         <f t="array" aca="1" ref="V100:X100" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A100:D100)</f>
-        <v>1.9080125791026525E-5</v>
+        <v>4.9699798817279923E-4</v>
       </c>
       <c r="W100" s="2">
         <f ca="1"/>
-        <v>5.898194401614032E-2</v>
+        <v>0.99442364007084871</v>
       </c>
       <c r="X100" s="2">
         <f ca="1"/>
-        <v>0.94099897585806869</v>
+        <v>5.0793619409785556E-3</v>
       </c>
       <c r="Y100" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -8326,16 +8317,16 @@
         <v>0</v>
       </c>
       <c r="M101" s="2">
-        <f t="array" aca="1" ref="M101:O101" ca="1">_xll.nnFeedForward($K$20,A101:D101)</f>
-        <v>0.99862993729459726</v>
+        <f t="array" aca="1" ref="M101:O101" ca="1">_xll.nnFeedForward($K$19,A101:D101)</f>
+        <v>0.99868680086430106</v>
       </c>
       <c r="N101" s="2">
         <f ca="1"/>
-        <v>1.3667771926156032E-3</v>
+        <v>1.3037169097268742E-3</v>
       </c>
       <c r="O101" s="2">
         <f ca="1"/>
-        <v>3.2855127871346791E-6</v>
+        <v>9.4822259720547973E-6</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -8351,19 +8342,19 @@
       </c>
       <c r="S101" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F101:H101,M101:O101)</f>
-        <v>1.3710020994282892E-3</v>
+        <v>1.3140621372953109E-3</v>
       </c>
       <c r="V101" s="2">
         <f t="array" aca="1" ref="V101:X101" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A101:D101)</f>
-        <v>0.99862993729459726</v>
+        <v>0.99868680086430106</v>
       </c>
       <c r="W101" s="2">
         <f ca="1"/>
-        <v>1.3667771926156032E-3</v>
+        <v>1.3037169097268742E-3</v>
       </c>
       <c r="X101" s="2">
         <f ca="1"/>
-        <v>3.2855127871346791E-6</v>
+        <v>9.4822259720547973E-6</v>
       </c>
       <c r="Y101" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -8402,16 +8393,16 @@
         <v>1</v>
       </c>
       <c r="M102" s="2">
-        <f t="array" aca="1" ref="M102:O102" ca="1">_xll.nnFeedForward($K$20,A102:D102)</f>
-        <v>1.00206118309113E-6</v>
+        <f t="array" aca="1" ref="M102:O102" ca="1">_xll.nnFeedForward($K$19,A102:D102)</f>
+        <v>3.8929880386116686E-6</v>
       </c>
       <c r="N102" s="2">
         <f ca="1"/>
-        <v>2.7967981855096849E-3</v>
+        <v>5.5107273112934051E-3</v>
       </c>
       <c r="O102" s="2">
         <f ca="1"/>
-        <v>0.99720219975330715</v>
+        <v>0.99448537970066797</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -8427,19 +8418,19 @@
       </c>
       <c r="S102" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F102:H102,M102:O102)</f>
-        <v>2.8017214052563936E-3</v>
+        <v>5.5298819518615257E-3</v>
       </c>
       <c r="V102" s="2">
         <f t="array" aca="1" ref="V102:X102" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A102:D102)</f>
-        <v>1.00206118309113E-6</v>
+        <v>3.8929880386116686E-6</v>
       </c>
       <c r="W102" s="2">
         <f ca="1"/>
-        <v>2.7967981855096849E-3</v>
+        <v>5.5107273112934051E-3</v>
       </c>
       <c r="X102" s="2">
         <f ca="1"/>
-        <v>0.99720219975330715</v>
+        <v>0.99448537970066797</v>
       </c>
       <c r="Y102" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -8478,16 +8469,16 @@
         <v>0</v>
       </c>
       <c r="M103" s="2">
-        <f t="array" aca="1" ref="M103:O103" ca="1">_xll.nnFeedForward($K$20,A103:D103)</f>
-        <v>0.9985706390649518</v>
+        <f t="array" aca="1" ref="M103:O103" ca="1">_xll.nnFeedForward($K$19,A103:D103)</f>
+        <v>0.99867947076879571</v>
       </c>
       <c r="N103" s="2">
         <f ca="1"/>
-        <v>1.4259426236315185E-3</v>
+        <v>1.3110001543044716E-3</v>
       </c>
       <c r="O103" s="2">
         <f ca="1"/>
-        <v>3.4183114166762184E-6</v>
+        <v>9.5290768999255581E-6</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -8503,19 +8494,19 @@
       </c>
       <c r="S103" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F103:H103,M103:O103)</f>
-        <v>1.4303834458636749E-3</v>
+        <v>1.3214018982690388E-3</v>
       </c>
       <c r="V103" s="2">
         <f t="array" aca="1" ref="V103:X103" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A103:D103)</f>
-        <v>0.9985706390649518</v>
+        <v>0.99867947076879571</v>
       </c>
       <c r="W103" s="2">
         <f ca="1"/>
-        <v>1.4259426236315185E-3</v>
+        <v>1.3110001543044716E-3</v>
       </c>
       <c r="X103" s="2">
         <f ca="1"/>
-        <v>3.4183114166762184E-6</v>
+        <v>9.5290768999255581E-6</v>
       </c>
       <c r="Y103" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -8554,16 +8545,16 @@
         <v>0</v>
       </c>
       <c r="M104" s="2">
-        <f t="array" aca="1" ref="M104:O104" ca="1">_xll.nnFeedForward($K$20,A104:D104)</f>
-        <v>3.4805871921975325E-4</v>
+        <f t="array" aca="1" ref="M104:O104" ca="1">_xll.nnFeedForward($K$19,A104:D104)</f>
+        <v>5.2913094129724842E-4</v>
       </c>
       <c r="N104" s="2">
         <f ca="1"/>
-        <v>0.95836641348018303</v>
+        <v>0.99751005286485694</v>
       </c>
       <c r="O104" s="2">
         <f ca="1"/>
-        <v>4.1285527800597216E-2</v>
+        <v>1.9608161938457938E-3</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -8579,19 +8570,19 @@
       </c>
       <c r="S104" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F104:H104,M104:O104)</f>
-        <v>4.2525096600438642E-2</v>
+        <v>2.4930522088948744E-3</v>
       </c>
       <c r="V104" s="2">
         <f t="array" aca="1" ref="V104:X104" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A104:D104)</f>
-        <v>3.4805871921975325E-4</v>
+        <v>5.2913094129724842E-4</v>
       </c>
       <c r="W104" s="2">
         <f ca="1"/>
-        <v>0.95836641348018303</v>
+        <v>0.99751005286485694</v>
       </c>
       <c r="X104" s="2">
         <f ca="1"/>
-        <v>4.1285527800597216E-2</v>
+        <v>1.9608161938457938E-3</v>
       </c>
       <c r="Y104" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -8630,16 +8621,16 @@
         <v>0</v>
       </c>
       <c r="M105" s="2">
-        <f t="array" aca="1" ref="M105:O105" ca="1">_xll.nnFeedForward($K$20,A105:D105)</f>
-        <v>3.018194777158397E-4</v>
+        <f t="array" aca="1" ref="M105:O105" ca="1">_xll.nnFeedForward($K$19,A105:D105)</f>
+        <v>5.3493490456131901E-4</v>
       </c>
       <c r="N105" s="2">
         <f ca="1"/>
-        <v>0.92575302519964586</v>
+        <v>0.99757739661303346</v>
       </c>
       <c r="O105" s="2">
         <f ca="1"/>
-        <v>7.3945155322638387E-2</v>
+        <v>1.8876684824052827E-3</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -8655,19 +8646,19 @@
       </c>
       <c r="S105" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F105:H105,M105:O105)</f>
-        <v>7.7147791357247877E-2</v>
+        <v>2.4255426386053927E-3</v>
       </c>
       <c r="V105" s="2">
         <f t="array" aca="1" ref="V105:X105" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A105:D105)</f>
-        <v>3.018194777158397E-4</v>
+        <v>5.3493490456131901E-4</v>
       </c>
       <c r="W105" s="2">
         <f ca="1"/>
-        <v>0.92575302519964586</v>
+        <v>0.99757739661303346</v>
       </c>
       <c r="X105" s="2">
         <f ca="1"/>
-        <v>7.3945155322638387E-2</v>
+        <v>1.8876684824052827E-3</v>
       </c>
       <c r="Y105" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -8706,16 +8697,16 @@
         <v>0</v>
       </c>
       <c r="M106" s="2">
-        <f t="array" aca="1" ref="M106:O106" ca="1">_xll.nnFeedForward($K$20,A106:D106)</f>
-        <v>8.6299355421161795E-4</v>
+        <f t="array" aca="1" ref="M106:O106" ca="1">_xll.nnFeedForward($K$19,A106:D106)</f>
+        <v>6.7691781588748189E-4</v>
       </c>
       <c r="N106" s="2">
         <f ca="1"/>
-        <v>0.99550759290070057</v>
+        <v>0.99791271663590986</v>
       </c>
       <c r="O106" s="2">
         <f ca="1"/>
-        <v>3.6294135450878119E-3</v>
+        <v>1.4103655482025756E-3</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -8731,19 +8722,19 @@
       </c>
       <c r="S106" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F106:H106,M106:O106)</f>
-        <v>4.5025282837682003E-3</v>
+        <v>2.0894647760229526E-3</v>
       </c>
       <c r="V106" s="2">
         <f t="array" aca="1" ref="V106:X106" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A106:D106)</f>
-        <v>8.6299355421161795E-4</v>
+        <v>6.7691781588748189E-4</v>
       </c>
       <c r="W106" s="2">
         <f ca="1"/>
-        <v>0.99550759290070057</v>
+        <v>0.99791271663590986</v>
       </c>
       <c r="X106" s="2">
         <f ca="1"/>
-        <v>3.6294135450878119E-3</v>
+        <v>1.4103655482025756E-3</v>
       </c>
       <c r="Y106" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -8782,16 +8773,16 @@
         <v>1</v>
       </c>
       <c r="M107" s="2">
-        <f t="array" aca="1" ref="M107:O107" ca="1">_xll.nnFeedForward($K$20,A107:D107)</f>
-        <v>1.0170439410805867E-6</v>
+        <f t="array" aca="1" ref="M107:O107" ca="1">_xll.nnFeedForward($K$19,A107:D107)</f>
+        <v>4.1336433260224993E-6</v>
       </c>
       <c r="N107" s="2">
         <f ca="1"/>
-        <v>2.837760527623653E-3</v>
+        <v>5.8831664470195156E-3</v>
       </c>
       <c r="O107" s="2">
         <f ca="1"/>
-        <v>0.9971612224284353</v>
+        <v>0.99411269990965456</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -8807,19 +8798,19 @@
       </c>
       <c r="S107" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F107:H107,M107:O107)</f>
-        <v>2.8428145424668509E-3</v>
+        <v>5.9046985618116951E-3</v>
       </c>
       <c r="V107" s="2">
         <f t="array" aca="1" ref="V107:X107" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A107:D107)</f>
-        <v>1.0170439410805867E-6</v>
+        <v>4.1336433260224993E-6</v>
       </c>
       <c r="W107" s="2">
         <f ca="1"/>
-        <v>2.837760527623653E-3</v>
+        <v>5.8831664470195156E-3</v>
       </c>
       <c r="X107" s="2">
         <f ca="1"/>
-        <v>0.9971612224284353</v>
+        <v>0.99411269990965456</v>
       </c>
       <c r="Y107" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -8858,16 +8849,16 @@
         <v>0</v>
       </c>
       <c r="M108" s="2">
-        <f t="array" aca="1" ref="M108:O108" ca="1">_xll.nnFeedForward($K$20,A108:D108)</f>
-        <v>5.9741711330279048E-4</v>
+        <f t="array" aca="1" ref="M108:O108" ca="1">_xll.nnFeedForward($K$19,A108:D108)</f>
+        <v>5.9281157539412075E-4</v>
       </c>
       <c r="N108" s="2">
         <f ca="1"/>
-        <v>0.99199991823465472</v>
+        <v>0.99793217884015573</v>
       </c>
       <c r="O108" s="2">
         <f ca="1"/>
-        <v>7.402664652042615E-3</v>
+        <v>1.4750095844503711E-3</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -8883,19 +8874,19 @@
       </c>
       <c r="S108" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F108:H108,M108:O108)</f>
-        <v>8.0322541220108814E-3</v>
+        <v>2.0699620538519063E-3</v>
       </c>
       <c r="V108" s="2">
         <f t="array" aca="1" ref="V108:X108" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A108:D108)</f>
-        <v>5.9741711330279048E-4</v>
+        <v>5.9281157539412075E-4</v>
       </c>
       <c r="W108" s="2">
         <f ca="1"/>
-        <v>0.99199991823465472</v>
+        <v>0.99793217884015573</v>
       </c>
       <c r="X108" s="2">
         <f ca="1"/>
-        <v>7.402664652042615E-3</v>
+        <v>1.4750095844503711E-3</v>
       </c>
       <c r="Y108" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -8934,16 +8925,16 @@
         <v>0</v>
       </c>
       <c r="M109" s="2">
-        <f t="array" aca="1" ref="M109:O109" ca="1">_xll.nnFeedForward($K$20,A109:D109)</f>
-        <v>8.7386337872479708E-4</v>
+        <f t="array" aca="1" ref="M109:O109" ca="1">_xll.nnFeedForward($K$19,A109:D109)</f>
+        <v>6.8401714679448508E-4</v>
       </c>
       <c r="N109" s="2">
         <f ca="1"/>
-        <v>0.99562240718316886</v>
+        <v>0.9979108563402187</v>
       </c>
       <c r="O109" s="2">
         <f ca="1"/>
-        <v>3.5037294381062537E-3</v>
+        <v>1.4051265129868804E-3</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -8959,19 +8950,19 @@
       </c>
       <c r="S109" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F109:H109,M109:O109)</f>
-        <v>4.3872025314660341E-3</v>
+        <v>2.0913289645377569E-3</v>
       </c>
       <c r="V109" s="2">
         <f t="array" aca="1" ref="V109:X109" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A109:D109)</f>
-        <v>8.7386337872479708E-4</v>
+        <v>6.8401714679448508E-4</v>
       </c>
       <c r="W109" s="2">
         <f ca="1"/>
-        <v>0.99562240718316886</v>
+        <v>0.9979108563402187</v>
       </c>
       <c r="X109" s="2">
         <f ca="1"/>
-        <v>3.5037294381062537E-3</v>
+        <v>1.4051265129868804E-3</v>
       </c>
       <c r="Y109" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -9010,16 +9001,16 @@
         <v>0</v>
       </c>
       <c r="M110" s="2">
-        <f t="array" aca="1" ref="M110:O110" ca="1">_xll.nnFeedForward($K$20,A110:D110)</f>
-        <v>1.4514575995180604E-3</v>
+        <f t="array" aca="1" ref="M110:O110" ca="1">_xll.nnFeedForward($K$19,A110:D110)</f>
+        <v>2.4997400077286882E-3</v>
       </c>
       <c r="N110" s="2">
         <f ca="1"/>
-        <v>0.99639185347284975</v>
+        <v>0.99593425077804498</v>
       </c>
       <c r="O110" s="2">
         <f ca="1"/>
-        <v>2.1566889276322084E-3</v>
+        <v>1.566009214226325E-3</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -9035,19 +9026,19 @@
       </c>
       <c r="S110" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F110:H110,M110:O110)</f>
-        <v>3.6146715881434813E-3</v>
+        <v>4.0740368515661931E-3</v>
       </c>
       <c r="V110" s="2">
         <f t="array" aca="1" ref="V110:X110" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A110:D110)</f>
-        <v>1.4514575995180604E-3</v>
+        <v>2.4997400077286882E-3</v>
       </c>
       <c r="W110" s="2">
         <f ca="1"/>
-        <v>0.99639185347284975</v>
+        <v>0.99593425077804498</v>
       </c>
       <c r="X110" s="2">
         <f ca="1"/>
-        <v>2.1566889276322084E-3</v>
+        <v>1.566009214226325E-3</v>
       </c>
       <c r="Y110" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -9086,16 +9077,16 @@
         <v>0</v>
       </c>
       <c r="M111" s="2">
-        <f t="array" aca="1" ref="M111:O111" ca="1">_xll.nnFeedForward($K$20,A111:D111)</f>
-        <v>6.3542907953161219E-5</v>
+        <f t="array" aca="1" ref="M111:O111" ca="1">_xll.nnFeedForward($K$19,A111:D111)</f>
+        <v>5.094975063995302E-4</v>
       </c>
       <c r="N111" s="2">
         <f ca="1"/>
-        <v>0.20179873185996047</v>
+        <v>0.99621165274537593</v>
       </c>
       <c r="O111" s="2">
         <f ca="1"/>
-        <v>0.79813772523208626</v>
+        <v>3.278849748224471E-3</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -9103,27 +9094,27 @@
       </c>
       <c r="Q111" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S111" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F111:H111,M111:O111)</f>
-        <v>1.6004844552252853</v>
+        <v>3.7955412166498382E-3</v>
       </c>
       <c r="V111" s="2">
         <f t="array" aca="1" ref="V111:X111" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A111:D111)</f>
-        <v>6.3542907953161219E-5</v>
+        <v>5.094975063995302E-4</v>
       </c>
       <c r="W111" s="2">
         <f ca="1"/>
-        <v>0.20179873185996047</v>
+        <v>0.99621165274537593</v>
       </c>
       <c r="X111" s="2">
         <f ca="1"/>
-        <v>0.79813772523208626</v>
+        <v>3.278849748224471E-3</v>
       </c>
       <c r="Y111" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -9162,16 +9153,16 @@
         <v>1</v>
       </c>
       <c r="M112" s="2">
-        <f t="array" aca="1" ref="M112:O112" ca="1">_xll.nnFeedForward($K$20,A112:D112)</f>
-        <v>1.0543654229444654E-6</v>
+        <f t="array" aca="1" ref="M112:O112" ca="1">_xll.nnFeedForward($K$19,A112:D112)</f>
+        <v>5.5678781996414664E-6</v>
       </c>
       <c r="N112" s="2">
         <f ca="1"/>
-        <v>2.9421259285149636E-3</v>
+        <v>8.1343090691631623E-3</v>
       </c>
       <c r="O112" s="2">
         <f ca="1"/>
-        <v>0.99705681970606197</v>
+        <v>0.99186012305263715</v>
       </c>
       <c r="P112" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -9187,19 +9178,19 @@
       </c>
       <c r="S112" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F112:H112,M112:O112)</f>
-        <v>2.9475199661094602E-3</v>
+        <v>8.1731866266630121E-3</v>
       </c>
       <c r="V112" s="2">
         <f t="array" aca="1" ref="V112:X112" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A112:D112)</f>
-        <v>1.0543654229444654E-6</v>
+        <v>5.5678781996414664E-6</v>
       </c>
       <c r="W112" s="2">
         <f ca="1"/>
-        <v>2.9421259285149636E-3</v>
+        <v>8.1343090691631623E-3</v>
       </c>
       <c r="X112" s="2">
         <f ca="1"/>
-        <v>0.99705681970606197</v>
+        <v>0.99186012305263715</v>
       </c>
       <c r="Y112" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -9238,16 +9229,16 @@
         <v>1</v>
       </c>
       <c r="M113" s="2">
-        <f t="array" aca="1" ref="M113:O113" ca="1">_xll.nnFeedForward($K$20,A113:D113)</f>
-        <v>1.0065877667791908E-6</v>
+        <f t="array" aca="1" ref="M113:O113" ca="1">_xll.nnFeedForward($K$19,A113:D113)</f>
+        <v>3.8813870707474826E-6</v>
       </c>
       <c r="N113" s="2">
         <f ca="1"/>
-        <v>2.8089081916706617E-3</v>
+        <v>5.4934856482139064E-3</v>
       </c>
       <c r="O113" s="2">
         <f ca="1"/>
-        <v>0.99719008522056263</v>
+        <v>0.99450263296471542</v>
       </c>
       <c r="P113" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -9263,19 +9254,19 @@
       </c>
       <c r="S113" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F113:H113,M113:O113)</f>
-        <v>2.8138700009323245E-3</v>
+        <v>5.5125331655058374E-3</v>
       </c>
       <c r="V113" s="2">
         <f t="array" aca="1" ref="V113:X113" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A113:D113)</f>
-        <v>1.0065877667791908E-6</v>
+        <v>3.8813870707474826E-6</v>
       </c>
       <c r="W113" s="2">
         <f ca="1"/>
-        <v>2.8089081916706617E-3</v>
+        <v>5.4934856482139064E-3</v>
       </c>
       <c r="X113" s="2">
         <f ca="1"/>
-        <v>0.99719008522056263</v>
+        <v>0.99450263296471542</v>
       </c>
       <c r="Y113" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -9314,16 +9305,16 @@
         <v>1</v>
       </c>
       <c r="M114" s="2">
-        <f t="array" aca="1" ref="M114:O114" ca="1">_xll.nnFeedForward($K$20,A114:D114)</f>
-        <v>1.1360933903812114E-6</v>
+        <f t="array" aca="1" ref="M114:O114" ca="1">_xll.nnFeedForward($K$19,A114:D114)</f>
+        <v>9.4621980953862896E-6</v>
       </c>
       <c r="N114" s="2">
         <f ca="1"/>
-        <v>3.1713958843536836E-3</v>
+        <v>1.4489566536984291E-2</v>
       </c>
       <c r="O114" s="2">
         <f ca="1"/>
-        <v>0.99682746802225586</v>
+        <v>0.98550097126492031</v>
       </c>
       <c r="P114" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -9339,19 +9330,19 @@
       </c>
       <c r="S114" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F114:H114,M114:O114)</f>
-        <v>3.1775751265109308E-3</v>
+        <v>1.4605166834373124E-2</v>
       </c>
       <c r="V114" s="2">
         <f t="array" aca="1" ref="V114:X114" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A114:D114)</f>
-        <v>1.1360933903812114E-6</v>
+        <v>9.4621980953862896E-6</v>
       </c>
       <c r="W114" s="2">
         <f ca="1"/>
-        <v>3.1713958843536836E-3</v>
+        <v>1.4489566536984291E-2</v>
       </c>
       <c r="X114" s="2">
         <f ca="1"/>
-        <v>0.99682746802225586</v>
+        <v>0.98550097126492031</v>
       </c>
       <c r="Y114" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -9390,16 +9381,16 @@
         <v>0</v>
       </c>
       <c r="M115" s="2">
-        <f t="array" aca="1" ref="M115:O115" ca="1">_xll.nnFeedForward($K$20,A115:D115)</f>
-        <v>6.2255264996212163E-4</v>
+        <f t="array" aca="1" ref="M115:O115" ca="1">_xll.nnFeedForward($K$19,A115:D115)</f>
+        <v>5.8685439911078797E-4</v>
       </c>
       <c r="N115" s="2">
         <f ca="1"/>
-        <v>0.99264971858657869</v>
+        <v>0.99792950574428918</v>
       </c>
       <c r="O115" s="2">
         <f ca="1"/>
-        <v>6.7277287634591289E-3</v>
+        <v>1.4836398566000126E-3</v>
       </c>
       <c r="P115" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -9415,19 +9406,19 @@
       </c>
       <c r="S115" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F115:H115,M115:O115)</f>
-        <v>7.3774278362145297E-3</v>
+        <v>2.0726406922437282E-3</v>
       </c>
       <c r="V115" s="2">
         <f t="array" aca="1" ref="V115:X115" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A115:D115)</f>
-        <v>6.2255264996212163E-4</v>
+        <v>5.8685439911078797E-4</v>
       </c>
       <c r="W115" s="2">
         <f ca="1"/>
-        <v>0.99264971858657869</v>
+        <v>0.99792950574428918</v>
       </c>
       <c r="X115" s="2">
         <f ca="1"/>
-        <v>6.7277287634591289E-3</v>
+        <v>1.4836398566000126E-3</v>
       </c>
       <c r="Y115" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -9466,16 +9457,16 @@
         <v>0</v>
       </c>
       <c r="M116" s="2">
-        <f t="array" aca="1" ref="M116:O116" ca="1">_xll.nnFeedForward($K$20,A116:D116)</f>
-        <v>0.9986627653723662</v>
+        <f t="array" aca="1" ref="M116:O116" ca="1">_xll.nnFeedForward($K$19,A116:D116)</f>
+        <v>0.99871607004374174</v>
       </c>
       <c r="N116" s="2">
         <f ca="1"/>
-        <v>1.334025253690402E-3</v>
+        <v>1.2746334084844941E-3</v>
       </c>
       <c r="O116" s="2">
         <f ca="1"/>
-        <v>3.2093739433480845E-6</v>
+        <v>9.2965477738017567E-6</v>
       </c>
       <c r="P116" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -9491,19 +9482,19 @@
       </c>
       <c r="S116" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F116:H116,M116:O116)</f>
-        <v>1.3381295237381424E-3</v>
+        <v>1.2847549005139082E-3</v>
       </c>
       <c r="V116" s="2">
         <f t="array" aca="1" ref="V116:X116" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A116:D116)</f>
-        <v>0.9986627653723662</v>
+        <v>0.99871607004374174</v>
       </c>
       <c r="W116" s="2">
         <f ca="1"/>
-        <v>1.334025253690402E-3</v>
+        <v>1.2746334084844941E-3</v>
       </c>
       <c r="X116" s="2">
         <f ca="1"/>
-        <v>3.2093739433480845E-6</v>
+        <v>9.2965477738017567E-6</v>
       </c>
       <c r="Y116" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -9542,16 +9533,16 @@
         <v>1</v>
       </c>
       <c r="M117" s="2">
-        <f t="array" aca="1" ref="M117:O117" ca="1">_xll.nnFeedForward($K$20,A117:D117)</f>
-        <v>1.0031568846429205E-6</v>
+        <f t="array" aca="1" ref="M117:O117" ca="1">_xll.nnFeedForward($K$19,A117:D117)</f>
+        <v>3.8737716449270591E-6</v>
       </c>
       <c r="N117" s="2">
         <f ca="1"/>
-        <v>2.7997628757042039E-3</v>
+        <v>5.4822932535664049E-3</v>
       </c>
       <c r="O117" s="2">
         <f ca="1"/>
-        <v>0.99719923396741106</v>
+        <v>0.99451383297478857</v>
       </c>
       <c r="P117" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -9567,19 +9558,19 @@
       </c>
       <c r="S117" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F117:H117,M117:O117)</f>
-        <v>2.804695516532037E-3</v>
+        <v>5.501271307934456E-3</v>
       </c>
       <c r="V117" s="2">
         <f t="array" aca="1" ref="V117:X117" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A117:D117)</f>
-        <v>1.0031568846429205E-6</v>
+        <v>3.8737716449270591E-6</v>
       </c>
       <c r="W117" s="2">
         <f ca="1"/>
-        <v>2.7997628757042039E-3</v>
+        <v>5.4822932535664049E-3</v>
       </c>
       <c r="X117" s="2">
         <f ca="1"/>
-        <v>0.99719923396741106</v>
+        <v>0.99451383297478857</v>
       </c>
       <c r="Y117" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -9618,16 +9609,16 @@
         <v>0</v>
       </c>
       <c r="M118" s="2">
-        <f t="array" aca="1" ref="M118:O118" ca="1">_xll.nnFeedForward($K$20,A118:D118)</f>
-        <v>0.99867470581021189</v>
+        <f t="array" aca="1" ref="M118:O118" ca="1">_xll.nnFeedForward($K$19,A118:D118)</f>
+        <v>0.99871950554449429</v>
       </c>
       <c r="N118" s="2">
         <f ca="1"/>
-        <v>1.3221119924920499E-3</v>
+        <v>1.2712198914925099E-3</v>
       </c>
       <c r="O118" s="2">
         <f ca="1"/>
-        <v>3.1821972960726853E-6</v>
+        <v>9.2745640132847825E-6</v>
       </c>
       <c r="P118" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -9643,19 +9634,19 @@
       </c>
       <c r="S118" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F118:H118,M118:O118)</f>
-        <v>1.3261731688225509E-3</v>
+        <v>1.2813149890649111E-3</v>
       </c>
       <c r="V118" s="2">
         <f t="array" aca="1" ref="V118:X118" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A118:D118)</f>
-        <v>0.99867470581021189</v>
+        <v>0.99871950554449429</v>
       </c>
       <c r="W118" s="2">
         <f ca="1"/>
-        <v>1.3221119924920499E-3</v>
+        <v>1.2712198914925099E-3</v>
       </c>
       <c r="X118" s="2">
         <f ca="1"/>
-        <v>3.1821972960726853E-6</v>
+        <v>9.2745640132847825E-6</v>
       </c>
       <c r="Y118" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -9694,16 +9685,16 @@
         <v>0</v>
       </c>
       <c r="M119" s="2">
-        <f t="array" aca="1" ref="M119:O119" ca="1">_xll.nnFeedForward($K$20,A119:D119)</f>
-        <v>5.6137594521198694E-4</v>
+        <f t="array" aca="1" ref="M119:O119" ca="1">_xll.nnFeedForward($K$19,A119:D119)</f>
+        <v>5.6265505339492033E-4</v>
       </c>
       <c r="N119" s="2">
         <f ca="1"/>
-        <v>0.99068176752974968</v>
+        <v>0.99786257777849596</v>
       </c>
       <c r="O119" s="2">
         <f ca="1"/>
-        <v>8.7568565250384679E-3</v>
+        <v>1.5747671681090962E-3</v>
       </c>
       <c r="P119" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -9719,19 +9710,19 @@
       </c>
       <c r="S119" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F119:H119,M119:O119)</f>
-        <v>9.3619187964543403E-3</v>
+        <v>2.1397097685977853E-3</v>
       </c>
       <c r="V119" s="2">
         <f t="array" aca="1" ref="V119:X119" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A119:D119)</f>
-        <v>5.6137594521198694E-4</v>
+        <v>5.6265505339492033E-4</v>
       </c>
       <c r="W119" s="2">
         <f ca="1"/>
-        <v>0.99068176752974968</v>
+        <v>0.99786257777849596</v>
       </c>
       <c r="X119" s="2">
         <f ca="1"/>
-        <v>8.7568565250384679E-3</v>
+        <v>1.5747671681090962E-3</v>
       </c>
       <c r="Y119" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -9770,16 +9761,16 @@
         <v>1</v>
       </c>
       <c r="M120" s="2">
-        <f t="array" aca="1" ref="M120:O120" ca="1">_xll.nnFeedForward($K$20,A120:D120)</f>
-        <v>1.004955857311433E-6</v>
+        <f t="array" aca="1" ref="M120:O120" ca="1">_xll.nnFeedForward($K$19,A120:D120)</f>
+        <v>3.8749256856157115E-6</v>
       </c>
       <c r="N120" s="2">
         <f ca="1"/>
-        <v>2.8046993207083088E-3</v>
+        <v>5.483684064817829E-3</v>
       </c>
       <c r="O120" s="2">
         <f ca="1"/>
-        <v>0.99719429572343432</v>
+        <v>0.99451244100949654</v>
       </c>
       <c r="P120" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -9795,19 +9786,19 @@
       </c>
       <c r="S120" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F120:H120,M120:O120)</f>
-        <v>2.8096476424823384E-3</v>
+        <v>5.5026709528865981E-3</v>
       </c>
       <c r="V120" s="2">
         <f t="array" aca="1" ref="V120:X120" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A120:D120)</f>
-        <v>1.004955857311433E-6</v>
+        <v>3.8749256856157115E-6</v>
       </c>
       <c r="W120" s="2">
         <f ca="1"/>
-        <v>2.8046993207083088E-3</v>
+        <v>5.483684064817829E-3</v>
       </c>
       <c r="X120" s="2">
         <f ca="1"/>
-        <v>0.99719429572343432</v>
+        <v>0.99451244100949654</v>
       </c>
       <c r="Y120" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -9846,16 +9837,16 @@
         <v>0</v>
       </c>
       <c r="M121" s="2">
-        <f t="array" aca="1" ref="M121:O121" ca="1">_xll.nnFeedForward($K$20,A121:D121)</f>
-        <v>0.99866689771556438</v>
+        <f t="array" aca="1" ref="M121:O121" ca="1">_xll.nnFeedForward($K$19,A121:D121)</f>
+        <v>0.99872299403881959</v>
       </c>
       <c r="N121" s="2">
         <f ca="1"/>
-        <v>1.3299028849170255E-3</v>
+        <v>1.2677534617705963E-3</v>
       </c>
       <c r="O121" s="2">
         <f ca="1"/>
-        <v>3.1993995185826113E-6</v>
+        <v>9.2524994098012642E-6</v>
       </c>
       <c r="P121" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -9871,19 +9862,19 @@
       </c>
       <c r="S121" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F121:H121,M121:O121)</f>
-        <v>1.3339916557891936E-3</v>
+        <v>1.2778220281150663E-3</v>
       </c>
       <c r="V121" s="2">
         <f t="array" aca="1" ref="V121:X121" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A121:D121)</f>
-        <v>0.99866689771556438</v>
+        <v>0.99872299403881959</v>
       </c>
       <c r="W121" s="2">
         <f ca="1"/>
-        <v>1.3299028849170255E-3</v>
+        <v>1.2677534617705963E-3</v>
       </c>
       <c r="X121" s="2">
         <f ca="1"/>
-        <v>3.1993995185826113E-6</v>
+        <v>9.2524994098012642E-6</v>
       </c>
       <c r="Y121" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -9922,16 +9913,16 @@
         <v>0</v>
       </c>
       <c r="M122" s="2">
-        <f t="array" aca="1" ref="M122:O122" ca="1">_xll.nnFeedForward($K$20,A122:D122)</f>
-        <v>0.99861744398698282</v>
+        <f t="array" aca="1" ref="M122:O122" ca="1">_xll.nnFeedForward($K$19,A122:D122)</f>
+        <v>0.99871136836089558</v>
       </c>
       <c r="N122" s="2">
         <f ca="1"/>
-        <v>1.3792449225109276E-3</v>
+        <v>1.279305027482816E-3</v>
       </c>
       <c r="O122" s="2">
         <f ca="1"/>
-        <v>3.3110905063073447E-6</v>
+        <v>9.3266116215879623E-6</v>
       </c>
       <c r="P122" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -9947,19 +9938,19 @@
       </c>
       <c r="S122" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F122:H122,M122:O122)</f>
-        <v>1.3835126253968677E-3</v>
+        <v>1.2894626388334821E-3</v>
       </c>
       <c r="V122" s="2">
         <f t="array" aca="1" ref="V122:X122" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A122:D122)</f>
-        <v>0.99861744398698282</v>
+        <v>0.99871136836089558</v>
       </c>
       <c r="W122" s="2">
         <f ca="1"/>
-        <v>1.3792449225109276E-3</v>
+        <v>1.279305027482816E-3</v>
       </c>
       <c r="X122" s="2">
         <f ca="1"/>
-        <v>3.3110905063073447E-6</v>
+        <v>9.3266116215879623E-6</v>
       </c>
       <c r="Y122" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -9998,16 +9989,16 @@
         <v>0</v>
       </c>
       <c r="M123" s="2">
-        <f t="array" aca="1" ref="M123:O123" ca="1">_xll.nnFeedForward($K$20,A123:D123)</f>
-        <v>2.2561149818367508E-3</v>
+        <f t="array" aca="1" ref="M123:O123" ca="1">_xll.nnFeedForward($K$19,A123:D123)</f>
+        <v>8.3669011035516754E-3</v>
       </c>
       <c r="N123" s="2">
         <f ca="1"/>
-        <v>0.99590198911526273</v>
+        <v>0.98983390830428863</v>
       </c>
       <c r="O123" s="2">
         <f ca="1"/>
-        <v>1.8418959029006159E-3</v>
+        <v>1.7991905921596718E-3</v>
       </c>
       <c r="P123" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -10023,19 +10014,19 @@
       </c>
       <c r="S123" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F123:H123,M123:O123)</f>
-        <v>4.1064307423278159E-3</v>
+        <v>1.0218119317967168E-2</v>
       </c>
       <c r="V123" s="2">
         <f t="array" aca="1" ref="V123:X123" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A123:D123)</f>
-        <v>2.2561149818367508E-3</v>
+        <v>8.3669011035516754E-3</v>
       </c>
       <c r="W123" s="2">
         <f ca="1"/>
-        <v>0.99590198911526273</v>
+        <v>0.98983390830428863</v>
       </c>
       <c r="X123" s="2">
         <f ca="1"/>
-        <v>1.8418959029006159E-3</v>
+        <v>1.7991905921596718E-3</v>
       </c>
       <c r="Y123" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -10074,16 +10065,16 @@
         <v>0</v>
       </c>
       <c r="M124" s="2">
-        <f t="array" aca="1" ref="M124:O124" ca="1">_xll.nnFeedForward($K$20,A124:D124)</f>
-        <v>0.99871612665811782</v>
+        <f t="array" aca="1" ref="M124:O124" ca="1">_xll.nnFeedForward($K$19,A124:D124)</f>
+        <v>0.99871859691800968</v>
       </c>
       <c r="N124" s="2">
         <f ca="1"/>
-        <v>1.2807836938425001E-3</v>
+        <v>1.2721230539129698E-3</v>
       </c>
       <c r="O124" s="2">
         <f ca="1"/>
-        <v>3.0896480397222704E-6</v>
+        <v>9.280028077444972E-6</v>
       </c>
       <c r="P124" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -10099,19 +10090,19 @@
       </c>
       <c r="S124" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F124:H124,M124:O124)</f>
-        <v>1.284698213357098E-3</v>
+        <v>1.2822247809463096E-3</v>
       </c>
       <c r="V124" s="2">
         <f t="array" aca="1" ref="V124:X124" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A124:D124)</f>
-        <v>0.99871612665811782</v>
+        <v>0.99871859691800968</v>
       </c>
       <c r="W124" s="2">
         <f ca="1"/>
-        <v>1.2807836938425001E-3</v>
+        <v>1.2721230539129698E-3</v>
       </c>
       <c r="X124" s="2">
         <f ca="1"/>
-        <v>3.0896480397222704E-6</v>
+        <v>9.280028077444972E-6</v>
       </c>
       <c r="Y124" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -10150,16 +10141,16 @@
         <v>1</v>
       </c>
       <c r="M125" s="2">
-        <f t="array" aca="1" ref="M125:O125" ca="1">_xll.nnFeedForward($K$20,A125:D125)</f>
-        <v>9.999149946661458E-7</v>
+        <f t="array" aca="1" ref="M125:O125" ca="1">_xll.nnFeedForward($K$19,A125:D125)</f>
+        <v>3.8180108624342504E-6</v>
       </c>
       <c r="N125" s="2">
         <f ca="1"/>
-        <v>2.7913447277517532E-3</v>
+        <v>5.3991885492774422E-3</v>
       </c>
       <c r="O125" s="2">
         <f ca="1"/>
-        <v>0.99720765535725353</v>
+        <v>0.99459699343986008</v>
       </c>
       <c r="P125" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -10175,19 +10166,19 @@
       </c>
       <c r="S125" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F125:H125,M125:O125)</f>
-        <v>2.796250509760752E-3</v>
+        <v>5.4176555897797705E-3</v>
       </c>
       <c r="V125" s="2">
         <f t="array" aca="1" ref="V125:X125" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A125:D125)</f>
-        <v>9.999149946661458E-7</v>
+        <v>3.8180108624342504E-6</v>
       </c>
       <c r="W125" s="2">
         <f ca="1"/>
-        <v>2.7913447277517532E-3</v>
+        <v>5.3991885492774422E-3</v>
       </c>
       <c r="X125" s="2">
         <f ca="1"/>
-        <v>0.99720765535725353</v>
+        <v>0.99459699343986008</v>
       </c>
       <c r="Y125" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -10226,16 +10217,16 @@
         <v>1</v>
       </c>
       <c r="M126" s="2">
-        <f t="array" aca="1" ref="M126:O126" ca="1">_xll.nnFeedForward($K$20,A126:D126)</f>
-        <v>1.0116598387993033E-6</v>
+        <f t="array" aca="1" ref="M126:O126" ca="1">_xll.nnFeedForward($K$19,A126:D126)</f>
+        <v>3.912459513417922E-6</v>
       </c>
       <c r="N126" s="2">
         <f ca="1"/>
-        <v>2.8219541431961106E-3</v>
+        <v>5.536634558295438E-3</v>
       </c>
       <c r="O126" s="2">
         <f ca="1"/>
-        <v>0.99717703419696513</v>
+        <v>0.99445945298219118</v>
       </c>
       <c r="P126" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -10251,19 +10242,19 @@
       </c>
       <c r="S126" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F126:H126,M126:O126)</f>
-        <v>2.8269578857762112E-3</v>
+        <v>5.5559527790179373E-3</v>
       </c>
       <c r="V126" s="2">
         <f t="array" aca="1" ref="V126:X126" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A126:D126)</f>
-        <v>1.0116598387993033E-6</v>
+        <v>3.912459513417922E-6</v>
       </c>
       <c r="W126" s="2">
         <f ca="1"/>
-        <v>2.8219541431961106E-3</v>
+        <v>5.536634558295438E-3</v>
       </c>
       <c r="X126" s="2">
         <f ca="1"/>
-        <v>0.99717703419696513</v>
+        <v>0.99445945298219118</v>
       </c>
       <c r="Y126" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -10302,16 +10293,16 @@
         <v>1</v>
       </c>
       <c r="M127" s="2">
-        <f t="array" aca="1" ref="M127:O127" ca="1">_xll.nnFeedForward($K$20,A127:D127)</f>
-        <v>1.0017473225175797E-6</v>
+        <f t="array" aca="1" ref="M127:O127" ca="1">_xll.nnFeedForward($K$19,A127:D127)</f>
+        <v>3.8394910220252637E-6</v>
       </c>
       <c r="N127" s="2">
         <f ca="1"/>
-        <v>2.795629253001797E-3</v>
+        <v>5.4301194282737513E-3</v>
       </c>
       <c r="O127" s="2">
         <f ca="1"/>
-        <v>0.99720336899967577</v>
+        <v>0.99456604108070412</v>
       </c>
       <c r="P127" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -10327,19 +10318,19 @@
       </c>
       <c r="S127" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F127:H127,M127:O127)</f>
-        <v>2.8005488790792364E-3</v>
+        <v>5.4487765774728827E-3</v>
       </c>
       <c r="V127" s="2">
         <f t="array" aca="1" ref="V127:X127" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A127:D127)</f>
-        <v>1.0017473225175797E-6</v>
+        <v>3.8394910220252637E-6</v>
       </c>
       <c r="W127" s="2">
         <f ca="1"/>
-        <v>2.795629253001797E-3</v>
+        <v>5.4301194282737513E-3</v>
       </c>
       <c r="X127" s="2">
         <f ca="1"/>
-        <v>0.99720336899967577</v>
+        <v>0.99456604108070412</v>
       </c>
       <c r="Y127" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -10378,16 +10369,16 @@
         <v>0</v>
       </c>
       <c r="M128" s="2">
-        <f t="array" aca="1" ref="M128:O128" ca="1">_xll.nnFeedForward($K$20,A128:D128)</f>
-        <v>0.99867870146628324</v>
+        <f t="array" aca="1" ref="M128:O128" ca="1">_xll.nnFeedForward($K$19,A128:D128)</f>
+        <v>0.99871465735407561</v>
       </c>
       <c r="N128" s="2">
         <f ca="1"/>
-        <v>1.3181246951057589E-3</v>
+        <v>1.276037321331836E-3</v>
       </c>
       <c r="O128" s="2">
         <f ca="1"/>
-        <v>3.1738386110260446E-6</v>
+        <v>9.3053245923865129E-6</v>
       </c>
       <c r="P128" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -10403,19 +10394,19 @@
       </c>
       <c r="S128" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F128:H128,M128:O128)</f>
-        <v>1.3221722183079433E-3</v>
+        <v>1.2861694073068187E-3</v>
       </c>
       <c r="V128" s="2">
         <f t="array" aca="1" ref="V128:X128" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A128:D128)</f>
-        <v>0.99867870146628324</v>
+        <v>0.99871465735407561</v>
       </c>
       <c r="W128" s="2">
         <f ca="1"/>
-        <v>1.3181246951057589E-3</v>
+        <v>1.276037321331836E-3</v>
       </c>
       <c r="X128" s="2">
         <f ca="1"/>
-        <v>3.1738386110260446E-6</v>
+        <v>9.3053245923865129E-6</v>
       </c>
       <c r="Y128" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -10454,16 +10445,16 @@
         <v>0</v>
       </c>
       <c r="M129" s="2">
-        <f t="array" aca="1" ref="M129:O129" ca="1">_xll.nnFeedForward($K$20,A129:D129)</f>
-        <v>3.9586236763322771E-6</v>
+        <f t="array" aca="1" ref="M129:O129" ca="1">_xll.nnFeedForward($K$19,A129:D129)</f>
+        <v>4.768972066229046E-4</v>
       </c>
       <c r="N129" s="2">
         <f ca="1"/>
-        <v>1.1565579534605864E-2</v>
+        <v>0.9822775932682275</v>
       </c>
       <c r="O129" s="2">
         <f ca="1"/>
-        <v>0.9884304618417179</v>
+        <v>1.7245509525149604E-2</v>
       </c>
       <c r="P129" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -10471,27 +10462,27 @@
       </c>
       <c r="Q129" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R129" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S129" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F129:H129,M129:O129)</f>
-        <v>4.4597218734772213</v>
+        <v>1.7881329038695319E-2</v>
       </c>
       <c r="V129" s="2">
         <f t="array" aca="1" ref="V129:X129" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A129:D129)</f>
-        <v>3.9586236763322771E-6</v>
+        <v>4.768972066229046E-4</v>
       </c>
       <c r="W129" s="2">
         <f ca="1"/>
-        <v>1.1565579534605864E-2</v>
+        <v>0.9822775932682275</v>
       </c>
       <c r="X129" s="2">
         <f ca="1"/>
-        <v>0.9884304618417179</v>
+        <v>1.7245509525149604E-2</v>
       </c>
       <c r="Y129" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -10530,16 +10521,16 @@
         <v>1</v>
       </c>
       <c r="M130" s="2">
-        <f t="array" aca="1" ref="M130:O130" ca="1">_xll.nnFeedForward($K$20,A130:D130)</f>
-        <v>1.0012471281317053E-6</v>
+        <f t="array" aca="1" ref="M130:O130" ca="1">_xll.nnFeedForward($K$19,A130:D130)</f>
+        <v>3.8316541073897891E-6</v>
       </c>
       <c r="N130" s="2">
         <f ca="1"/>
-        <v>2.79484751995607E-3</v>
+        <v>5.4184263951366522E-3</v>
       </c>
       <c r="O130" s="2">
         <f ca="1"/>
-        <v>0.99720415123291573</v>
+        <v>0.99457774195075599</v>
       </c>
       <c r="P130" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -10555,19 +10546,19 @@
       </c>
       <c r="S130" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F130:H130,M130:O130)</f>
-        <v>2.7997644523940937E-3</v>
+        <v>5.4370118471886095E-3</v>
       </c>
       <c r="V130" s="2">
         <f t="array" aca="1" ref="V130:X130" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A130:D130)</f>
-        <v>1.0012471281317053E-6</v>
+        <v>3.8316541073897891E-6</v>
       </c>
       <c r="W130" s="2">
         <f ca="1"/>
-        <v>2.79484751995607E-3</v>
+        <v>5.4184263951366522E-3</v>
       </c>
       <c r="X130" s="2">
         <f ca="1"/>
-        <v>0.99720415123291573</v>
+        <v>0.99457774195075599</v>
       </c>
       <c r="Y130" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -10606,16 +10597,16 @@
         <v>0</v>
       </c>
       <c r="M131" s="2">
-        <f t="array" aca="1" ref="M131:O131" ca="1">_xll.nnFeedForward($K$20,A131:D131)</f>
-        <v>0.99869518606953489</v>
+        <f t="array" aca="1" ref="M131:O131" ca="1">_xll.nnFeedForward($K$19,A131:D131)</f>
+        <v>0.99871459426645115</v>
       </c>
       <c r="N131" s="2">
         <f ca="1"/>
-        <v>1.3016769126527094E-3</v>
+        <v>1.2761001453169786E-3</v>
       </c>
       <c r="O131" s="2">
         <f ca="1"/>
-        <v>3.137017812449215E-6</v>
+        <v>9.305588231863465E-6</v>
       </c>
       <c r="P131" s="2">
         <f t="shared" ref="P131:P151" ca="1" si="14">IF(M131=MAX($M131:$O131),1,0)</f>
@@ -10631,19 +10622,19 @@
       </c>
       <c r="S131" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F131:H131,M131:O131)</f>
-        <v>1.3056659413861341E-3</v>
+        <v>1.2862325761268474E-3</v>
       </c>
       <c r="V131" s="2">
         <f t="array" aca="1" ref="V131:X131" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A131:D131)</f>
-        <v>0.99869518606953489</v>
+        <v>0.99871459426645115</v>
       </c>
       <c r="W131" s="2">
         <f ca="1"/>
-        <v>1.3016769126527094E-3</v>
+        <v>1.2761001453169786E-3</v>
       </c>
       <c r="X131" s="2">
         <f ca="1"/>
-        <v>3.137017812449215E-6</v>
+        <v>9.305588231863465E-6</v>
       </c>
       <c r="Y131" s="2">
         <f t="shared" ref="Y131:Y151" ca="1" si="17">M131-V131</f>
@@ -10682,16 +10673,16 @@
         <v>1</v>
       </c>
       <c r="M132" s="2">
-        <f t="array" aca="1" ref="M132:O132" ca="1">_xll.nnFeedForward($K$20,A132:D132)</f>
-        <v>1.0035889651167746E-6</v>
+        <f t="array" aca="1" ref="M132:O132" ca="1">_xll.nnFeedForward($K$19,A132:D132)</f>
+        <v>3.8671933443972445E-6</v>
       </c>
       <c r="N132" s="2">
         <f ca="1"/>
-        <v>2.8009541928833946E-3</v>
+        <v>5.4718616835232742E-3</v>
       </c>
       <c r="O132" s="2">
         <f ca="1"/>
-        <v>0.99719804221815156</v>
+        <v>0.99452427112313235</v>
       </c>
       <c r="P132" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -10707,19 +10698,19 @@
       </c>
       <c r="S132" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F132:H132,M132:O132)</f>
-        <v>2.8058906136911935E-3</v>
+        <v>5.4907756333444383E-3</v>
       </c>
       <c r="V132" s="2">
         <f t="array" aca="1" ref="V132:X132" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A132:D132)</f>
-        <v>1.0035889651167746E-6</v>
+        <v>3.8671933443972445E-6</v>
       </c>
       <c r="W132" s="2">
         <f ca="1"/>
-        <v>2.8009541928833946E-3</v>
+        <v>5.4718616835232742E-3</v>
       </c>
       <c r="X132" s="2">
         <f ca="1"/>
-        <v>0.99719804221815156</v>
+        <v>0.99452427112313235</v>
       </c>
       <c r="Y132" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -10758,16 +10749,16 @@
         <v>0</v>
       </c>
       <c r="M133" s="2">
-        <f t="array" aca="1" ref="M133:O133" ca="1">_xll.nnFeedForward($K$20,A133:D133)</f>
-        <v>0.99863224075260182</v>
+        <f t="array" aca="1" ref="M133:O133" ca="1">_xll.nnFeedForward($K$19,A133:D133)</f>
+        <v>0.99869115532860109</v>
       </c>
       <c r="N133" s="2">
         <f ca="1"/>
-        <v>1.3644796767921131E-3</v>
+        <v>1.2993899595458412E-3</v>
       </c>
       <c r="O133" s="2">
         <f ca="1"/>
-        <v>3.2795706061049324E-6</v>
+        <v>9.4547118530896406E-6</v>
       </c>
       <c r="P133" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -10783,19 +10774,19 @@
       </c>
       <c r="S133" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F133:H133,M133:O133)</f>
-        <v>1.3686954838723754E-3</v>
+        <v>1.3097019567030171E-3</v>
       </c>
       <c r="V133" s="2">
         <f t="array" aca="1" ref="V133:X133" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A133:D133)</f>
-        <v>0.99863224075260182</v>
+        <v>0.99869115532860109</v>
       </c>
       <c r="W133" s="2">
         <f ca="1"/>
-        <v>1.3644796767921131E-3</v>
+        <v>1.2993899595458412E-3</v>
       </c>
       <c r="X133" s="2">
         <f ca="1"/>
-        <v>3.2795706061049324E-6</v>
+        <v>9.4547118530896406E-6</v>
       </c>
       <c r="Y133" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -10834,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="M134" s="2">
-        <f t="array" aca="1" ref="M134:O134" ca="1">_xll.nnFeedForward($K$20,A134:D134)</f>
-        <v>0.99865811491959311</v>
+        <f t="array" aca="1" ref="M134:O134" ca="1">_xll.nnFeedForward($K$19,A134:D134)</f>
+        <v>0.99870763102537574</v>
       </c>
       <c r="N134" s="2">
         <f ca="1"/>
-        <v>1.3386642009368863E-3</v>
+        <v>1.2830190008963074E-3</v>
       </c>
       <c r="O134" s="2">
         <f ca="1"/>
-        <v>3.2208794700140876E-6</v>
+        <v>9.3499737279615801E-6</v>
       </c>
       <c r="P134" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -10859,19 +10850,19 @@
       </c>
       <c r="S134" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F134:H134,M134:O134)</f>
-        <v>1.342786214427142E-3</v>
+        <v>1.2932048036181272E-3</v>
       </c>
       <c r="V134" s="2">
         <f t="array" aca="1" ref="V134:X134" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A134:D134)</f>
-        <v>0.99865811491959311</v>
+        <v>0.99870763102537574</v>
       </c>
       <c r="W134" s="2">
         <f ca="1"/>
-        <v>1.3386642009368863E-3</v>
+        <v>1.2830190008963074E-3</v>
       </c>
       <c r="X134" s="2">
         <f ca="1"/>
-        <v>3.2208794700140876E-6</v>
+        <v>9.3499737279615801E-6</v>
       </c>
       <c r="Y134" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -10910,16 +10901,16 @@
         <v>0</v>
       </c>
       <c r="M135" s="2">
-        <f t="array" aca="1" ref="M135:O135" ca="1">_xll.nnFeedForward($K$20,A135:D135)</f>
-        <v>0.99867607512239476</v>
+        <f t="array" aca="1" ref="M135:O135" ca="1">_xll.nnFeedForward($K$19,A135:D135)</f>
+        <v>0.99870981790137503</v>
       </c>
       <c r="N135" s="2">
         <f ca="1"/>
-        <v>1.3207445940712204E-3</v>
+        <v>1.2808460624869323E-3</v>
       </c>
       <c r="O135" s="2">
         <f ca="1"/>
-        <v>3.1802835340715057E-6</v>
+        <v>9.3360361378824831E-6</v>
       </c>
       <c r="P135" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -10935,19 +10926,19 @@
       </c>
       <c r="S135" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F135:H135,M135:O135)</f>
-        <v>1.324802040429946E-3</v>
+        <v>1.2910151001082634E-3</v>
       </c>
       <c r="V135" s="2">
         <f t="array" aca="1" ref="V135:X135" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A135:D135)</f>
-        <v>0.99867607512239476</v>
+        <v>0.99870981790137503</v>
       </c>
       <c r="W135" s="2">
         <f ca="1"/>
-        <v>1.3207445940712204E-3</v>
+        <v>1.2808460624869323E-3</v>
       </c>
       <c r="X135" s="2">
         <f ca="1"/>
-        <v>3.1802835340715057E-6</v>
+        <v>9.3360361378824831E-6</v>
       </c>
       <c r="Y135" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -10986,16 +10977,16 @@
         <v>0</v>
       </c>
       <c r="M136" s="2">
-        <f t="array" aca="1" ref="M136:O136" ca="1">_xll.nnFeedForward($K$20,A136:D136)</f>
-        <v>0.99870045147175934</v>
+        <f t="array" aca="1" ref="M136:O136" ca="1">_xll.nnFeedForward($K$19,A136:D136)</f>
+        <v>0.99871764808470076</v>
       </c>
       <c r="N136" s="2">
         <f ca="1"/>
-        <v>1.2964237161497767E-3</v>
+        <v>1.2730657513523875E-3</v>
       </c>
       <c r="O136" s="2">
         <f ca="1"/>
-        <v>3.1248120908769626E-6</v>
+        <v>9.286163946877862E-6</v>
       </c>
       <c r="P136" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -11011,19 +11002,19 @@
       </c>
       <c r="S136" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F136:H136,M136:O136)</f>
-        <v>1.3003936737136701E-3</v>
+        <v>1.2831748321044342E-3</v>
       </c>
       <c r="V136" s="2">
         <f t="array" aca="1" ref="V136:X136" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A136:D136)</f>
-        <v>0.99870045147175934</v>
+        <v>0.99871764808470076</v>
       </c>
       <c r="W136" s="2">
         <f ca="1"/>
-        <v>1.2964237161497767E-3</v>
+        <v>1.2730657513523875E-3</v>
       </c>
       <c r="X136" s="2">
         <f ca="1"/>
-        <v>3.1248120908769626E-6</v>
+        <v>9.286163946877862E-6</v>
       </c>
       <c r="Y136" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -11062,16 +11053,16 @@
         <v>0</v>
       </c>
       <c r="M137" s="2">
-        <f t="array" aca="1" ref="M137:O137" ca="1">_xll.nnFeedForward($K$20,A137:D137)</f>
-        <v>8.4384212169902437E-4</v>
+        <f t="array" aca="1" ref="M137:O137" ca="1">_xll.nnFeedForward($K$19,A137:D137)</f>
+        <v>7.1517790584451138E-4</v>
       </c>
       <c r="N137" s="2">
         <f ca="1"/>
-        <v>0.99507995051602804</v>
+        <v>0.99786126418281573</v>
       </c>
       <c r="O137" s="2">
         <f ca="1"/>
-        <v>4.0762073622728776E-3</v>
+        <v>1.4235579113395735E-3</v>
       </c>
       <c r="P137" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -11087,19 +11078,19 @@
       </c>
       <c r="S137" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F137:H137,M137:O137)</f>
-        <v>4.9321927742004843E-3</v>
+        <v>2.1410261788671935E-3</v>
       </c>
       <c r="V137" s="2">
         <f t="array" aca="1" ref="V137:X137" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A137:D137)</f>
-        <v>8.4384212169902437E-4</v>
+        <v>7.1517790584451138E-4</v>
       </c>
       <c r="W137" s="2">
         <f ca="1"/>
-        <v>0.99507995051602804</v>
+        <v>0.99786126418281573</v>
       </c>
       <c r="X137" s="2">
         <f ca="1"/>
-        <v>4.0762073622728776E-3</v>
+        <v>1.4235579113395735E-3</v>
       </c>
       <c r="Y137" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -11138,16 +11129,16 @@
         <v>0</v>
       </c>
       <c r="M138" s="2">
-        <f t="array" aca="1" ref="M138:O138" ca="1">_xll.nnFeedForward($K$20,A138:D138)</f>
-        <v>0.9986836036597978</v>
+        <f t="array" aca="1" ref="M138:O138" ca="1">_xll.nnFeedForward($K$19,A138:D138)</f>
+        <v>0.99870509479025438</v>
       </c>
       <c r="N138" s="2">
         <f ca="1"/>
-        <v>1.3132326086935263E-3</v>
+        <v>1.2855392809444028E-3</v>
       </c>
       <c r="O138" s="2">
         <f ca="1"/>
-        <v>3.1637315087741214E-6</v>
+        <v>9.3659288012219694E-6</v>
       </c>
       <c r="P138" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -11163,19 +11154,19 @@
       </c>
       <c r="S138" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F138:H138,M138:O138)</f>
-        <v>1.3172635510100821E-3</v>
+        <v>1.2957443239571998E-3</v>
       </c>
       <c r="V138" s="2">
         <f t="array" aca="1" ref="V138:X138" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A138:D138)</f>
-        <v>0.9986836036597978</v>
+        <v>0.99870509479025438</v>
       </c>
       <c r="W138" s="2">
         <f ca="1"/>
-        <v>1.3132326086935263E-3</v>
+        <v>1.2855392809444028E-3</v>
       </c>
       <c r="X138" s="2">
         <f ca="1"/>
-        <v>3.1637315087741214E-6</v>
+        <v>9.3659288012219694E-6</v>
       </c>
       <c r="Y138" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -11214,16 +11205,16 @@
         <v>0</v>
       </c>
       <c r="M139" s="2">
-        <f t="array" aca="1" ref="M139:O139" ca="1">_xll.nnFeedForward($K$20,A139:D139)</f>
-        <v>0.99868789996418939</v>
+        <f t="array" aca="1" ref="M139:O139" ca="1">_xll.nnFeedForward($K$19,A139:D139)</f>
+        <v>0.99871550640315954</v>
       </c>
       <c r="N139" s="2">
         <f ca="1"/>
-        <v>1.3089469527961641E-3</v>
+        <v>1.275193753383538E-3</v>
       </c>
       <c r="O139" s="2">
         <f ca="1"/>
-        <v>3.1530830144823068E-6</v>
+        <v>9.2998434569687706E-6</v>
       </c>
       <c r="P139" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -11239,19 +11230,19 @@
       </c>
       <c r="S139" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F139:H139,M139:O139)</f>
-        <v>1.3129615927776814E-3</v>
+        <v>1.2853192658607402E-3</v>
       </c>
       <c r="V139" s="2">
         <f t="array" aca="1" ref="V139:X139" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A139:D139)</f>
-        <v>0.99868789996418939</v>
+        <v>0.99871550640315954</v>
       </c>
       <c r="W139" s="2">
         <f ca="1"/>
-        <v>1.3089469527961641E-3</v>
+        <v>1.275193753383538E-3</v>
       </c>
       <c r="X139" s="2">
         <f ca="1"/>
-        <v>3.1530830144823068E-6</v>
+        <v>9.2998434569687706E-6</v>
       </c>
       <c r="Y139" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -11290,16 +11281,16 @@
         <v>1</v>
       </c>
       <c r="M140" s="2">
-        <f t="array" aca="1" ref="M140:O140" ca="1">_xll.nnFeedForward($K$20,A140:D140)</f>
-        <v>1.0223276812868133E-6</v>
+        <f t="array" aca="1" ref="M140:O140" ca="1">_xll.nnFeedForward($K$19,A140:D140)</f>
+        <v>4.3508590491137626E-6</v>
       </c>
       <c r="N140" s="2">
         <f ca="1"/>
-        <v>2.8524475600544864E-3</v>
+        <v>6.2143447613714981E-3</v>
       </c>
       <c r="O140" s="2">
         <f ca="1"/>
-        <v>0.99714653011226428</v>
+        <v>0.99378130437957934</v>
       </c>
       <c r="P140" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -11315,19 +11306,19 @@
       </c>
       <c r="S140" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F140:H140,M140:O140)</f>
-        <v>2.8575487941414628E-3</v>
+        <v>6.2381122472799644E-3</v>
       </c>
       <c r="V140" s="2">
         <f t="array" aca="1" ref="V140:X140" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A140:D140)</f>
-        <v>1.0223276812868133E-6</v>
+        <v>4.3508590491137626E-6</v>
       </c>
       <c r="W140" s="2">
         <f ca="1"/>
-        <v>2.8524475600544864E-3</v>
+        <v>6.2143447613714981E-3</v>
       </c>
       <c r="X140" s="2">
         <f ca="1"/>
-        <v>0.99714653011226428</v>
+        <v>0.99378130437957934</v>
       </c>
       <c r="Y140" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -11366,16 +11357,16 @@
         <v>1</v>
       </c>
       <c r="M141" s="2">
-        <f t="array" aca="1" ref="M141:O141" ca="1">_xll.nnFeedForward($K$20,A141:D141)</f>
-        <v>1.003801400671925E-6</v>
+        <f t="array" aca="1" ref="M141:O141" ca="1">_xll.nnFeedForward($K$19,A141:D141)</f>
+        <v>3.8463591555565916E-6</v>
       </c>
       <c r="N141" s="2">
         <f ca="1"/>
-        <v>2.8015887411726422E-3</v>
+        <v>5.4406346685243233E-3</v>
       </c>
       <c r="O141" s="2">
         <f ca="1"/>
-        <v>0.99719740745742669</v>
+        <v>0.99455551897232009</v>
       </c>
       <c r="P141" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -11391,19 +11382,19 @@
       </c>
       <c r="S141" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F141:H141,M141:O141)</f>
-        <v>2.8065271581889004E-3</v>
+        <v>5.4593562309193568E-3</v>
       </c>
       <c r="V141" s="2">
         <f t="array" aca="1" ref="V141:X141" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A141:D141)</f>
-        <v>1.003801400671925E-6</v>
+        <v>3.8463591555565916E-6</v>
       </c>
       <c r="W141" s="2">
         <f ca="1"/>
-        <v>2.8015887411726422E-3</v>
+        <v>5.4406346685243233E-3</v>
       </c>
       <c r="X141" s="2">
         <f ca="1"/>
-        <v>0.99719740745742669</v>
+        <v>0.99455551897232009</v>
       </c>
       <c r="Y141" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -11442,16 +11433,16 @@
         <v>0</v>
       </c>
       <c r="M142" s="2">
-        <f t="array" aca="1" ref="M142:O142" ca="1">_xll.nnFeedForward($K$20,A142:D142)</f>
-        <v>0.99859820335570504</v>
+        <f t="array" aca="1" ref="M142:O142" ca="1">_xll.nnFeedForward($K$19,A142:D142)</f>
+        <v>0.99869145471486942</v>
       </c>
       <c r="N142" s="2">
         <f ca="1"/>
-        <v>1.3984404889347192E-3</v>
+        <v>1.299092291486363E-3</v>
       </c>
       <c r="O142" s="2">
         <f ca="1"/>
-        <v>3.3561553603025987E-6</v>
+        <v>9.452993644202707E-6</v>
       </c>
       <c r="P142" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -11467,19 +11458,19 @@
       </c>
       <c r="S142" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F142:H142,M142:O142)</f>
-        <v>1.4027800803699737E-3</v>
+        <v>1.3094021781159535E-3</v>
       </c>
       <c r="V142" s="2">
         <f t="array" aca="1" ref="V142:X142" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A142:D142)</f>
-        <v>0.99859820335570504</v>
+        <v>0.99869145471486942</v>
       </c>
       <c r="W142" s="2">
         <f ca="1"/>
-        <v>1.3984404889347192E-3</v>
+        <v>1.299092291486363E-3</v>
       </c>
       <c r="X142" s="2">
         <f ca="1"/>
-        <v>3.3561553603025987E-6</v>
+        <v>9.452993644202707E-6</v>
       </c>
       <c r="Y142" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -11518,16 +11509,16 @@
         <v>0</v>
       </c>
       <c r="M143" s="2">
-        <f t="array" aca="1" ref="M143:O143" ca="1">_xll.nnFeedForward($K$20,A143:D143)</f>
-        <v>2.0884043136798082E-4</v>
+        <f t="array" aca="1" ref="M143:O143" ca="1">_xll.nnFeedForward($K$19,A143:D143)</f>
+        <v>5.1471351753161932E-4</v>
       </c>
       <c r="N143" s="2">
         <f ca="1"/>
-        <v>0.66073253537013732</v>
+        <v>0.99674417346252064</v>
       </c>
       <c r="O143" s="2">
         <f ca="1"/>
-        <v>0.3390586241984947</v>
+        <v>2.7411130199477122E-3</v>
       </c>
       <c r="P143" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -11543,19 +11534,19 @@
       </c>
       <c r="S143" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F143:H143,M143:O143)</f>
-        <v>0.414406157371632</v>
+        <v>3.2611382732274912E-3</v>
       </c>
       <c r="V143" s="2">
         <f t="array" aca="1" ref="V143:X143" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A143:D143)</f>
-        <v>2.0884043136798082E-4</v>
+        <v>5.1471351753161932E-4</v>
       </c>
       <c r="W143" s="2">
         <f ca="1"/>
-        <v>0.66073253537013732</v>
+        <v>0.99674417346252064</v>
       </c>
       <c r="X143" s="2">
         <f ca="1"/>
-        <v>0.3390586241984947</v>
+        <v>2.7411130199477122E-3</v>
       </c>
       <c r="Y143" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -11594,16 +11585,16 @@
         <v>0</v>
       </c>
       <c r="M144" s="2">
-        <f t="array" aca="1" ref="M144:O144" ca="1">_xll.nnFeedForward($K$20,A144:D144)</f>
-        <v>2.3670105085922834E-4</v>
+        <f t="array" aca="1" ref="M144:O144" ca="1">_xll.nnFeedForward($K$19,A144:D144)</f>
+        <v>5.1649076431737587E-4</v>
       </c>
       <c r="N144" s="2">
         <f ca="1"/>
-        <v>0.76060397260719814</v>
+        <v>0.99698767325830884</v>
       </c>
       <c r="O144" s="2">
         <f ca="1"/>
-        <v>0.23915932634194254</v>
+        <v>2.4958359773738018E-3</v>
       </c>
       <c r="P144" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -11619,19 +11610,19 @@
       </c>
       <c r="S144" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F144:H144,M144:O144)</f>
-        <v>0.27364246051029734</v>
+        <v>3.0168729299222723E-3</v>
       </c>
       <c r="V144" s="2">
         <f t="array" aca="1" ref="V144:X144" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A144:D144)</f>
-        <v>2.3670105085922834E-4</v>
+        <v>5.1649076431737587E-4</v>
       </c>
       <c r="W144" s="2">
         <f ca="1"/>
-        <v>0.76060397260719814</v>
+        <v>0.99698767325830884</v>
       </c>
       <c r="X144" s="2">
         <f ca="1"/>
-        <v>0.23915932634194254</v>
+        <v>2.4958359773738018E-3</v>
       </c>
       <c r="Y144" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -11670,16 +11661,16 @@
         <v>0</v>
       </c>
       <c r="M145" s="2">
-        <f t="array" aca="1" ref="M145:O145" ca="1">_xll.nnFeedForward($K$20,A145:D145)</f>
-        <v>0.99869599981711643</v>
+        <f t="array" aca="1" ref="M145:O145" ca="1">_xll.nnFeedForward($K$19,A145:D145)</f>
+        <v>0.99871921641188721</v>
       </c>
       <c r="N145" s="2">
         <f ca="1"/>
-        <v>1.3008654430459298E-3</v>
+        <v>1.271507330800941E-3</v>
       </c>
       <c r="O145" s="2">
         <f ca="1"/>
-        <v>3.1347398375884086E-6</v>
+        <v>9.2762573118405043E-6</v>
       </c>
       <c r="P145" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -11695,19 +11686,19 @@
       </c>
       <c r="S145" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F145:H145,M145:O145)</f>
-        <v>1.3048511309601237E-3</v>
+        <v>1.2816044924212847E-3</v>
       </c>
       <c r="V145" s="2">
         <f t="array" aca="1" ref="V145:X145" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A145:D145)</f>
-        <v>0.99869599981711643</v>
+        <v>0.99871921641188721</v>
       </c>
       <c r="W145" s="2">
         <f ca="1"/>
-        <v>1.3008654430459298E-3</v>
+        <v>1.271507330800941E-3</v>
       </c>
       <c r="X145" s="2">
         <f ca="1"/>
-        <v>3.1347398375884086E-6</v>
+        <v>9.2762573118405043E-6</v>
       </c>
       <c r="Y145" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -11746,16 +11737,16 @@
         <v>0</v>
       </c>
       <c r="M146" s="2">
-        <f t="array" aca="1" ref="M146:O146" ca="1">_xll.nnFeedForward($K$20,A146:D146)</f>
-        <v>0.99869110856193011</v>
+        <f t="array" aca="1" ref="M146:O146" ca="1">_xll.nnFeedForward($K$19,A146:D146)</f>
+        <v>0.99871054239896384</v>
       </c>
       <c r="N146" s="2">
         <f ca="1"/>
-        <v>1.3057450157598573E-3</v>
+        <v>1.2801263040865634E-3</v>
       </c>
       <c r="O146" s="2">
         <f ca="1"/>
-        <v>3.1464223099932698E-6</v>
+        <v>9.331296949610918E-6</v>
       </c>
       <c r="P146" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -11771,19 +11762,19 @@
       </c>
       <c r="S146" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F146:H146,M146:O146)</f>
-        <v>1.3097487846656217E-3</v>
+        <v>1.2902896668412248E-3</v>
       </c>
       <c r="V146" s="2">
         <f t="array" aca="1" ref="V146:X146" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A146:D146)</f>
-        <v>0.99869110856193011</v>
+        <v>0.99871054239896384</v>
       </c>
       <c r="W146" s="2">
         <f ca="1"/>
-        <v>1.3057450157598573E-3</v>
+        <v>1.2801263040865634E-3</v>
       </c>
       <c r="X146" s="2">
         <f ca="1"/>
-        <v>3.1464223099932698E-6</v>
+        <v>9.331296949610918E-6</v>
       </c>
       <c r="Y146" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -11822,16 +11813,16 @@
         <v>0</v>
       </c>
       <c r="M147" s="2">
-        <f t="array" aca="1" ref="M147:O147" ca="1">_xll.nnFeedForward($K$20,A147:D147)</f>
-        <v>4.2762910800114525E-4</v>
+        <f t="array" aca="1" ref="M147:O147" ca="1">_xll.nnFeedForward($K$19,A147:D147)</f>
+        <v>5.4995283725217713E-4</v>
       </c>
       <c r="N147" s="2">
         <f ca="1"/>
-        <v>0.98224004295980838</v>
+        <v>0.99782492945710444</v>
       </c>
       <c r="O147" s="2">
         <f ca="1"/>
-        <v>1.7332327932190559E-2</v>
+        <v>1.6251177056433521E-3</v>
       </c>
       <c r="P147" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -11847,19 +11838,19 @@
       </c>
       <c r="S147" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F147:H147,M147:O147)</f>
-        <v>1.7919557566381934E-2</v>
+        <v>2.17743944447088E-3</v>
       </c>
       <c r="V147" s="2">
         <f t="array" aca="1" ref="V147:X147" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A147:D147)</f>
-        <v>4.2762910800114525E-4</v>
+        <v>5.4995283725217713E-4</v>
       </c>
       <c r="W147" s="2">
         <f ca="1"/>
-        <v>0.98224004295980838</v>
+        <v>0.99782492945710444</v>
       </c>
       <c r="X147" s="2">
         <f ca="1"/>
-        <v>1.7332327932190559E-2</v>
+        <v>1.6251177056433521E-3</v>
       </c>
       <c r="Y147" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -11898,16 +11889,16 @@
         <v>0</v>
       </c>
       <c r="M148" s="2">
-        <f t="array" aca="1" ref="M148:O148" ca="1">_xll.nnFeedForward($K$20,A148:D148)</f>
-        <v>0.99856593850911823</v>
+        <f t="array" aca="1" ref="M148:O148" ca="1">_xll.nnFeedForward($K$19,A148:D148)</f>
+        <v>0.99867917703983344</v>
       </c>
       <c r="N148" s="2">
         <f ca="1"/>
-        <v>1.430631927450855E-3</v>
+        <v>1.3112921671750886E-3</v>
       </c>
       <c r="O148" s="2">
         <f ca="1"/>
-        <v>3.429563430885566E-6</v>
+        <v>9.5307929914158017E-6</v>
       </c>
       <c r="P148" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -11923,19 +11914,19 @@
       </c>
       <c r="S148" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F148:H148,M148:O148)</f>
-        <v>1.4350907411847475E-3</v>
+        <v>1.321696015665117E-3</v>
       </c>
       <c r="V148" s="2">
         <f t="array" aca="1" ref="V148:X148" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A148:D148)</f>
-        <v>0.99856593850911823</v>
+        <v>0.99867917703983344</v>
       </c>
       <c r="W148" s="2">
         <f ca="1"/>
-        <v>1.430631927450855E-3</v>
+        <v>1.3112921671750886E-3</v>
       </c>
       <c r="X148" s="2">
         <f ca="1"/>
-        <v>3.429563430885566E-6</v>
+        <v>9.5307929914158017E-6</v>
       </c>
       <c r="Y148" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -11974,16 +11965,16 @@
         <v>1</v>
       </c>
       <c r="M149" s="2">
-        <f t="array" aca="1" ref="M149:O149" ca="1">_xll.nnFeedForward($K$20,A149:D149)</f>
-        <v>1.0020843535747398E-6</v>
+        <f t="array" aca="1" ref="M149:O149" ca="1">_xll.nnFeedForward($K$19,A149:D149)</f>
+        <v>3.829755936450461E-6</v>
       </c>
       <c r="N149" s="2">
         <f ca="1"/>
-        <v>2.7970337721277354E-3</v>
+        <v>5.4161657379832046E-3</v>
       </c>
       <c r="O149" s="2">
         <f ca="1"/>
-        <v>0.99720196414351869</v>
+        <v>0.99458000450608031</v>
       </c>
       <c r="P149" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -11999,19 +11990,19 @@
       </c>
       <c r="S149" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F149:H149,M149:O149)</f>
-        <v>2.8019576761113408E-3</v>
+        <v>5.4347369594092481E-3</v>
       </c>
       <c r="V149" s="2">
         <f t="array" aca="1" ref="V149:X149" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A149:D149)</f>
-        <v>1.0020843535747398E-6</v>
+        <v>3.829755936450461E-6</v>
       </c>
       <c r="W149" s="2">
         <f ca="1"/>
-        <v>2.7970337721277354E-3</v>
+        <v>5.4161657379832046E-3</v>
       </c>
       <c r="X149" s="2">
         <f ca="1"/>
-        <v>0.99720196414351869</v>
+        <v>0.99458000450608031</v>
       </c>
       <c r="Y149" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -12050,16 +12041,16 @@
         <v>1</v>
       </c>
       <c r="M150" s="2">
-        <f t="array" aca="1" ref="M150:O150" ca="1">_xll.nnFeedForward($K$20,A150:D150)</f>
-        <v>1.0330787206562013E-6</v>
+        <f t="array" aca="1" ref="M150:O150" ca="1">_xll.nnFeedForward($K$19,A150:D150)</f>
+        <v>4.2596032756785115E-6</v>
       </c>
       <c r="N150" s="2">
         <f ca="1"/>
-        <v>2.8796885948942125E-3</v>
+        <v>6.0563208424481985E-3</v>
       </c>
       <c r="O150" s="2">
         <f ca="1"/>
-        <v>0.99711927832638514</v>
+        <v>0.99393941955427612</v>
       </c>
       <c r="P150" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -12075,19 +12066,19 @@
       </c>
       <c r="S150" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F150:H150,M150:O150)</f>
-        <v>2.8848789381629137E-3</v>
+        <v>6.079020305312037E-3</v>
       </c>
       <c r="V150" s="2">
         <f t="array" aca="1" ref="V150:X150" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A150:D150)</f>
-        <v>1.0330787206562013E-6</v>
+        <v>4.2596032756785115E-6</v>
       </c>
       <c r="W150" s="2">
         <f ca="1"/>
-        <v>2.8796885948942125E-3</v>
+        <v>6.0563208424481985E-3</v>
       </c>
       <c r="X150" s="2">
         <f ca="1"/>
-        <v>0.99711927832638514</v>
+        <v>0.99393941955427612</v>
       </c>
       <c r="Y150" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -12126,16 +12117,16 @@
         <v>1</v>
       </c>
       <c r="M151" s="2">
-        <f t="array" aca="1" ref="M151:O151" ca="1">_xll.nnFeedForward($K$20,A151:D151)</f>
-        <v>1.0005311173139533E-6</v>
+        <f t="array" aca="1" ref="M151:O151" ca="1">_xll.nnFeedForward($K$19,A151:D151)</f>
+        <v>3.8239881687054417E-6</v>
       </c>
       <c r="N151" s="2">
         <f ca="1"/>
-        <v>2.7929518786258666E-3</v>
+        <v>5.4078646761589197E-3</v>
       </c>
       <c r="O151" s="2">
         <f ca="1"/>
-        <v>0.99720604759025677</v>
+        <v>0.99458831133567238</v>
       </c>
       <c r="P151" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -12151,19 +12142,19 @@
       </c>
       <c r="S151" s="2">
         <f ca="1">_xll.nnGetCrossEntropyError(F151:H151,M151:O151)</f>
-        <v>2.7978627800679429E-3</v>
+        <v>5.4263848963626293E-3</v>
       </c>
       <c r="V151" s="2">
         <f t="array" aca="1" ref="V151:X151" ca="1">_xll.nnFeedForward(Sheet2!$I$11,Sheet1!A151:D151)</f>
-        <v>1.0005311173139533E-6</v>
+        <v>3.8239881687054417E-6</v>
       </c>
       <c r="W151" s="2">
         <f ca="1"/>
-        <v>2.7929518786258666E-3</v>
+        <v>5.4078646761589197E-3</v>
       </c>
       <c r="X151" s="2">
         <f ca="1"/>
-        <v>0.99720604759025677</v>
+        <v>0.99458831133567238</v>
       </c>
       <c r="Y151" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -12202,14 +12193,14 @@
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="18" t="str">
-        <f ca="1">Sheet1!K20</f>
+        <f ca="1">Sheet1!K19</f>
         <v>Percy</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -12217,15 +12208,15 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="7">
         <v>4</v>
@@ -12233,7 +12224,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -12245,7 +12236,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
         <v>3</v>
@@ -12276,7 +12267,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="19" t="str">
         <f ca="1">_xll.nnMakeArray(C8,C10:C34)</f>
@@ -12298,18 +12289,18 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10" s="18">
         <f t="array" aca="1" ref="C10:C34" ca="1">_xll.nnGetWeights(D4,1)</f>
-        <v>1.1283694114538008</v>
+        <v>-0.34634677517256923</v>
       </c>
       <c r="D10" s="18">
         <f t="array" aca="1" ref="D10:D33" ca="1">_xll.nnGetWeights(D4,2)</f>
-        <v>-6.4710687227704441E-2</v>
+        <v>-0.53442947902673521</v>
       </c>
       <c r="E10" s="18">
         <f t="array" aca="1" ref="E10:E24" ca="1">_xll.nnGetWeights(D4,3)</f>
-        <v>2.6169052260603647</v>
+        <v>1.4462049353244164</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="6" t="str">
         <f ca="1">_xll.nnMakeWeights(I5 &amp; " Weights", C9:E9)</f>
@@ -12319,18 +12310,18 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" s="18">
         <f ca="1"/>
-        <v>3.5818154684058756</v>
+        <v>-0.27722516852101398</v>
       </c>
       <c r="D11" s="18">
         <f ca="1"/>
-        <v>-0.80781689278460844</v>
+        <v>-0.99998719209031772</v>
       </c>
       <c r="E11" s="18">
         <f ca="1"/>
-        <v>-1.7878873458795477</v>
+        <v>2.0403691840385831</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="8" t="str">
         <f ca="1">_xll.nnMakeMultilayerPerceptron(I5,I6,I7,I8:I9,I10)</f>
@@ -12340,288 +12331,288 @@
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" s="18">
         <f ca="1"/>
-        <v>-3.0833818979047716</v>
+        <v>-0.3723606570804362</v>
       </c>
       <c r="D12" s="18">
         <f ca="1"/>
-        <v>-9.3218624891223067E-2</v>
+        <v>0.94183403102025265</v>
       </c>
       <c r="E12" s="18">
         <f ca="1"/>
-        <v>-1.1336619415335476</v>
+        <v>-2.5351155898700712</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C13" s="18">
         <f ca="1"/>
-        <v>-3.3684017529795409</v>
+        <v>0.13603676911826809</v>
       </c>
       <c r="D13" s="18">
         <f ca="1"/>
-        <v>-1.7978459884497053</v>
+        <v>1.4277004335698795</v>
       </c>
       <c r="E13" s="18">
         <f ca="1"/>
-        <v>0.9981775102664876</v>
+        <v>0.68655999593466044</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" s="18">
         <f ca="1"/>
-        <v>1.9163331674184456</v>
+        <v>0.16311319371611138</v>
       </c>
       <c r="D14" s="18">
         <f ca="1"/>
-        <v>1.0556907240350111</v>
+        <v>-1.0442055080542858</v>
       </c>
       <c r="E14" s="18">
         <f ca="1"/>
-        <v>-0.43181520589528544</v>
+        <v>-0.12109320977831142</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" s="18">
         <f ca="1"/>
-        <v>0.31871174676342223</v>
+        <v>-2.1930929024559171E-3</v>
       </c>
       <c r="D15" s="18">
         <f ca="1"/>
-        <v>-0.54213037732797087</v>
+        <v>0.29465551668815193</v>
       </c>
       <c r="E15" s="18">
         <f ca="1"/>
-        <v>-1.3962013378446287</v>
+        <v>1.2733711781232895</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C16" s="18">
         <f ca="1"/>
-        <v>0.35475249805150516</v>
+        <v>-0.38225832799625792</v>
       </c>
       <c r="D16" s="18">
         <f ca="1"/>
-        <v>-1.0177060694862931E-2</v>
+        <v>0.10616465840293113</v>
       </c>
       <c r="E16" s="18">
         <f ca="1"/>
-        <v>1.3593819379616714</v>
+        <v>-1.1133224098476078</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="18">
         <f ca="1"/>
-        <v>0.29410986142875412</v>
+        <v>-0.58408874934698962</v>
       </c>
       <c r="D17" s="18">
         <f ca="1"/>
-        <v>-0.10290601681476293</v>
+        <v>0.62552434060747697</v>
       </c>
       <c r="E17" s="18">
         <f ca="1"/>
-        <v>-1.4337476395051332</v>
+        <v>1.9601874397311807</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="18">
         <f ca="1"/>
-        <v>-0.39791075403942594</v>
+        <v>0.38611780915146721</v>
       </c>
       <c r="D18" s="18">
         <f ca="1"/>
-        <v>0.49229924730613162</v>
+        <v>0.19601880184903606</v>
       </c>
       <c r="E18" s="18">
         <f ca="1"/>
-        <v>5.6313608917414375E-2</v>
+        <v>1.072215328703058</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="18">
         <f ca="1"/>
-        <v>-0.2919777286446581</v>
+        <v>-0.5239104571062807</v>
       </c>
       <c r="D19" s="18">
         <f ca="1"/>
-        <v>1.7818284917130756</v>
+        <v>1.285682935967529</v>
       </c>
       <c r="E19" s="18">
         <f ca="1"/>
-        <v>-0.28779388703238223</v>
+        <v>-0.41172294613436616</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="18">
         <f ca="1"/>
-        <v>0.47762364760349796</v>
+        <v>1.9095554609511409</v>
       </c>
       <c r="D20" s="18">
         <f ca="1"/>
-        <v>-0.24830145414215149</v>
+        <v>-1.2117919147841296</v>
       </c>
       <c r="E20" s="18">
         <f ca="1"/>
-        <v>-1.7070241437260796</v>
+        <v>-2.407138308415063</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="18">
         <f ca="1"/>
-        <v>0.26493955062997687</v>
+        <v>4.1897668659480356</v>
       </c>
       <c r="D21" s="18">
         <f ca="1"/>
-        <v>0.38240053352473569</v>
+        <v>-0.7504665616942352</v>
       </c>
       <c r="E21" s="18">
         <f ca="1"/>
-        <v>0.52658576476302621</v>
+        <v>-0.72244120111121501</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="18">
         <f ca="1"/>
-        <v>8.9393157164521869E-2</v>
+        <v>-4.131460067262104</v>
       </c>
       <c r="D22" s="18">
         <f ca="1"/>
-        <v>-0.82675172389929674</v>
+        <v>-0.59879150926354607</v>
       </c>
       <c r="E22" s="18">
         <f ca="1"/>
-        <v>3.0649806216840614</v>
+        <v>1.4140372126758383</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="18">
         <f ca="1"/>
-        <v>0.16047341626483352</v>
+        <v>-4.3611580289209559</v>
       </c>
       <c r="D23" s="18">
         <f ca="1"/>
-        <v>-0.41280622057243077</v>
+        <v>-0.72194472430576351</v>
       </c>
       <c r="E23" s="18">
         <f ca="1"/>
-        <v>-2.1175389910121156</v>
+        <v>-1.8046073933355775</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="18">
         <f ca="1"/>
-        <v>-0.46197793374120533</v>
+        <v>2.6512874774246722</v>
       </c>
       <c r="D24" s="18">
         <f ca="1"/>
-        <v>-0.41193137754435749</v>
+        <v>-0.73152233290206747</v>
       </c>
       <c r="E24" s="18">
         <f ca="1"/>
-        <v>-0.1409374397163374</v>
+        <v>0.4121121371722673</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="18">
         <f ca="1"/>
-        <v>0.10146737085164277</v>
+        <v>0.88438998388163337</v>
       </c>
       <c r="D25" s="18">
         <f ca="1"/>
-        <v>0.94978250448698587</v>
+        <v>-1.3414659153212565</v>
       </c>
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="18">
         <f ca="1"/>
-        <v>-1.3194108250751635</v>
+        <v>1.3989149159367262</v>
       </c>
       <c r="D26" s="18">
         <f ca="1"/>
-        <v>-1.4838134750025636</v>
+        <v>1.587997374099144</v>
       </c>
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="18">
         <f ca="1"/>
-        <v>0.75926437121155066</v>
+        <v>-1.6608698370500476</v>
       </c>
       <c r="D27" s="18">
         <f ca="1"/>
-        <v>-0.89069388669152505</v>
+        <v>0.98088120444510085</v>
       </c>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="18">
         <f ca="1"/>
-        <v>0.73539265053737979</v>
+        <v>-2.2133138649738733</v>
       </c>
       <c r="D28" s="18">
         <f ca="1"/>
-        <v>0.77036720285581239</v>
+        <v>-0.27983502261725013</v>
       </c>
       <c r="E28" s="18"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="18">
         <f ca="1"/>
-        <v>0.23740283543833013</v>
+        <v>0.59950606313952393</v>
       </c>
       <c r="D29" s="18">
         <f ca="1"/>
-        <v>-0.1869715416282498</v>
+        <v>-0.10115807063242811</v>
       </c>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="18">
         <f ca="1"/>
-        <v>1.4833441103432139</v>
+        <v>0.39315040758309883</v>
       </c>
       <c r="D30" s="18">
         <f ca="1"/>
-        <v>-9.0415753740391958E-2</v>
+        <v>1.3469812727302046</v>
       </c>
       <c r="E30" s="18"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="18">
         <f ca="1"/>
-        <v>2.7062283690723743</v>
+        <v>-1.5897089492253409</v>
       </c>
       <c r="D31" s="18">
         <f ca="1"/>
-        <v>-0.87070734170077568</v>
+        <v>0.59827578824494743</v>
       </c>
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="18">
         <f ca="1"/>
-        <v>-3.1954917839427655</v>
+        <v>0.65298043127952099</v>
       </c>
       <c r="D32" s="18">
         <f ca="1"/>
-        <v>0.66689364686080799</v>
+        <v>-0.18729121530330486</v>
       </c>
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="18">
         <f ca="1"/>
-        <v>-3.3675187724088631</v>
+        <v>0.84685464109346198</v>
       </c>
       <c r="D33" s="18">
         <f ca="1"/>
-        <v>0.11113422749384907</v>
+        <v>0.92591723089971356</v>
       </c>
       <c r="E33" s="18"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="18">
         <f ca="1"/>
-        <v>1.5453571512264226</v>
+        <v>-0.62306501050056617</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
